--- a/Tasksheet Final.xlsx
+++ b/Tasksheet Final.xlsx
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="147">
   <si>
     <t>No.</t>
   </si>
@@ -512,6 +512,9 @@
   </si>
   <si>
     <t>User's Guide For Guests and Customers</t>
+  </si>
+  <si>
+    <t>Delete Trip</t>
   </si>
 </sst>
 </file>
@@ -718,12 +721,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -748,6 +745,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1051,23 +1054,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K172"/>
+  <dimension ref="A1:K173"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H149" sqref="H149"/>
+      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I112" sqref="I112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" style="25" customWidth="1"/>
-    <col min="3" max="3" width="57" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="25" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" style="25" customWidth="1"/>
-    <col min="6" max="6" width="7" style="25" customWidth="1"/>
-    <col min="7" max="7" width="6.42578125" style="25" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="25"/>
+    <col min="1" max="1" width="8.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" style="23" customWidth="1"/>
+    <col min="3" max="3" width="57" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" style="23" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" style="23" customWidth="1"/>
+    <col min="6" max="6" width="7" style="23" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" style="23" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="32.25" customHeight="1">
@@ -1100,8 +1103,8 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="18" t="s">
         <v>40</v>
       </c>
@@ -1119,8 +1122,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
       <c r="C3" s="18" t="s">
         <v>39</v>
       </c>
@@ -1138,8 +1141,8 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
       <c r="C4" s="18" t="s">
         <v>93</v>
       </c>
@@ -1157,8 +1160,8 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75">
-      <c r="A5" s="24"/>
-      <c r="B5" s="24"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="34"/>
       <c r="C5" s="18" t="s">
         <v>94</v>
       </c>
@@ -1176,8 +1179,8 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="18" t="s">
         <v>13</v>
       </c>
@@ -1195,10 +1198,10 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75">
-      <c r="A7" s="24">
+      <c r="A7" s="34">
         <v>2</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="34" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="18" t="s">
@@ -1218,8 +1221,8 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="34"/>
       <c r="C8" s="18" t="s">
         <v>8</v>
       </c>
@@ -1237,8 +1240,8 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75">
-      <c r="A9" s="24"/>
-      <c r="B9" s="24"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="34"/>
       <c r="C9" s="18" t="s">
         <v>9</v>
       </c>
@@ -1256,10 +1259,10 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A10" s="24">
+      <c r="A10" s="34">
         <v>3</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="34" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="18" t="s">
@@ -1277,12 +1280,12 @@
       <c r="I10" s="19">
         <v>1</v>
       </c>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="24"/>
-      <c r="B11" s="24"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="34"/>
       <c r="C11" s="20" t="s">
         <v>11</v>
       </c>
@@ -1292,12 +1295,12 @@
       <c r="G11" s="22"/>
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
+      <c r="A12" s="34"/>
+      <c r="B12" s="34"/>
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
@@ -1313,12 +1316,12 @@
       <c r="I12" s="19">
         <v>1</v>
       </c>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="34"/>
       <c r="C13" s="6" t="s">
         <v>95</v>
       </c>
@@ -1334,12 +1337,12 @@
       <c r="I13" s="19">
         <v>1</v>
       </c>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="34"/>
       <c r="C14" s="9" t="s">
         <v>13</v>
       </c>
@@ -1349,12 +1352,12 @@
       <c r="G14" s="22"/>
       <c r="H14" s="19"/>
       <c r="I14" s="19"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="34"/>
       <c r="C15" s="2" t="s">
         <v>96</v>
       </c>
@@ -1370,12 +1373,12 @@
       <c r="I15" s="19">
         <v>1</v>
       </c>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="34"/>
       <c r="C16" s="2" t="s">
         <v>97</v>
       </c>
@@ -1391,12 +1394,12 @@
       <c r="I16" s="19">
         <v>1</v>
       </c>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
       <c r="C17" s="2" t="s">
         <v>98</v>
       </c>
@@ -1412,12 +1415,12 @@
       <c r="I17" s="19">
         <v>1</v>
       </c>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
       <c r="C18" s="2" t="s">
         <v>99</v>
       </c>
@@ -1433,12 +1436,12 @@
       <c r="I18" s="19">
         <v>1</v>
       </c>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="24"/>
-      <c r="B19" s="24"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="34"/>
       <c r="C19" s="2" t="s">
         <v>100</v>
       </c>
@@ -1454,12 +1457,12 @@
       <c r="I19" s="19">
         <v>1</v>
       </c>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="34"/>
       <c r="C20" s="2" t="s">
         <v>101</v>
       </c>
@@ -1475,12 +1478,12 @@
       <c r="I20" s="19">
         <v>1</v>
       </c>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="34"/>
       <c r="C21" s="2" t="s">
         <v>102</v>
       </c>
@@ -1496,12 +1499,12 @@
       <c r="I21" s="19">
         <v>1</v>
       </c>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="24"/>
-      <c r="B22" s="24"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="34"/>
       <c r="C22" s="2" t="s">
         <v>103</v>
       </c>
@@ -1517,12 +1520,12 @@
       <c r="I22" s="19">
         <v>1</v>
       </c>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="24"/>
-      <c r="B23" s="24"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="34"/>
       <c r="C23" s="2" t="s">
         <v>104</v>
       </c>
@@ -1538,12 +1541,12 @@
       <c r="I23" s="19">
         <v>1</v>
       </c>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="24"/>
-      <c r="B24" s="24"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="34"/>
       <c r="C24" s="2" t="s">
         <v>105</v>
       </c>
@@ -1559,12 +1562,12 @@
       <c r="I24" s="19">
         <v>1</v>
       </c>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="24"/>
-      <c r="B25" s="24"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="34"/>
       <c r="C25" s="2" t="s">
         <v>106</v>
       </c>
@@ -1580,12 +1583,12 @@
       <c r="I25" s="19">
         <v>1</v>
       </c>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="24"/>
-      <c r="B26" s="24"/>
+      <c r="A26" s="34"/>
+      <c r="B26" s="34"/>
       <c r="C26" s="2" t="s">
         <v>107</v>
       </c>
@@ -1601,12 +1604,12 @@
       <c r="I26" s="19">
         <v>1</v>
       </c>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="24"/>
-      <c r="B27" s="24"/>
+      <c r="A27" s="34"/>
+      <c r="B27" s="34"/>
       <c r="C27" s="2" t="s">
         <v>108</v>
       </c>
@@ -1622,12 +1625,12 @@
       <c r="I27" s="19">
         <v>1</v>
       </c>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="24"/>
-      <c r="B28" s="24"/>
+      <c r="A28" s="34"/>
+      <c r="B28" s="34"/>
       <c r="C28" s="2" t="s">
         <v>109</v>
       </c>
@@ -1643,12 +1646,12 @@
       <c r="I28" s="19">
         <v>1</v>
       </c>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="24"/>
-      <c r="B29" s="24"/>
+      <c r="A29" s="34"/>
+      <c r="B29" s="34"/>
       <c r="C29" s="2" t="s">
         <v>110</v>
       </c>
@@ -1664,12 +1667,12 @@
       <c r="I29" s="19">
         <v>1</v>
       </c>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="24"/>
-      <c r="B30" s="24"/>
+      <c r="A30" s="34"/>
+      <c r="B30" s="34"/>
       <c r="C30" s="2" t="s">
         <v>111</v>
       </c>
@@ -1685,12 +1688,12 @@
       <c r="I30" s="19">
         <v>1</v>
       </c>
-      <c r="J30" s="26"/>
-      <c r="K30" s="26"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="24"/>
-      <c r="B31" s="24"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
       <c r="C31" s="2" t="s">
         <v>112</v>
       </c>
@@ -1706,12 +1709,12 @@
       <c r="I31" s="19">
         <v>1</v>
       </c>
-      <c r="J31" s="26"/>
-      <c r="K31" s="26"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="24"/>
-      <c r="B32" s="24"/>
+      <c r="A32" s="34"/>
+      <c r="B32" s="34"/>
       <c r="C32" s="2" t="s">
         <v>113</v>
       </c>
@@ -1727,12 +1730,12 @@
       <c r="I32" s="19">
         <v>1</v>
       </c>
-      <c r="J32" s="26"/>
-      <c r="K32" s="26"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="24"/>
-      <c r="B33" s="24"/>
+      <c r="A33" s="34"/>
+      <c r="B33" s="34"/>
       <c r="C33" s="2" t="s">
         <v>114</v>
       </c>
@@ -1748,12 +1751,12 @@
       <c r="I33" s="19">
         <v>1</v>
       </c>
-      <c r="J33" s="26"/>
-      <c r="K33" s="26"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="24"/>
-      <c r="B34" s="24"/>
+      <c r="A34" s="34"/>
+      <c r="B34" s="34"/>
       <c r="C34" s="2" t="s">
         <v>115</v>
       </c>
@@ -1769,12 +1772,12 @@
       <c r="I34" s="19">
         <v>1</v>
       </c>
-      <c r="J34" s="26"/>
-      <c r="K34" s="26"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="24"/>
-      <c r="B35" s="24"/>
+      <c r="A35" s="34"/>
+      <c r="B35" s="34"/>
       <c r="C35" s="2" t="s">
         <v>116</v>
       </c>
@@ -1790,12 +1793,12 @@
       <c r="I35" s="19">
         <v>1</v>
       </c>
-      <c r="J35" s="26"/>
-      <c r="K35" s="26"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="24"/>
-      <c r="B36" s="24"/>
+      <c r="A36" s="34"/>
+      <c r="B36" s="34"/>
       <c r="C36" s="2" t="s">
         <v>117</v>
       </c>
@@ -1811,12 +1814,12 @@
       <c r="I36" s="19">
         <v>1</v>
       </c>
-      <c r="J36" s="26"/>
-      <c r="K36" s="26"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="24"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="24"/>
-      <c r="B37" s="24"/>
+      <c r="A37" s="34"/>
+      <c r="B37" s="34"/>
       <c r="C37" s="2" t="s">
         <v>118</v>
       </c>
@@ -1832,12 +1835,12 @@
       <c r="I37" s="19">
         <v>1</v>
       </c>
-      <c r="J37" s="26"/>
-      <c r="K37" s="26"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="24"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="24"/>
-      <c r="B38" s="24"/>
+      <c r="A38" s="34"/>
+      <c r="B38" s="34"/>
       <c r="C38" s="2" t="s">
         <v>119</v>
       </c>
@@ -1853,12 +1856,12 @@
       <c r="I38" s="19">
         <v>1</v>
       </c>
-      <c r="J38" s="26"/>
-      <c r="K38" s="26"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="24"/>
-      <c r="B39" s="24"/>
+      <c r="A39" s="34"/>
+      <c r="B39" s="34"/>
       <c r="C39" s="2" t="s">
         <v>120</v>
       </c>
@@ -1874,12 +1877,12 @@
       <c r="I39" s="19">
         <v>1</v>
       </c>
-      <c r="J39" s="26"/>
-      <c r="K39" s="26"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="24"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="24"/>
-      <c r="B40" s="24"/>
+      <c r="A40" s="34"/>
+      <c r="B40" s="34"/>
       <c r="C40" s="2" t="s">
         <v>121</v>
       </c>
@@ -1895,12 +1898,12 @@
       <c r="I40" s="19">
         <v>1</v>
       </c>
-      <c r="J40" s="26"/>
-      <c r="K40" s="26"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="24"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="24"/>
-      <c r="B41" s="24"/>
+      <c r="A41" s="34"/>
+      <c r="B41" s="34"/>
       <c r="C41" s="2" t="s">
         <v>122</v>
       </c>
@@ -1916,12 +1919,12 @@
       <c r="I41" s="19">
         <v>1</v>
       </c>
-      <c r="J41" s="26"/>
-      <c r="K41" s="26"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="24"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="24"/>
-      <c r="B42" s="24"/>
+      <c r="A42" s="34"/>
+      <c r="B42" s="34"/>
       <c r="C42" s="2" t="s">
         <v>123</v>
       </c>
@@ -1937,12 +1940,12 @@
       <c r="I42" s="19">
         <v>1</v>
       </c>
-      <c r="J42" s="26"/>
-      <c r="K42" s="26"/>
+      <c r="J42" s="24"/>
+      <c r="K42" s="24"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="24"/>
-      <c r="B43" s="24"/>
+      <c r="A43" s="34"/>
+      <c r="B43" s="34"/>
       <c r="C43" s="2" t="s">
         <v>124</v>
       </c>
@@ -1958,12 +1961,12 @@
       <c r="I43" s="19">
         <v>1</v>
       </c>
-      <c r="J43" s="26"/>
-      <c r="K43" s="26"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="24"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="24"/>
-      <c r="B44" s="24"/>
+      <c r="A44" s="34"/>
+      <c r="B44" s="34"/>
       <c r="C44" s="2" t="s">
         <v>125</v>
       </c>
@@ -1979,12 +1982,12 @@
       <c r="I44" s="19">
         <v>1</v>
       </c>
-      <c r="J44" s="26"/>
-      <c r="K44" s="26"/>
+      <c r="J44" s="24"/>
+      <c r="K44" s="24"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="24"/>
-      <c r="B45" s="24"/>
+      <c r="A45" s="34"/>
+      <c r="B45" s="34"/>
       <c r="C45" s="2" t="s">
         <v>126</v>
       </c>
@@ -2000,12 +2003,12 @@
       <c r="I45" s="19">
         <v>1</v>
       </c>
-      <c r="J45" s="26"/>
-      <c r="K45" s="26"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="24"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="24"/>
-      <c r="B46" s="24"/>
+      <c r="A46" s="34"/>
+      <c r="B46" s="34"/>
       <c r="C46" s="2" t="s">
         <v>127</v>
       </c>
@@ -2021,12 +2024,12 @@
       <c r="I46" s="19">
         <v>1</v>
       </c>
-      <c r="J46" s="26"/>
-      <c r="K46" s="26"/>
+      <c r="J46" s="24"/>
+      <c r="K46" s="24"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="24"/>
-      <c r="B47" s="24"/>
+      <c r="A47" s="34"/>
+      <c r="B47" s="34"/>
       <c r="C47" s="2" t="s">
         <v>129</v>
       </c>
@@ -2042,12 +2045,12 @@
       <c r="I47" s="19">
         <v>1</v>
       </c>
-      <c r="J47" s="26"/>
-      <c r="K47" s="26"/>
+      <c r="J47" s="24"/>
+      <c r="K47" s="24"/>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="24"/>
-      <c r="B48" s="24"/>
+      <c r="A48" s="34"/>
+      <c r="B48" s="34"/>
       <c r="C48" s="2" t="s">
         <v>128</v>
       </c>
@@ -2063,12 +2066,12 @@
       <c r="I48" s="19">
         <v>1</v>
       </c>
-      <c r="J48" s="26"/>
-      <c r="K48" s="26"/>
+      <c r="J48" s="24"/>
+      <c r="K48" s="24"/>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="24"/>
-      <c r="B49" s="24"/>
+      <c r="A49" s="34"/>
+      <c r="B49" s="34"/>
       <c r="C49" s="9" t="s">
         <v>130</v>
       </c>
@@ -2078,13 +2081,13 @@
       <c r="G49" s="22"/>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
-      <c r="J49" s="26"/>
-      <c r="K49" s="26"/>
+      <c r="J49" s="24"/>
+      <c r="K49" s="24"/>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="24"/>
-      <c r="B50" s="24"/>
-      <c r="C50" s="31" t="s">
+      <c r="A50" s="34"/>
+      <c r="B50" s="34"/>
+      <c r="C50" s="29" t="s">
         <v>14</v>
       </c>
       <c r="D50" s="22"/>
@@ -2093,19 +2096,19 @@
       <c r="G50" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="H50" s="33">
-        <v>1</v>
-      </c>
-      <c r="I50" s="33">
-        <v>1</v>
-      </c>
-      <c r="J50" s="26"/>
-      <c r="K50" s="26"/>
+      <c r="H50" s="31">
+        <v>1</v>
+      </c>
+      <c r="I50" s="31">
+        <v>1</v>
+      </c>
+      <c r="J50" s="24"/>
+      <c r="K50" s="24"/>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="24"/>
-      <c r="B51" s="24"/>
-      <c r="C51" s="31" t="s">
+      <c r="A51" s="34"/>
+      <c r="B51" s="34"/>
+      <c r="C51" s="29" t="s">
         <v>15</v>
       </c>
       <c r="D51" s="22" t="s">
@@ -2114,19 +2117,19 @@
       <c r="E51" s="22"/>
       <c r="F51" s="22"/>
       <c r="G51" s="22"/>
-      <c r="H51" s="33">
-        <v>1</v>
-      </c>
-      <c r="I51" s="33">
-        <v>1</v>
-      </c>
-      <c r="J51" s="26"/>
-      <c r="K51" s="26"/>
+      <c r="H51" s="31">
+        <v>1</v>
+      </c>
+      <c r="I51" s="31">
+        <v>1</v>
+      </c>
+      <c r="J51" s="24"/>
+      <c r="K51" s="24"/>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="24"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="31" t="s">
+      <c r="A52" s="34"/>
+      <c r="B52" s="34"/>
+      <c r="C52" s="29" t="s">
         <v>131</v>
       </c>
       <c r="D52" s="22"/>
@@ -2135,19 +2138,19 @@
         <v>7</v>
       </c>
       <c r="G52" s="22"/>
-      <c r="H52" s="33">
-        <v>1</v>
-      </c>
-      <c r="I52" s="33">
-        <v>1</v>
-      </c>
-      <c r="J52" s="26"/>
-      <c r="K52" s="26"/>
+      <c r="H52" s="31">
+        <v>1</v>
+      </c>
+      <c r="I52" s="31">
+        <v>1</v>
+      </c>
+      <c r="J52" s="24"/>
+      <c r="K52" s="24"/>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="24"/>
-      <c r="B53" s="24"/>
-      <c r="C53" s="31" t="s">
+      <c r="A53" s="34"/>
+      <c r="B53" s="34"/>
+      <c r="C53" s="29" t="s">
         <v>132</v>
       </c>
       <c r="D53" s="22"/>
@@ -2156,19 +2159,19 @@
       </c>
       <c r="F53" s="22"/>
       <c r="G53" s="22"/>
-      <c r="H53" s="33">
-        <v>1</v>
-      </c>
-      <c r="I53" s="33">
-        <v>1</v>
-      </c>
-      <c r="J53" s="26"/>
-      <c r="K53" s="26"/>
+      <c r="H53" s="31">
+        <v>1</v>
+      </c>
+      <c r="I53" s="31">
+        <v>1</v>
+      </c>
+      <c r="J53" s="24"/>
+      <c r="K53" s="24"/>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="24"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="31" t="s">
+      <c r="A54" s="34"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="29" t="s">
         <v>133</v>
       </c>
       <c r="D54" s="22" t="s">
@@ -2177,19 +2180,19 @@
       <c r="E54" s="22"/>
       <c r="F54" s="22"/>
       <c r="G54" s="22"/>
-      <c r="H54" s="33">
-        <v>1</v>
-      </c>
-      <c r="I54" s="33">
-        <v>1</v>
-      </c>
-      <c r="J54" s="26"/>
-      <c r="K54" s="26"/>
+      <c r="H54" s="31">
+        <v>1</v>
+      </c>
+      <c r="I54" s="31">
+        <v>1</v>
+      </c>
+      <c r="J54" s="24"/>
+      <c r="K54" s="24"/>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="24"/>
-      <c r="B55" s="24"/>
-      <c r="C55" s="32" t="s">
+      <c r="A55" s="34"/>
+      <c r="B55" s="34"/>
+      <c r="C55" s="30" t="s">
         <v>16</v>
       </c>
       <c r="D55" s="22"/>
@@ -2198,20 +2201,20 @@
       <c r="G55" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="H55" s="33">
+      <c r="H55" s="31">
         <v>2</v>
       </c>
-      <c r="I55" s="33">
+      <c r="I55" s="31">
         <v>3</v>
       </c>
-      <c r="J55" s="26"/>
-      <c r="K55" s="26"/>
+      <c r="J55" s="24"/>
+      <c r="K55" s="24"/>
     </row>
     <row r="56" spans="1:11" ht="15.75">
-      <c r="A56" s="24">
+      <c r="A56" s="34">
         <v>4</v>
       </c>
-      <c r="B56" s="24" t="s">
+      <c r="B56" s="34" t="s">
         <v>5</v>
       </c>
       <c r="C56" s="18" t="s">
@@ -2225,12 +2228,12 @@
       <c r="G56" s="21"/>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
-      <c r="J56" s="26"/>
-      <c r="K56" s="26"/>
+      <c r="J56" s="24"/>
+      <c r="K56" s="24"/>
     </row>
     <row r="57" spans="1:11" ht="15.75">
-      <c r="A57" s="24"/>
-      <c r="B57" s="24"/>
+      <c r="A57" s="34"/>
+      <c r="B57" s="34"/>
       <c r="C57" s="1" t="s">
         <v>41</v>
       </c>
@@ -2244,9 +2247,9 @@
       <c r="I57" s="19"/>
     </row>
     <row r="58" spans="1:11" ht="15.75">
-      <c r="A58" s="24"/>
-      <c r="B58" s="24"/>
-      <c r="C58" s="34" t="s">
+      <c r="A58" s="34"/>
+      <c r="B58" s="34"/>
+      <c r="C58" s="32" t="s">
         <v>134</v>
       </c>
       <c r="D58" s="21"/>
@@ -2257,9 +2260,9 @@
       <c r="I58" s="19"/>
     </row>
     <row r="59" spans="1:11" ht="15.75">
-      <c r="A59" s="24"/>
-      <c r="B59" s="24"/>
-      <c r="C59" s="35" t="s">
+      <c r="A59" s="34"/>
+      <c r="B59" s="34"/>
+      <c r="C59" s="33" t="s">
         <v>135</v>
       </c>
       <c r="D59" s="21"/>
@@ -2276,9 +2279,9 @@
       </c>
     </row>
     <row r="60" spans="1:11" ht="15.75">
-      <c r="A60" s="24"/>
-      <c r="B60" s="24"/>
-      <c r="C60" s="35" t="s">
+      <c r="A60" s="34"/>
+      <c r="B60" s="34"/>
+      <c r="C60" s="33" t="s">
         <v>136</v>
       </c>
       <c r="D60" s="21" t="s">
@@ -2295,9 +2298,9 @@
       </c>
     </row>
     <row r="61" spans="1:11" ht="15.75">
-      <c r="A61" s="24"/>
-      <c r="B61" s="24"/>
-      <c r="C61" s="35" t="s">
+      <c r="A61" s="34"/>
+      <c r="B61" s="34"/>
+      <c r="C61" s="33" t="s">
         <v>137</v>
       </c>
       <c r="D61" s="21"/>
@@ -2314,9 +2317,9 @@
       </c>
     </row>
     <row r="62" spans="1:11" ht="15.75">
-      <c r="A62" s="24"/>
-      <c r="B62" s="24"/>
-      <c r="C62" s="35" t="s">
+      <c r="A62" s="34"/>
+      <c r="B62" s="34"/>
+      <c r="C62" s="33" t="s">
         <v>139</v>
       </c>
       <c r="D62" s="21"/>
@@ -2333,9 +2336,9 @@
       </c>
     </row>
     <row r="63" spans="1:11" ht="15.75">
-      <c r="A63" s="24"/>
-      <c r="B63" s="24"/>
-      <c r="C63" s="34" t="s">
+      <c r="A63" s="34"/>
+      <c r="B63" s="34"/>
+      <c r="C63" s="32" t="s">
         <v>138</v>
       </c>
       <c r="D63" s="21"/>
@@ -2346,8 +2349,8 @@
       <c r="I63" s="19"/>
     </row>
     <row r="64" spans="1:11" ht="15.75">
-      <c r="A64" s="24"/>
-      <c r="B64" s="24"/>
+      <c r="A64" s="34"/>
+      <c r="B64" s="34"/>
       <c r="C64" s="8" t="s">
         <v>43</v>
       </c>
@@ -2365,8 +2368,8 @@
       </c>
     </row>
     <row r="65" spans="1:9" ht="15.75">
-      <c r="A65" s="24"/>
-      <c r="B65" s="24"/>
+      <c r="A65" s="34"/>
+      <c r="B65" s="34"/>
       <c r="C65" s="8" t="s">
         <v>44</v>
       </c>
@@ -2384,8 +2387,8 @@
       </c>
     </row>
     <row r="66" spans="1:9" ht="15.75">
-      <c r="A66" s="24"/>
-      <c r="B66" s="24"/>
+      <c r="A66" s="34"/>
+      <c r="B66" s="34"/>
       <c r="C66" s="8" t="s">
         <v>45</v>
       </c>
@@ -2403,8 +2406,8 @@
       </c>
     </row>
     <row r="67" spans="1:9" ht="15.75">
-      <c r="A67" s="24"/>
-      <c r="B67" s="24"/>
+      <c r="A67" s="34"/>
+      <c r="B67" s="34"/>
       <c r="C67" s="11" t="s">
         <v>46</v>
       </c>
@@ -2422,8 +2425,8 @@
       </c>
     </row>
     <row r="68" spans="1:9" ht="15.75">
-      <c r="A68" s="24"/>
-      <c r="B68" s="24"/>
+      <c r="A68" s="34"/>
+      <c r="B68" s="34"/>
       <c r="C68" s="1" t="s">
         <v>17</v>
       </c>
@@ -2441,8 +2444,8 @@
       </c>
     </row>
     <row r="69" spans="1:9" ht="15.75">
-      <c r="A69" s="24"/>
-      <c r="B69" s="24"/>
+      <c r="A69" s="34"/>
+      <c r="B69" s="34"/>
       <c r="C69" s="3" t="s">
         <v>47</v>
       </c>
@@ -2454,8 +2457,8 @@
       <c r="I69" s="19"/>
     </row>
     <row r="70" spans="1:9" ht="15.75">
-      <c r="A70" s="24"/>
-      <c r="B70" s="24"/>
+      <c r="A70" s="34"/>
+      <c r="B70" s="34"/>
       <c r="C70" s="11" t="s">
         <v>48</v>
       </c>
@@ -2473,8 +2476,8 @@
       </c>
     </row>
     <row r="71" spans="1:9" ht="15.75">
-      <c r="A71" s="24"/>
-      <c r="B71" s="24"/>
+      <c r="A71" s="34"/>
+      <c r="B71" s="34"/>
       <c r="C71" s="11" t="s">
         <v>49</v>
       </c>
@@ -2492,8 +2495,8 @@
       </c>
     </row>
     <row r="72" spans="1:9" ht="15.75">
-      <c r="A72" s="24"/>
-      <c r="B72" s="24"/>
+      <c r="A72" s="34"/>
+      <c r="B72" s="34"/>
       <c r="C72" s="4" t="s">
         <v>50</v>
       </c>
@@ -2505,8 +2508,8 @@
       <c r="I72" s="19"/>
     </row>
     <row r="73" spans="1:9" ht="15.75">
-      <c r="A73" s="24"/>
-      <c r="B73" s="24"/>
+      <c r="A73" s="34"/>
+      <c r="B73" s="34"/>
       <c r="C73" s="7" t="s">
         <v>84</v>
       </c>
@@ -2524,8 +2527,8 @@
       </c>
     </row>
     <row r="74" spans="1:9" ht="15.75">
-      <c r="A74" s="24"/>
-      <c r="B74" s="24"/>
+      <c r="A74" s="34"/>
+      <c r="B74" s="34"/>
       <c r="C74" s="7" t="s">
         <v>92</v>
       </c>
@@ -2543,8 +2546,8 @@
       </c>
     </row>
     <row r="75" spans="1:9" ht="15.75">
-      <c r="A75" s="24"/>
-      <c r="B75" s="24"/>
+      <c r="A75" s="34"/>
+      <c r="B75" s="34"/>
       <c r="C75" s="7" t="s">
         <v>85</v>
       </c>
@@ -2562,8 +2565,8 @@
       </c>
     </row>
     <row r="76" spans="1:9" ht="15.75">
-      <c r="A76" s="24"/>
-      <c r="B76" s="24"/>
+      <c r="A76" s="34"/>
+      <c r="B76" s="34"/>
       <c r="C76" s="7" t="s">
         <v>86</v>
       </c>
@@ -2581,8 +2584,8 @@
       </c>
     </row>
     <row r="77" spans="1:9" ht="15.75">
-      <c r="A77" s="24"/>
-      <c r="B77" s="24"/>
+      <c r="A77" s="34"/>
+      <c r="B77" s="34"/>
       <c r="C77" s="7" t="s">
         <v>66</v>
       </c>
@@ -2600,8 +2603,8 @@
       </c>
     </row>
     <row r="78" spans="1:9" ht="15.75">
-      <c r="A78" s="24"/>
-      <c r="B78" s="24"/>
+      <c r="A78" s="34"/>
+      <c r="B78" s="34"/>
       <c r="C78" s="7" t="s">
         <v>64</v>
       </c>
@@ -2619,8 +2622,8 @@
       </c>
     </row>
     <row r="79" spans="1:9" ht="15.75">
-      <c r="A79" s="24"/>
-      <c r="B79" s="24"/>
+      <c r="A79" s="34"/>
+      <c r="B79" s="34"/>
       <c r="C79" s="7" t="s">
         <v>83</v>
       </c>
@@ -2638,8 +2641,8 @@
       </c>
     </row>
     <row r="80" spans="1:9" ht="15.75">
-      <c r="A80" s="24"/>
-      <c r="B80" s="24"/>
+      <c r="A80" s="34"/>
+      <c r="B80" s="34"/>
       <c r="C80" s="7" t="s">
         <v>67</v>
       </c>
@@ -2659,8 +2662,8 @@
       </c>
     </row>
     <row r="81" spans="1:9" ht="15.75">
-      <c r="A81" s="24"/>
-      <c r="B81" s="24"/>
+      <c r="A81" s="34"/>
+      <c r="B81" s="34"/>
       <c r="C81" s="7" t="s">
         <v>89</v>
       </c>
@@ -2678,8 +2681,8 @@
       </c>
     </row>
     <row r="82" spans="1:9" ht="15.75">
-      <c r="A82" s="24"/>
-      <c r="B82" s="24"/>
+      <c r="A82" s="34"/>
+      <c r="B82" s="34"/>
       <c r="C82" s="7" t="s">
         <v>88</v>
       </c>
@@ -2697,8 +2700,8 @@
       </c>
     </row>
     <row r="83" spans="1:9" ht="15.75">
-      <c r="A83" s="24"/>
-      <c r="B83" s="24"/>
+      <c r="A83" s="34"/>
+      <c r="B83" s="34"/>
       <c r="C83" s="7" t="s">
         <v>87</v>
       </c>
@@ -2716,8 +2719,8 @@
       </c>
     </row>
     <row r="84" spans="1:9" ht="15.75">
-      <c r="A84" s="24"/>
-      <c r="B84" s="24"/>
+      <c r="A84" s="34"/>
+      <c r="B84" s="34"/>
       <c r="C84" s="7" t="s">
         <v>90</v>
       </c>
@@ -2735,8 +2738,8 @@
       </c>
     </row>
     <row r="85" spans="1:9" ht="15.75">
-      <c r="A85" s="24"/>
-      <c r="B85" s="24"/>
+      <c r="A85" s="34"/>
+      <c r="B85" s="34"/>
       <c r="C85" s="7" t="s">
         <v>91</v>
       </c>
@@ -2754,8 +2757,8 @@
       </c>
     </row>
     <row r="86" spans="1:9" ht="15.75">
-      <c r="A86" s="24"/>
-      <c r="B86" s="24"/>
+      <c r="A86" s="34"/>
+      <c r="B86" s="34"/>
       <c r="C86" s="11" t="s">
         <v>51</v>
       </c>
@@ -2769,8 +2772,8 @@
       <c r="I86" s="19"/>
     </row>
     <row r="87" spans="1:9" ht="15.75">
-      <c r="A87" s="24"/>
-      <c r="B87" s="24"/>
+      <c r="A87" s="34"/>
+      <c r="B87" s="34"/>
       <c r="C87" s="4" t="s">
         <v>52</v>
       </c>
@@ -2782,8 +2785,8 @@
       <c r="I87" s="19"/>
     </row>
     <row r="88" spans="1:9" ht="15.75">
-      <c r="A88" s="24"/>
-      <c r="B88" s="24"/>
+      <c r="A88" s="34"/>
+      <c r="B88" s="34"/>
       <c r="C88" s="7" t="s">
         <v>53</v>
       </c>
@@ -2801,8 +2804,8 @@
       </c>
     </row>
     <row r="89" spans="1:9" ht="15.75">
-      <c r="A89" s="24"/>
-      <c r="B89" s="24"/>
+      <c r="A89" s="34"/>
+      <c r="B89" s="34"/>
       <c r="C89" s="7" t="s">
         <v>54</v>
       </c>
@@ -2820,10 +2823,10 @@
       </c>
     </row>
     <row r="90" spans="1:9" ht="15.75">
-      <c r="A90" s="23">
+      <c r="A90" s="35">
         <v>5</v>
       </c>
-      <c r="B90" s="24" t="s">
+      <c r="B90" s="34" t="s">
         <v>24</v>
       </c>
       <c r="C90" s="20" t="s">
@@ -2835,14 +2838,16 @@
       <c r="E90" s="21"/>
       <c r="F90" s="21"/>
       <c r="G90" s="21"/>
-      <c r="H90" s="19"/>
+      <c r="H90" s="19">
+        <v>1</v>
+      </c>
       <c r="I90" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="15.75">
-      <c r="A91" s="23"/>
-      <c r="B91" s="24"/>
+      <c r="A91" s="35"/>
+      <c r="B91" s="34"/>
       <c r="C91" s="20" t="s">
         <v>140</v>
       </c>
@@ -2854,8 +2859,8 @@
       <c r="I91" s="19"/>
     </row>
     <row r="92" spans="1:9" ht="15.75">
-      <c r="A92" s="23"/>
-      <c r="B92" s="24"/>
+      <c r="A92" s="35"/>
+      <c r="B92" s="34"/>
       <c r="C92" s="8" t="s">
         <v>73</v>
       </c>
@@ -2865,14 +2870,16 @@
       </c>
       <c r="F92" s="21"/>
       <c r="G92" s="21"/>
-      <c r="H92" s="19"/>
+      <c r="H92" s="19">
+        <v>1</v>
+      </c>
       <c r="I92" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="15.75">
-      <c r="A93" s="23"/>
-      <c r="B93" s="24"/>
+      <c r="A93" s="35"/>
+      <c r="B93" s="34"/>
       <c r="C93" s="8" t="s">
         <v>74</v>
       </c>
@@ -2882,14 +2889,16 @@
       <c r="E93" s="21"/>
       <c r="F93" s="21"/>
       <c r="G93" s="21"/>
-      <c r="H93" s="19"/>
+      <c r="H93" s="19">
+        <v>1</v>
+      </c>
       <c r="I93" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="15.75">
-      <c r="A94" s="23"/>
-      <c r="B94" s="24"/>
+      <c r="A94" s="35"/>
+      <c r="B94" s="34"/>
       <c r="C94" s="5" t="s">
         <v>56</v>
       </c>
@@ -2901,8 +2910,8 @@
       <c r="I94" s="19"/>
     </row>
     <row r="95" spans="1:9" ht="15.75">
-      <c r="A95" s="23"/>
-      <c r="B95" s="24"/>
+      <c r="A95" s="35"/>
+      <c r="B95" s="34"/>
       <c r="C95" s="10" t="s">
         <v>58</v>
       </c>
@@ -2912,14 +2921,16 @@
       <c r="E95" s="21"/>
       <c r="F95" s="21"/>
       <c r="G95" s="21"/>
-      <c r="H95" s="19"/>
+      <c r="H95" s="19">
+        <v>1</v>
+      </c>
       <c r="I95" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="15.75">
-      <c r="A96" s="23"/>
-      <c r="B96" s="24"/>
+      <c r="A96" s="35"/>
+      <c r="B96" s="34"/>
       <c r="C96" s="10" t="s">
         <v>59</v>
       </c>
@@ -2929,14 +2940,16 @@
       <c r="E96" s="21"/>
       <c r="F96" s="21"/>
       <c r="G96" s="21"/>
-      <c r="H96" s="19"/>
+      <c r="H96" s="19">
+        <v>1</v>
+      </c>
       <c r="I96" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="15.75">
-      <c r="A97" s="23"/>
-      <c r="B97" s="24"/>
+      <c r="A97" s="35"/>
+      <c r="B97" s="34"/>
       <c r="C97" s="10" t="s">
         <v>60</v>
       </c>
@@ -2946,14 +2959,16 @@
       <c r="E97" s="21"/>
       <c r="F97" s="21"/>
       <c r="G97" s="21"/>
-      <c r="H97" s="19"/>
+      <c r="H97" s="19">
+        <v>1</v>
+      </c>
       <c r="I97" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="15.75">
-      <c r="A98" s="23"/>
-      <c r="B98" s="24"/>
+      <c r="A98" s="35"/>
+      <c r="B98" s="34"/>
       <c r="C98" s="7" t="s">
         <v>61</v>
       </c>
@@ -2963,14 +2978,16 @@
       <c r="E98" s="21"/>
       <c r="F98" s="21"/>
       <c r="G98" s="21"/>
-      <c r="H98" s="19"/>
+      <c r="H98" s="19">
+        <v>1</v>
+      </c>
       <c r="I98" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="15.75">
-      <c r="A99" s="23"/>
-      <c r="B99" s="24"/>
+      <c r="A99" s="35"/>
+      <c r="B99" s="34"/>
       <c r="C99" s="12" t="s">
         <v>62</v>
       </c>
@@ -2982,8 +2999,8 @@
       <c r="I99" s="19"/>
     </row>
     <row r="100" spans="1:9" ht="15.75">
-      <c r="A100" s="23"/>
-      <c r="B100" s="24"/>
+      <c r="A100" s="35"/>
+      <c r="B100" s="34"/>
       <c r="C100" s="13" t="s">
         <v>64</v>
       </c>
@@ -2993,14 +3010,16 @@
       <c r="E100" s="21"/>
       <c r="F100" s="21"/>
       <c r="G100" s="21"/>
-      <c r="H100" s="19"/>
+      <c r="H100" s="19">
+        <v>1</v>
+      </c>
       <c r="I100" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="15.75">
-      <c r="A101" s="23"/>
-      <c r="B101" s="24"/>
+      <c r="A101" s="35"/>
+      <c r="B101" s="34"/>
       <c r="C101" s="12" t="s">
         <v>63</v>
       </c>
@@ -3012,8 +3031,8 @@
       <c r="I101" s="19"/>
     </row>
     <row r="102" spans="1:9" ht="15.75">
-      <c r="A102" s="23"/>
-      <c r="B102" s="24"/>
+      <c r="A102" s="35"/>
+      <c r="B102" s="34"/>
       <c r="C102" s="13" t="s">
         <v>65</v>
       </c>
@@ -3023,80 +3042,88 @@
       </c>
       <c r="F102" s="21"/>
       <c r="G102" s="21"/>
-      <c r="H102" s="19"/>
+      <c r="H102" s="19">
+        <v>1</v>
+      </c>
       <c r="I102" s="19">
         <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="15.75">
-      <c r="A103" s="23"/>
-      <c r="B103" s="24"/>
-      <c r="C103" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="D103" s="21"/>
+      <c r="A103" s="35"/>
+      <c r="B103" s="34"/>
+      <c r="C103" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="D103" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="E103" s="21"/>
       <c r="F103" s="21"/>
       <c r="G103" s="21"/>
-      <c r="H103" s="19"/>
-      <c r="I103" s="19"/>
+      <c r="H103" s="19">
+        <v>1</v>
+      </c>
+      <c r="I103" s="19">
+        <v>2</v>
+      </c>
     </row>
     <row r="104" spans="1:9" ht="15.75">
-      <c r="A104" s="23"/>
-      <c r="B104" s="24"/>
-      <c r="C104" s="13" t="s">
-        <v>66</v>
+      <c r="A104" s="35"/>
+      <c r="B104" s="34"/>
+      <c r="C104" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="D104" s="21"/>
       <c r="E104" s="21"/>
-      <c r="F104" s="21" t="s">
-        <v>7</v>
-      </c>
+      <c r="F104" s="21"/>
       <c r="G104" s="21"/>
       <c r="H104" s="19"/>
-      <c r="I104" s="19">
+      <c r="I104" s="19"/>
+    </row>
+    <row r="105" spans="1:9" ht="15.75">
+      <c r="A105" s="35"/>
+      <c r="B105" s="34"/>
+      <c r="C105" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D105" s="21"/>
+      <c r="E105" s="21"/>
+      <c r="F105" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="G105" s="21"/>
+      <c r="H105" s="19">
+        <v>1</v>
+      </c>
+      <c r="I105" s="19">
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15.75">
-      <c r="A105" s="23"/>
-      <c r="B105" s="24"/>
-      <c r="C105" s="13" t="s">
+    <row r="106" spans="1:9" ht="15.75">
+      <c r="A106" s="35"/>
+      <c r="B106" s="34"/>
+      <c r="C106" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D105" s="21"/>
-      <c r="E105" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F105" s="21"/>
-      <c r="G105" s="21"/>
-      <c r="H105" s="19"/>
-      <c r="I105" s="19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" ht="15.75">
-      <c r="A106" s="23"/>
-      <c r="B106" s="24"/>
-      <c r="C106" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D106" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E106" s="21"/>
+      <c r="D106" s="21"/>
+      <c r="E106" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="F106" s="21"/>
       <c r="G106" s="21"/>
-      <c r="H106" s="19"/>
+      <c r="H106" s="19">
+        <v>1</v>
+      </c>
       <c r="I106" s="19">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="15.75">
-      <c r="A107" s="23"/>
-      <c r="B107" s="24"/>
+      <c r="A107" s="35"/>
+      <c r="B107" s="34"/>
       <c r="C107" s="13" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D107" s="21" t="s">
         <v>7</v>
@@ -3104,16 +3131,18 @@
       <c r="E107" s="21"/>
       <c r="F107" s="21"/>
       <c r="G107" s="21"/>
-      <c r="H107" s="19"/>
+      <c r="H107" s="19">
+        <v>1</v>
+      </c>
       <c r="I107" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="15.75">
-      <c r="A108" s="23"/>
-      <c r="B108" s="24"/>
+      <c r="A108" s="35"/>
+      <c r="B108" s="34"/>
       <c r="C108" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D108" s="21" t="s">
         <v>7</v>
@@ -3121,63 +3150,69 @@
       <c r="E108" s="21"/>
       <c r="F108" s="21"/>
       <c r="G108" s="21"/>
-      <c r="H108" s="19"/>
+      <c r="H108" s="19">
+        <v>1</v>
+      </c>
       <c r="I108" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="15.75">
-      <c r="A109" s="23"/>
-      <c r="B109" s="24"/>
-      <c r="C109" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D109" s="21"/>
+      <c r="A109" s="35"/>
+      <c r="B109" s="34"/>
+      <c r="C109" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D109" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="E109" s="21"/>
       <c r="F109" s="21"/>
       <c r="G109" s="21"/>
-      <c r="H109" s="19"/>
-      <c r="I109" s="19"/>
+      <c r="H109" s="19">
+        <v>1</v>
+      </c>
+      <c r="I109" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="110" spans="1:9" ht="15.75">
-      <c r="A110" s="23"/>
-      <c r="B110" s="24"/>
-      <c r="C110" s="10" t="s">
-        <v>70</v>
+      <c r="A110" s="35"/>
+      <c r="B110" s="34"/>
+      <c r="C110" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="D110" s="21"/>
-      <c r="E110" s="21" t="s">
-        <v>7</v>
-      </c>
+      <c r="E110" s="21"/>
       <c r="F110" s="21"/>
       <c r="G110" s="21"/>
       <c r="H110" s="19"/>
-      <c r="I110" s="19">
+      <c r="I110" s="19"/>
+    </row>
+    <row r="111" spans="1:9" ht="15.75">
+      <c r="A111" s="35"/>
+      <c r="B111" s="34"/>
+      <c r="C111" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D111" s="21"/>
+      <c r="E111" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F111" s="21"/>
+      <c r="G111" s="21"/>
+      <c r="H111" s="19">
+        <v>1</v>
+      </c>
+      <c r="I111" s="19">
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="15.75">
-      <c r="A111" s="23"/>
-      <c r="B111" s="24"/>
-      <c r="C111" s="10" t="s">
+    <row r="112" spans="1:9" ht="15.75">
+      <c r="A112" s="35"/>
+      <c r="B112" s="34"/>
+      <c r="C112" s="10" t="s">
         <v>71</v>
-      </c>
-      <c r="D111" s="21"/>
-      <c r="E111" s="21"/>
-      <c r="F111" s="21"/>
-      <c r="G111" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="H111" s="19"/>
-      <c r="I111" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" ht="15.75">
-      <c r="A112" s="23"/>
-      <c r="B112" s="24"/>
-      <c r="C112" s="10" t="s">
-        <v>72</v>
       </c>
       <c r="D112" s="21"/>
       <c r="E112" s="21"/>
@@ -3185,16 +3220,18 @@
       <c r="G112" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H112" s="19"/>
+      <c r="H112" s="19">
+        <v>1</v>
+      </c>
       <c r="I112" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="15.75">
-      <c r="A113" s="23"/>
-      <c r="B113" s="24"/>
+      <c r="A113" s="35"/>
+      <c r="B113" s="34"/>
       <c r="C113" s="10" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D113" s="21"/>
       <c r="E113" s="21"/>
@@ -3202,135 +3239,145 @@
       <c r="G113" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H113" s="19"/>
+      <c r="H113" s="19">
+        <v>1</v>
+      </c>
       <c r="I113" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="15.75">
-      <c r="A114" s="23"/>
-      <c r="B114" s="24"/>
-      <c r="C114" s="20" t="s">
-        <v>55</v>
+      <c r="A114" s="35"/>
+      <c r="B114" s="34"/>
+      <c r="C114" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="D114" s="21"/>
       <c r="E114" s="21"/>
       <c r="F114" s="21"/>
-      <c r="G114" s="21"/>
-      <c r="H114" s="19"/>
-      <c r="I114" s="19"/>
+      <c r="G114" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H114" s="19">
+        <v>1</v>
+      </c>
+      <c r="I114" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="115" spans="1:9" ht="15.75">
-      <c r="A115" s="23"/>
-      <c r="B115" s="24"/>
-      <c r="C115" s="8" t="s">
-        <v>75</v>
+      <c r="A115" s="35"/>
+      <c r="B115" s="34"/>
+      <c r="C115" s="20" t="s">
+        <v>55</v>
       </c>
       <c r="D115" s="21"/>
       <c r="E115" s="21"/>
-      <c r="F115" s="21" t="s">
-        <v>7</v>
-      </c>
+      <c r="F115" s="21"/>
       <c r="G115" s="21"/>
       <c r="H115" s="19"/>
-      <c r="I115" s="19">
-        <v>2</v>
-      </c>
+      <c r="I115" s="19"/>
     </row>
     <row r="116" spans="1:9" ht="15.75">
-      <c r="A116" s="23"/>
-      <c r="B116" s="24"/>
+      <c r="A116" s="35"/>
+      <c r="B116" s="34"/>
       <c r="C116" s="8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D116" s="21"/>
-      <c r="E116" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F116" s="21"/>
+      <c r="E116" s="21"/>
+      <c r="F116" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="G116" s="21"/>
-      <c r="H116" s="19"/>
+      <c r="H116" s="19">
+        <v>1</v>
+      </c>
       <c r="I116" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="15.75">
-      <c r="A117" s="23"/>
-      <c r="B117" s="24"/>
+      <c r="A117" s="35"/>
+      <c r="B117" s="34"/>
       <c r="C117" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D117" s="21"/>
+      <c r="E117" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F117" s="21"/>
+      <c r="G117" s="21"/>
+      <c r="H117" s="19">
+        <v>1</v>
+      </c>
+      <c r="I117" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="15.75">
+      <c r="A118" s="35"/>
+      <c r="B118" s="34"/>
+      <c r="C118" s="8" t="s">
         <v>80</v>
-      </c>
-      <c r="D117" s="21"/>
-      <c r="E117" s="21"/>
-      <c r="F117" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="G117" s="21"/>
-      <c r="H117" s="19"/>
-      <c r="I117" s="19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" ht="15.75">
-      <c r="A118" s="23"/>
-      <c r="B118" s="24"/>
-      <c r="C118" s="8" t="s">
-        <v>76</v>
       </c>
       <c r="D118" s="21"/>
       <c r="E118" s="21"/>
-      <c r="F118" s="21"/>
-      <c r="G118" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="H118" s="19"/>
+      <c r="F118" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="G118" s="21"/>
+      <c r="H118" s="19">
+        <v>1</v>
+      </c>
       <c r="I118" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="15.75">
+      <c r="A119" s="35"/>
+      <c r="B119" s="34"/>
+      <c r="C119" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D119" s="21"/>
+      <c r="E119" s="21"/>
+      <c r="F119" s="21"/>
+      <c r="G119" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H119" s="19">
+        <v>1</v>
+      </c>
+      <c r="I119" s="19">
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="15.75">
-      <c r="A119" s="23"/>
-      <c r="B119" s="24"/>
-      <c r="C119" s="1" t="s">
+    <row r="120" spans="1:9" ht="15.75">
+      <c r="A120" s="35"/>
+      <c r="B120" s="34"/>
+      <c r="C120" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D119" s="21"/>
-      <c r="E119" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F119" s="21"/>
-      <c r="G119" s="21"/>
-      <c r="H119" s="19">
-        <v>1</v>
-      </c>
-      <c r="I119" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" ht="15.75">
-      <c r="A120" s="23"/>
-      <c r="B120" s="24"/>
-      <c r="C120" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D120" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E120" s="21"/>
+      <c r="D120" s="21"/>
+      <c r="E120" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="F120" s="21"/>
       <c r="G120" s="21"/>
       <c r="H120" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I120" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="15.75">
-      <c r="A121" s="23"/>
-      <c r="B121" s="24"/>
+      <c r="A121" s="35"/>
+      <c r="B121" s="34"/>
       <c r="C121" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D121" s="21" t="s">
         <v>7</v>
@@ -3339,49 +3386,49 @@
       <c r="F121" s="21"/>
       <c r="G121" s="21"/>
       <c r="H121" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I121" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="15.75">
-      <c r="A122" s="23"/>
-      <c r="B122" s="24"/>
-      <c r="C122" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D122" s="21"/>
+      <c r="A122" s="35"/>
+      <c r="B122" s="34"/>
+      <c r="C122" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D122" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="E122" s="21"/>
       <c r="F122" s="21"/>
       <c r="G122" s="21"/>
-      <c r="H122" s="19"/>
-      <c r="I122" s="19"/>
+      <c r="H122" s="19">
+        <v>1</v>
+      </c>
+      <c r="I122" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="123" spans="1:9" ht="15.75">
-      <c r="A123" s="23"/>
-      <c r="B123" s="24"/>
-      <c r="C123" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D123" s="21" t="s">
-        <v>7</v>
-      </c>
+      <c r="A123" s="35"/>
+      <c r="B123" s="34"/>
+      <c r="C123" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D123" s="21"/>
       <c r="E123" s="21"/>
       <c r="F123" s="21"/>
       <c r="G123" s="21"/>
-      <c r="H123" s="19">
-        <v>1</v>
-      </c>
-      <c r="I123" s="19">
-        <v>1</v>
-      </c>
+      <c r="H123" s="19"/>
+      <c r="I123" s="19"/>
     </row>
     <row r="124" spans="1:9" ht="15.75">
-      <c r="A124" s="23"/>
-      <c r="B124" s="24"/>
+      <c r="A124" s="35"/>
+      <c r="B124" s="34"/>
       <c r="C124" s="8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D124" s="21" t="s">
         <v>7</v>
@@ -3397,10 +3444,10 @@
       </c>
     </row>
     <row r="125" spans="1:9" ht="15.75">
-      <c r="A125" s="23"/>
-      <c r="B125" s="24"/>
+      <c r="A125" s="35"/>
+      <c r="B125" s="34"/>
       <c r="C125" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D125" s="21" t="s">
         <v>7</v>
@@ -3416,10 +3463,10 @@
       </c>
     </row>
     <row r="126" spans="1:9" ht="15.75">
-      <c r="A126" s="23"/>
-      <c r="B126" s="24"/>
+      <c r="A126" s="35"/>
+      <c r="B126" s="34"/>
       <c r="C126" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D126" s="21" t="s">
         <v>7</v>
@@ -3435,10 +3482,10 @@
       </c>
     </row>
     <row r="127" spans="1:9" ht="15.75">
-      <c r="A127" s="23"/>
-      <c r="B127" s="24"/>
+      <c r="A127" s="35"/>
+      <c r="B127" s="34"/>
       <c r="C127" s="8" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="D127" s="21" t="s">
         <v>7</v>
@@ -3454,10 +3501,10 @@
       </c>
     </row>
     <row r="128" spans="1:9" ht="15.75">
-      <c r="A128" s="23"/>
-      <c r="B128" s="24"/>
+      <c r="A128" s="35"/>
+      <c r="B128" s="34"/>
       <c r="C128" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D128" s="21" t="s">
         <v>7</v>
@@ -3473,10 +3520,10 @@
       </c>
     </row>
     <row r="129" spans="1:9" ht="15.75">
-      <c r="A129" s="23"/>
-      <c r="B129" s="24"/>
+      <c r="A129" s="35"/>
+      <c r="B129" s="34"/>
       <c r="C129" s="8" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D129" s="21" t="s">
         <v>7</v>
@@ -3492,10 +3539,10 @@
       </c>
     </row>
     <row r="130" spans="1:9" ht="15.75">
-      <c r="A130" s="23"/>
-      <c r="B130" s="24"/>
+      <c r="A130" s="35"/>
+      <c r="B130" s="34"/>
       <c r="C130" s="8" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D130" s="21" t="s">
         <v>7</v>
@@ -3511,10 +3558,10 @@
       </c>
     </row>
     <row r="131" spans="1:9" ht="15.75">
-      <c r="A131" s="23"/>
-      <c r="B131" s="24"/>
+      <c r="A131" s="35"/>
+      <c r="B131" s="34"/>
       <c r="C131" s="8" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="D131" s="21" t="s">
         <v>7</v>
@@ -3530,10 +3577,10 @@
       </c>
     </row>
     <row r="132" spans="1:9" ht="15.75">
-      <c r="A132" s="23"/>
-      <c r="B132" s="24"/>
+      <c r="A132" s="35"/>
+      <c r="B132" s="34"/>
       <c r="C132" s="8" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D132" s="21" t="s">
         <v>7</v>
@@ -3549,10 +3596,10 @@
       </c>
     </row>
     <row r="133" spans="1:9" ht="15.75">
-      <c r="A133" s="23"/>
-      <c r="B133" s="24"/>
+      <c r="A133" s="35"/>
+      <c r="B133" s="34"/>
       <c r="C133" s="8" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D133" s="21" t="s">
         <v>7</v>
@@ -3568,42 +3615,42 @@
       </c>
     </row>
     <row r="134" spans="1:9" ht="15.75">
-      <c r="A134" s="23"/>
-      <c r="B134" s="24"/>
-      <c r="C134" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D134" s="21"/>
+      <c r="A134" s="35"/>
+      <c r="B134" s="34"/>
+      <c r="C134" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D134" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="E134" s="21"/>
       <c r="F134" s="21"/>
       <c r="G134" s="21"/>
-      <c r="H134" s="19"/>
-      <c r="I134" s="19"/>
+      <c r="H134" s="19">
+        <v>1</v>
+      </c>
+      <c r="I134" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="135" spans="1:9" ht="15.75">
-      <c r="A135" s="23"/>
-      <c r="B135" s="24"/>
-      <c r="C135" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D135" s="21" t="s">
-        <v>7</v>
-      </c>
+      <c r="A135" s="35"/>
+      <c r="B135" s="34"/>
+      <c r="C135" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D135" s="21"/>
       <c r="E135" s="21"/>
       <c r="F135" s="21"/>
       <c r="G135" s="21"/>
-      <c r="H135" s="19">
-        <v>1</v>
-      </c>
-      <c r="I135" s="19">
-        <v>1</v>
-      </c>
+      <c r="H135" s="19"/>
+      <c r="I135" s="19"/>
     </row>
     <row r="136" spans="1:9" ht="15.75">
-      <c r="A136" s="23"/>
-      <c r="B136" s="24"/>
+      <c r="A136" s="35"/>
+      <c r="B136" s="34"/>
       <c r="C136" s="8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D136" s="21" t="s">
         <v>7</v>
@@ -3619,10 +3666,10 @@
       </c>
     </row>
     <row r="137" spans="1:9" ht="15.75">
-      <c r="A137" s="23"/>
-      <c r="B137" s="24"/>
+      <c r="A137" s="35"/>
+      <c r="B137" s="34"/>
       <c r="C137" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D137" s="21" t="s">
         <v>7</v>
@@ -3638,10 +3685,10 @@
       </c>
     </row>
     <row r="138" spans="1:9" ht="15.75">
-      <c r="A138" s="23"/>
-      <c r="B138" s="24"/>
+      <c r="A138" s="35"/>
+      <c r="B138" s="34"/>
       <c r="C138" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D138" s="21" t="s">
         <v>7</v>
@@ -3657,10 +3704,10 @@
       </c>
     </row>
     <row r="139" spans="1:9" ht="15.75">
-      <c r="A139" s="23"/>
-      <c r="B139" s="24"/>
+      <c r="A139" s="35"/>
+      <c r="B139" s="34"/>
       <c r="C139" s="8" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="D139" s="21" t="s">
         <v>7</v>
@@ -3676,10 +3723,10 @@
       </c>
     </row>
     <row r="140" spans="1:9" ht="15.75">
-      <c r="A140" s="23"/>
-      <c r="B140" s="24"/>
+      <c r="A140" s="35"/>
+      <c r="B140" s="34"/>
       <c r="C140" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D140" s="21" t="s">
         <v>7</v>
@@ -3695,10 +3742,10 @@
       </c>
     </row>
     <row r="141" spans="1:9" ht="15.75">
-      <c r="A141" s="23"/>
-      <c r="B141" s="24"/>
+      <c r="A141" s="35"/>
+      <c r="B141" s="34"/>
       <c r="C141" s="8" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D141" s="21" t="s">
         <v>7</v>
@@ -3714,10 +3761,10 @@
       </c>
     </row>
     <row r="142" spans="1:9" ht="15.75">
-      <c r="A142" s="23"/>
-      <c r="B142" s="24"/>
+      <c r="A142" s="35"/>
+      <c r="B142" s="34"/>
       <c r="C142" s="8" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D142" s="21" t="s">
         <v>7</v>
@@ -3733,10 +3780,10 @@
       </c>
     </row>
     <row r="143" spans="1:9" ht="15.75">
-      <c r="A143" s="23"/>
-      <c r="B143" s="24"/>
+      <c r="A143" s="35"/>
+      <c r="B143" s="34"/>
       <c r="C143" s="8" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="D143" s="21" t="s">
         <v>7</v>
@@ -3752,10 +3799,10 @@
       </c>
     </row>
     <row r="144" spans="1:9" ht="15.75">
-      <c r="A144" s="23"/>
-      <c r="B144" s="24"/>
+      <c r="A144" s="35"/>
+      <c r="B144" s="34"/>
       <c r="C144" s="8" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D144" s="21" t="s">
         <v>7</v>
@@ -3771,10 +3818,10 @@
       </c>
     </row>
     <row r="145" spans="1:9" ht="15.75">
-      <c r="A145" s="23"/>
-      <c r="B145" s="24"/>
+      <c r="A145" s="35"/>
+      <c r="B145" s="34"/>
       <c r="C145" s="8" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D145" s="21" t="s">
         <v>7</v>
@@ -3790,70 +3837,70 @@
       </c>
     </row>
     <row r="146" spans="1:9" ht="15.75">
-      <c r="A146" s="23">
-        <v>6</v>
-      </c>
-      <c r="B146" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C146" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D146" s="21"/>
+      <c r="A146" s="35"/>
+      <c r="B146" s="34"/>
+      <c r="C146" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D146" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="E146" s="21"/>
-      <c r="F146" s="21" t="s">
-        <v>7</v>
-      </c>
+      <c r="F146" s="21"/>
       <c r="G146" s="21"/>
       <c r="H146" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I146" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="15.75">
-      <c r="A147" s="23"/>
-      <c r="B147" s="24"/>
+      <c r="A147" s="35">
+        <v>6</v>
+      </c>
+      <c r="B147" s="34" t="s">
+        <v>6</v>
+      </c>
       <c r="C147" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D147" s="21"/>
       <c r="E147" s="21"/>
-      <c r="F147" s="21"/>
+      <c r="F147" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="G147" s="21"/>
-      <c r="H147" s="19"/>
-      <c r="I147" s="19"/>
+      <c r="H147" s="19">
+        <v>2</v>
+      </c>
+      <c r="I147" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="148" spans="1:9" ht="15.75">
-      <c r="A148" s="23"/>
-      <c r="B148" s="24"/>
-      <c r="C148" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="D148" s="21" t="s">
-        <v>7</v>
-      </c>
+      <c r="A148" s="35"/>
+      <c r="B148" s="34"/>
+      <c r="C148" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D148" s="21"/>
       <c r="E148" s="21"/>
       <c r="F148" s="21"/>
-      <c r="G148" s="18"/>
-      <c r="H148" s="19">
-        <v>2</v>
-      </c>
-      <c r="I148" s="19">
-        <v>1</v>
-      </c>
+      <c r="G148" s="21"/>
+      <c r="H148" s="19"/>
+      <c r="I148" s="19"/>
     </row>
     <row r="149" spans="1:9" ht="15.75">
-      <c r="A149" s="23"/>
-      <c r="B149" s="24"/>
-      <c r="C149" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="D149" s="21"/>
-      <c r="E149" s="21" t="s">
-        <v>7</v>
-      </c>
+      <c r="A149" s="35"/>
+      <c r="B149" s="34"/>
+      <c r="C149" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="D149" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E149" s="21"/>
       <c r="F149" s="21"/>
       <c r="G149" s="18"/>
       <c r="H149" s="19">
@@ -3863,244 +3910,263 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:9">
-      <c r="A150" s="27"/>
-      <c r="B150" s="27"/>
-      <c r="D150" s="27"/>
-      <c r="E150" s="27"/>
-      <c r="F150" s="27"/>
-      <c r="G150" s="27"/>
-      <c r="I150" s="27"/>
+    <row r="150" spans="1:9" ht="15.75">
+      <c r="A150" s="35"/>
+      <c r="B150" s="34"/>
+      <c r="C150" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="D150" s="21"/>
+      <c r="E150" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F150" s="21"/>
+      <c r="G150" s="18"/>
+      <c r="H150" s="19">
+        <v>2</v>
+      </c>
+      <c r="I150" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="151" spans="1:9">
-      <c r="A151" s="28" t="s">
+      <c r="A151" s="25"/>
+      <c r="B151" s="25"/>
+      <c r="D151" s="25"/>
+      <c r="E151" s="25"/>
+      <c r="F151" s="25"/>
+      <c r="G151" s="25"/>
+      <c r="I151" s="25"/>
+    </row>
+    <row r="152" spans="1:9">
+      <c r="A152" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B151" s="27"/>
-      <c r="D151" s="27"/>
-      <c r="E151" s="27"/>
-      <c r="F151" s="27"/>
-      <c r="G151" s="27"/>
-      <c r="I151" s="27"/>
-    </row>
-    <row r="152" spans="1:9">
-      <c r="A152" s="29" t="s">
+      <c r="B152" s="25"/>
+      <c r="D152" s="25"/>
+      <c r="E152" s="25"/>
+      <c r="F152" s="25"/>
+      <c r="G152" s="25"/>
+      <c r="I152" s="25"/>
+    </row>
+    <row r="153" spans="1:9">
+      <c r="A153" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B152" s="29" t="s">
+      <c r="B153" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C152" s="18" t="s">
+      <c r="C153" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D152" s="27"/>
-      <c r="E152" s="27"/>
-      <c r="F152" s="27"/>
-      <c r="G152" s="27"/>
-      <c r="I152" s="27"/>
-    </row>
-    <row r="153" spans="1:9" ht="60">
-      <c r="A153" s="29">
-        <v>1</v>
-      </c>
-      <c r="B153" s="30" t="s">
+      <c r="D153" s="25"/>
+      <c r="E153" s="25"/>
+      <c r="F153" s="25"/>
+      <c r="G153" s="25"/>
+      <c r="I153" s="25"/>
+    </row>
+    <row r="154" spans="1:9" ht="60">
+      <c r="A154" s="27">
+        <v>1</v>
+      </c>
+      <c r="B154" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="C153" s="18">
-        <v>1</v>
-      </c>
-      <c r="D153" s="27"/>
-      <c r="E153" s="27"/>
-      <c r="F153" s="27"/>
-      <c r="G153" s="27"/>
-      <c r="I153" s="27"/>
-    </row>
-    <row r="154" spans="1:9" ht="30">
-      <c r="A154" s="18">
-        <v>2</v>
-      </c>
-      <c r="B154" s="30" t="s">
-        <v>30</v>
-      </c>
       <c r="C154" s="18">
-        <v>2</v>
-      </c>
-      <c r="D154" s="27"/>
-      <c r="E154" s="27"/>
-      <c r="F154" s="27"/>
-      <c r="G154" s="27"/>
-      <c r="I154" s="27"/>
+        <v>1</v>
+      </c>
+      <c r="D154" s="25"/>
+      <c r="E154" s="25"/>
+      <c r="F154" s="25"/>
+      <c r="G154" s="25"/>
+      <c r="I154" s="25"/>
     </row>
     <row r="155" spans="1:9" ht="30">
       <c r="A155" s="18">
-        <v>3</v>
-      </c>
-      <c r="B155" s="30" t="s">
-        <v>31</v>
+        <v>2</v>
+      </c>
+      <c r="B155" s="28" t="s">
+        <v>30</v>
       </c>
       <c r="C155" s="18">
-        <v>3</v>
-      </c>
-      <c r="D155" s="27"/>
-      <c r="E155" s="27"/>
-      <c r="F155" s="27"/>
-      <c r="G155" s="27"/>
-      <c r="I155" s="27"/>
+        <v>2</v>
+      </c>
+      <c r="D155" s="25"/>
+      <c r="E155" s="25"/>
+      <c r="F155" s="25"/>
+      <c r="G155" s="25"/>
+      <c r="I155" s="25"/>
     </row>
     <row r="156" spans="1:9" ht="30">
       <c r="A156" s="18">
-        <v>4</v>
-      </c>
-      <c r="B156" s="30" t="s">
-        <v>34</v>
+        <v>3</v>
+      </c>
+      <c r="B156" s="28" t="s">
+        <v>31</v>
       </c>
       <c r="C156" s="18">
-        <v>4</v>
-      </c>
-      <c r="D156" s="27"/>
-      <c r="E156" s="27"/>
-      <c r="F156" s="27"/>
-      <c r="G156" s="27"/>
-      <c r="I156" s="27"/>
+        <v>3</v>
+      </c>
+      <c r="D156" s="25"/>
+      <c r="E156" s="25"/>
+      <c r="F156" s="25"/>
+      <c r="G156" s="25"/>
+      <c r="I156" s="25"/>
     </row>
     <row r="157" spans="1:9" ht="30">
       <c r="A157" s="18">
+        <v>4</v>
+      </c>
+      <c r="B157" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C157" s="18">
+        <v>4</v>
+      </c>
+      <c r="D157" s="25"/>
+      <c r="E157" s="25"/>
+      <c r="F157" s="25"/>
+      <c r="G157" s="25"/>
+      <c r="I157" s="25"/>
+    </row>
+    <row r="158" spans="1:9" ht="30">
+      <c r="A158" s="18">
         <v>5</v>
       </c>
-      <c r="B157" s="30" t="s">
+      <c r="B158" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="C157" s="18">
+      <c r="C158" s="18">
         <v>5</v>
       </c>
-      <c r="D157" s="27"/>
-      <c r="E157" s="27"/>
-      <c r="F157" s="27"/>
-      <c r="G157" s="27"/>
-      <c r="I157" s="27"/>
-    </row>
-    <row r="158" spans="1:9">
-      <c r="D158" s="27"/>
-      <c r="E158" s="27"/>
-      <c r="F158" s="27"/>
-      <c r="G158" s="27"/>
-      <c r="I158" s="27"/>
+      <c r="D158" s="25"/>
+      <c r="E158" s="25"/>
+      <c r="F158" s="25"/>
+      <c r="G158" s="25"/>
+      <c r="I158" s="25"/>
     </row>
     <row r="159" spans="1:9">
-      <c r="D159" s="27"/>
-      <c r="E159" s="27"/>
-      <c r="F159" s="27"/>
-      <c r="G159" s="27"/>
-      <c r="I159" s="27"/>
+      <c r="D159" s="25"/>
+      <c r="E159" s="25"/>
+      <c r="F159" s="25"/>
+      <c r="G159" s="25"/>
+      <c r="I159" s="25"/>
     </row>
     <row r="160" spans="1:9">
-      <c r="D160" s="27"/>
-      <c r="E160" s="27"/>
-      <c r="F160" s="27"/>
-      <c r="G160" s="27"/>
-      <c r="I160" s="27"/>
+      <c r="D160" s="25"/>
+      <c r="E160" s="25"/>
+      <c r="F160" s="25"/>
+      <c r="G160" s="25"/>
+      <c r="I160" s="25"/>
     </row>
     <row r="161" spans="4:9">
-      <c r="D161" s="27"/>
-      <c r="E161" s="27"/>
-      <c r="F161" s="27"/>
-      <c r="G161" s="27"/>
-      <c r="I161" s="27"/>
+      <c r="D161" s="25"/>
+      <c r="E161" s="25"/>
+      <c r="F161" s="25"/>
+      <c r="G161" s="25"/>
+      <c r="I161" s="25"/>
     </row>
     <row r="162" spans="4:9">
-      <c r="D162" s="27"/>
-      <c r="E162" s="27"/>
-      <c r="F162" s="27"/>
-      <c r="G162" s="27"/>
-      <c r="I162" s="27"/>
+      <c r="D162" s="25"/>
+      <c r="E162" s="25"/>
+      <c r="F162" s="25"/>
+      <c r="G162" s="25"/>
+      <c r="I162" s="25"/>
     </row>
     <row r="163" spans="4:9">
-      <c r="D163" s="27"/>
-      <c r="E163" s="27"/>
-      <c r="F163" s="27"/>
-      <c r="G163" s="27"/>
-      <c r="I163" s="27"/>
+      <c r="D163" s="25"/>
+      <c r="E163" s="25"/>
+      <c r="F163" s="25"/>
+      <c r="G163" s="25"/>
+      <c r="I163" s="25"/>
     </row>
     <row r="164" spans="4:9">
-      <c r="D164" s="27"/>
-      <c r="E164" s="27"/>
-      <c r="F164" s="27"/>
-      <c r="G164" s="27"/>
-      <c r="I164" s="27"/>
+      <c r="D164" s="25"/>
+      <c r="E164" s="25"/>
+      <c r="F164" s="25"/>
+      <c r="G164" s="25"/>
+      <c r="I164" s="25"/>
     </row>
     <row r="165" spans="4:9">
-      <c r="D165" s="27"/>
-      <c r="E165" s="27"/>
-      <c r="F165" s="27"/>
-      <c r="G165" s="27"/>
-      <c r="I165" s="27"/>
+      <c r="D165" s="25"/>
+      <c r="E165" s="25"/>
+      <c r="F165" s="25"/>
+      <c r="G165" s="25"/>
+      <c r="I165" s="25"/>
     </row>
     <row r="166" spans="4:9">
-      <c r="D166" s="27"/>
-      <c r="E166" s="27"/>
-      <c r="F166" s="27"/>
-      <c r="G166" s="27"/>
-      <c r="I166" s="27"/>
+      <c r="D166" s="25"/>
+      <c r="E166" s="25"/>
+      <c r="F166" s="25"/>
+      <c r="G166" s="25"/>
+      <c r="I166" s="25"/>
     </row>
     <row r="167" spans="4:9">
-      <c r="D167" s="27"/>
-      <c r="E167" s="27"/>
-      <c r="F167" s="27"/>
-      <c r="G167" s="27"/>
-      <c r="I167" s="27"/>
+      <c r="D167" s="25"/>
+      <c r="E167" s="25"/>
+      <c r="F167" s="25"/>
+      <c r="G167" s="25"/>
+      <c r="I167" s="25"/>
     </row>
     <row r="168" spans="4:9">
-      <c r="D168" s="27"/>
-      <c r="E168" s="27"/>
-      <c r="F168" s="27"/>
-      <c r="G168" s="27"/>
-      <c r="I168" s="27"/>
+      <c r="D168" s="25"/>
+      <c r="E168" s="25"/>
+      <c r="F168" s="25"/>
+      <c r="G168" s="25"/>
+      <c r="I168" s="25"/>
     </row>
     <row r="169" spans="4:9">
-      <c r="D169" s="27"/>
-      <c r="E169" s="27"/>
-      <c r="F169" s="27"/>
-      <c r="G169" s="27"/>
-      <c r="I169" s="27"/>
+      <c r="D169" s="25"/>
+      <c r="E169" s="25"/>
+      <c r="F169" s="25"/>
+      <c r="G169" s="25"/>
+      <c r="I169" s="25"/>
     </row>
     <row r="170" spans="4:9">
-      <c r="D170" s="27"/>
-      <c r="E170" s="27"/>
-      <c r="F170" s="27"/>
-      <c r="G170" s="27"/>
-      <c r="I170" s="27"/>
+      <c r="D170" s="25"/>
+      <c r="E170" s="25"/>
+      <c r="F170" s="25"/>
+      <c r="G170" s="25"/>
+      <c r="I170" s="25"/>
     </row>
     <row r="171" spans="4:9">
-      <c r="D171" s="27"/>
-      <c r="E171" s="27"/>
-      <c r="F171" s="27"/>
-      <c r="G171" s="27"/>
-      <c r="I171" s="27"/>
+      <c r="D171" s="25"/>
+      <c r="E171" s="25"/>
+      <c r="F171" s="25"/>
+      <c r="G171" s="25"/>
+      <c r="I171" s="25"/>
     </row>
     <row r="172" spans="4:9">
-      <c r="D172" s="27"/>
-      <c r="E172" s="27"/>
-      <c r="F172" s="27"/>
-      <c r="G172" s="27"/>
-      <c r="I172" s="27"/>
+      <c r="D172" s="25"/>
+      <c r="E172" s="25"/>
+      <c r="F172" s="25"/>
+      <c r="G172" s="25"/>
+      <c r="I172" s="25"/>
+    </row>
+    <row r="173" spans="4:9">
+      <c r="D173" s="25"/>
+      <c r="E173" s="25"/>
+      <c r="F173" s="25"/>
+      <c r="G173" s="25"/>
+      <c r="I173" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A147:A150"/>
+    <mergeCell ref="B147:B150"/>
+    <mergeCell ref="B90:B146"/>
+    <mergeCell ref="A90:A146"/>
+    <mergeCell ref="B56:B89"/>
+    <mergeCell ref="A56:A89"/>
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="B10:B55"/>
     <mergeCell ref="A10:A55"/>
     <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A146:A149"/>
-    <mergeCell ref="B146:B149"/>
-    <mergeCell ref="B90:B145"/>
-    <mergeCell ref="A90:A145"/>
-    <mergeCell ref="B56:B89"/>
-    <mergeCell ref="A56:A89"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D148:F149 D2:G147 D150:G170">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D149:F150 D2:G148 D151:G171">
       <formula1>"O, "</formula1>
     </dataValidation>
   </dataValidations>

--- a/Tasksheet Final.xlsx
+++ b/Tasksheet Final.xlsx
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="156">
   <si>
     <t>No.</t>
   </si>
@@ -460,13 +460,7 @@
     <t>Delete route (use case specification)</t>
   </si>
   <si>
-    <t>Edit route information (use case specification)</t>
-  </si>
-  <si>
     <t>Edit station information (use case specification)</t>
-  </si>
-  <si>
-    <t>Search request(s)/package(s) (use case specification)</t>
   </si>
   <si>
     <t>Create schedule (use case specification)</t>
@@ -808,10 +802,10 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1115,11 +1109,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K179"/>
+  <dimension ref="A1:K177"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E44" sqref="E44"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1164,8 +1158,8 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="8" t="s">
         <v>36</v>
       </c>
@@ -1183,8 +1177,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75">
-      <c r="A3" s="39"/>
-      <c r="B3" s="39"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="8" t="s">
         <v>35</v>
       </c>
@@ -1202,8 +1196,8 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75">
-      <c r="A4" s="39"/>
-      <c r="B4" s="39"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="8" t="s">
         <v>84</v>
       </c>
@@ -1221,8 +1215,8 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75">
-      <c r="A5" s="39"/>
-      <c r="B5" s="39"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="8" t="s">
         <v>85</v>
       </c>
@@ -1240,8 +1234,8 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75">
-      <c r="A6" s="39"/>
-      <c r="B6" s="39"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="8" t="s">
         <v>13</v>
       </c>
@@ -1259,10 +1253,10 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75">
-      <c r="A7" s="39">
+      <c r="A7" s="38">
         <v>2</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="38" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -1282,8 +1276,8 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75">
-      <c r="A8" s="39"/>
-      <c r="B8" s="39"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
       <c r="C8" s="8" t="s">
         <v>8</v>
       </c>
@@ -1301,8 +1295,8 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75">
-      <c r="A9" s="39"/>
-      <c r="B9" s="39"/>
+      <c r="A9" s="38"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="8" t="s">
         <v>9</v>
       </c>
@@ -1320,10 +1314,10 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A10" s="39">
+      <c r="A10" s="38">
         <v>3</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="38" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="8" t="s">
@@ -1345,8 +1339,8 @@
       <c r="K10" s="3"/>
     </row>
     <row r="11" spans="1:11" ht="15.75">
-      <c r="A11" s="39"/>
-      <c r="B11" s="39"/>
+      <c r="A11" s="38"/>
+      <c r="B11" s="38"/>
       <c r="C11" s="10" t="s">
         <v>11</v>
       </c>
@@ -1360,8 +1354,8 @@
       <c r="K11" s="3"/>
     </row>
     <row r="12" spans="1:11" ht="15.75">
-      <c r="A12" s="39"/>
-      <c r="B12" s="39"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="38"/>
       <c r="C12" s="11" t="s">
         <v>12</v>
       </c>
@@ -1381,8 +1375,8 @@
       <c r="K12" s="3"/>
     </row>
     <row r="13" spans="1:11" ht="15.75">
-      <c r="A13" s="39"/>
-      <c r="B13" s="39"/>
+      <c r="A13" s="38"/>
+      <c r="B13" s="38"/>
       <c r="C13" s="11" t="s">
         <v>86</v>
       </c>
@@ -1402,8 +1396,8 @@
       <c r="K13" s="3"/>
     </row>
     <row r="14" spans="1:11" ht="15.75">
-      <c r="A14" s="39"/>
-      <c r="B14" s="39"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="38"/>
       <c r="C14" s="12" t="s">
         <v>107</v>
       </c>
@@ -1417,10 +1411,10 @@
       <c r="K14" s="3"/>
     </row>
     <row r="15" spans="1:11" ht="15.75">
-      <c r="A15" s="39"/>
-      <c r="B15" s="39"/>
+      <c r="A15" s="38"/>
+      <c r="B15" s="38"/>
       <c r="C15" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -1434,8 +1428,8 @@
       <c r="K15" s="3"/>
     </row>
     <row r="16" spans="1:11" ht="15.75">
-      <c r="A16" s="39"/>
-      <c r="B16" s="39"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
       <c r="C16" s="13" t="s">
         <v>108</v>
       </c>
@@ -1455,8 +1449,8 @@
       <c r="K16" s="3"/>
     </row>
     <row r="17" spans="1:11" ht="15.75">
-      <c r="A17" s="39"/>
-      <c r="B17" s="39"/>
+      <c r="A17" s="38"/>
+      <c r="B17" s="38"/>
       <c r="C17" s="13" t="s">
         <v>109</v>
       </c>
@@ -1472,8 +1466,8 @@
       <c r="K17" s="3"/>
     </row>
     <row r="18" spans="1:11" ht="15.75">
-      <c r="A18" s="39"/>
-      <c r="B18" s="39"/>
+      <c r="A18" s="38"/>
+      <c r="B18" s="38"/>
       <c r="C18" s="13" t="s">
         <v>110</v>
       </c>
@@ -1493,8 +1487,8 @@
       <c r="K18" s="3"/>
     </row>
     <row r="19" spans="1:11" ht="15.75">
-      <c r="A19" s="39"/>
-      <c r="B19" s="39"/>
+      <c r="A19" s="38"/>
+      <c r="B19" s="38"/>
       <c r="C19" s="13" t="s">
         <v>111</v>
       </c>
@@ -1514,10 +1508,10 @@
       <c r="K19" s="3"/>
     </row>
     <row r="20" spans="1:11" ht="15.75">
-      <c r="A20" s="39"/>
-      <c r="B20" s="39"/>
+      <c r="A20" s="38"/>
+      <c r="B20" s="38"/>
       <c r="C20" s="13" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1535,8 +1529,8 @@
       <c r="K20" s="3"/>
     </row>
     <row r="21" spans="1:11" ht="15.75">
-      <c r="A21" s="39"/>
-      <c r="B21" s="39"/>
+      <c r="A21" s="38"/>
+      <c r="B21" s="38"/>
       <c r="C21" s="13" t="s">
         <v>115</v>
       </c>
@@ -1556,8 +1550,8 @@
       <c r="K21" s="3"/>
     </row>
     <row r="22" spans="1:11" ht="15.75">
-      <c r="A22" s="39"/>
-      <c r="B22" s="39"/>
+      <c r="A22" s="38"/>
+      <c r="B22" s="38"/>
       <c r="C22" s="13" t="s">
         <v>116</v>
       </c>
@@ -1577,8 +1571,8 @@
       <c r="K22" s="3"/>
     </row>
     <row r="23" spans="1:11" ht="15.75">
-      <c r="A23" s="39"/>
-      <c r="B23" s="39"/>
+      <c r="A23" s="38"/>
+      <c r="B23" s="38"/>
       <c r="C23" s="13" t="s">
         <v>117</v>
       </c>
@@ -1598,8 +1592,8 @@
       <c r="K23" s="3"/>
     </row>
     <row r="24" spans="1:11" ht="15.75">
-      <c r="A24" s="39"/>
-      <c r="B24" s="39"/>
+      <c r="A24" s="38"/>
+      <c r="B24" s="38"/>
       <c r="C24" s="13" t="s">
         <v>118</v>
       </c>
@@ -1619,8 +1613,8 @@
       <c r="K24" s="3"/>
     </row>
     <row r="25" spans="1:11" ht="15.75">
-      <c r="A25" s="39"/>
-      <c r="B25" s="39"/>
+      <c r="A25" s="38"/>
+      <c r="B25" s="38"/>
       <c r="C25" s="13" t="s">
         <v>119</v>
       </c>
@@ -1640,8 +1634,8 @@
       <c r="K25" s="3"/>
     </row>
     <row r="26" spans="1:11" ht="15.75">
-      <c r="A26" s="39"/>
-      <c r="B26" s="39"/>
+      <c r="A26" s="38"/>
+      <c r="B26" s="38"/>
       <c r="C26" s="13" t="s">
         <v>120</v>
       </c>
@@ -1661,8 +1655,8 @@
       <c r="K26" s="3"/>
     </row>
     <row r="27" spans="1:11" ht="15.75">
-      <c r="A27" s="39"/>
-      <c r="B27" s="39"/>
+      <c r="A27" s="38"/>
+      <c r="B27" s="38"/>
       <c r="C27" s="13" t="s">
         <v>121</v>
       </c>
@@ -1682,8 +1676,8 @@
       <c r="K27" s="3"/>
     </row>
     <row r="28" spans="1:11" ht="15.75">
-      <c r="A28" s="39"/>
-      <c r="B28" s="39"/>
+      <c r="A28" s="38"/>
+      <c r="B28" s="38"/>
       <c r="C28" s="13" t="s">
         <v>114</v>
       </c>
@@ -1703,8 +1697,8 @@
       <c r="K28" s="3"/>
     </row>
     <row r="29" spans="1:11" ht="15.75">
-      <c r="A29" s="39"/>
-      <c r="B29" s="39"/>
+      <c r="A29" s="38"/>
+      <c r="B29" s="38"/>
       <c r="C29" s="13" t="s">
         <v>123</v>
       </c>
@@ -1724,8 +1718,8 @@
       <c r="K29" s="3"/>
     </row>
     <row r="30" spans="1:11" ht="15.75">
-      <c r="A30" s="39"/>
-      <c r="B30" s="39"/>
+      <c r="A30" s="38"/>
+      <c r="B30" s="38"/>
       <c r="C30" s="13" t="s">
         <v>122</v>
       </c>
@@ -1745,8 +1739,8 @@
       <c r="K30" s="3"/>
     </row>
     <row r="31" spans="1:11" ht="15.75">
-      <c r="A31" s="39"/>
-      <c r="B31" s="39"/>
+      <c r="A31" s="38"/>
+      <c r="B31" s="38"/>
       <c r="C31" s="13" t="s">
         <v>112</v>
       </c>
@@ -1766,8 +1760,8 @@
       <c r="K31" s="3"/>
     </row>
     <row r="32" spans="1:11" ht="15.75">
-      <c r="A32" s="39"/>
-      <c r="B32" s="39"/>
+      <c r="A32" s="38"/>
+      <c r="B32" s="38"/>
       <c r="C32" s="13" t="s">
         <v>113</v>
       </c>
@@ -1787,8 +1781,8 @@
       <c r="K32" s="3"/>
     </row>
     <row r="33" spans="1:11" ht="15.75">
-      <c r="A33" s="39"/>
-      <c r="B33" s="39"/>
+      <c r="A33" s="38"/>
+      <c r="B33" s="38"/>
       <c r="C33" s="13" t="s">
         <v>124</v>
       </c>
@@ -1808,10 +1802,10 @@
       <c r="K33" s="3"/>
     </row>
     <row r="34" spans="1:11" ht="15.75">
-      <c r="A34" s="39"/>
-      <c r="B34" s="39"/>
+      <c r="A34" s="38"/>
+      <c r="B34" s="38"/>
       <c r="C34" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -1829,16 +1823,16 @@
       <c r="K34" s="3"/>
     </row>
     <row r="35" spans="1:11" ht="15.75">
-      <c r="A35" s="39"/>
-      <c r="B35" s="39"/>
+      <c r="A35" s="38"/>
+      <c r="B35" s="38"/>
       <c r="C35" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="D35" s="1"/>
+        <v>129</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E35" s="1"/>
-      <c r="F35" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="9">
         <v>1</v>
@@ -1850,10 +1844,10 @@
       <c r="K35" s="3"/>
     </row>
     <row r="36" spans="1:11" ht="15.75">
-      <c r="A36" s="39"/>
-      <c r="B36" s="39"/>
+      <c r="A36" s="38"/>
+      <c r="B36" s="38"/>
       <c r="C36" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>7</v>
@@ -1871,10 +1865,10 @@
       <c r="K36" s="3"/>
     </row>
     <row r="37" spans="1:11" ht="15.75">
-      <c r="A37" s="39"/>
-      <c r="B37" s="39"/>
+      <c r="A37" s="38"/>
+      <c r="B37" s="38"/>
       <c r="C37" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>7</v>
@@ -1892,16 +1886,16 @@
       <c r="K37" s="3"/>
     </row>
     <row r="38" spans="1:11" ht="15.75">
-      <c r="A38" s="39"/>
-      <c r="B38" s="39"/>
+      <c r="A38" s="38"/>
+      <c r="B38" s="38"/>
       <c r="C38" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
+      <c r="F38" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G38" s="1"/>
       <c r="H38" s="9">
         <v>1</v>
@@ -1913,10 +1907,10 @@
       <c r="K38" s="3"/>
     </row>
     <row r="39" spans="1:11" ht="15.75">
-      <c r="A39" s="39"/>
-      <c r="B39" s="39"/>
+      <c r="A39" s="38"/>
+      <c r="B39" s="38"/>
       <c r="C39" s="13" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -1934,17 +1928,17 @@
       <c r="K39" s="3"/>
     </row>
     <row r="40" spans="1:11" ht="15.75">
-      <c r="A40" s="39"/>
-      <c r="B40" s="39"/>
+      <c r="A40" s="38"/>
+      <c r="B40" s="38"/>
       <c r="C40" s="13" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
-      <c r="F40" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H40" s="9">
         <v>1</v>
       </c>
@@ -1955,10 +1949,10 @@
       <c r="K40" s="3"/>
     </row>
     <row r="41" spans="1:11" ht="15.75">
-      <c r="A41" s="39"/>
-      <c r="B41" s="39"/>
+      <c r="A41" s="38"/>
+      <c r="B41" s="38"/>
       <c r="C41" s="13" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -1976,17 +1970,17 @@
       <c r="K41" s="3"/>
     </row>
     <row r="42" spans="1:11" ht="15.75">
-      <c r="A42" s="39"/>
-      <c r="B42" s="39"/>
+      <c r="A42" s="38"/>
+      <c r="B42" s="38"/>
       <c r="C42" s="13" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
+      <c r="E42" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="F42" s="1"/>
-      <c r="G42" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="G42" s="1"/>
       <c r="H42" s="9">
         <v>1</v>
       </c>
@@ -1997,17 +1991,17 @@
       <c r="K42" s="3"/>
     </row>
     <row r="43" spans="1:11" ht="15.75">
-      <c r="A43" s="39"/>
-      <c r="B43" s="39"/>
+      <c r="A43" s="38"/>
+      <c r="B43" s="38"/>
       <c r="C43" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
+      <c r="E43" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="F43" s="1"/>
-      <c r="G43" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="G43" s="1"/>
       <c r="H43" s="9">
         <v>1</v>
       </c>
@@ -2018,10 +2012,10 @@
       <c r="K43" s="3"/>
     </row>
     <row r="44" spans="1:11" ht="15.75">
-      <c r="A44" s="39"/>
-      <c r="B44" s="39"/>
+      <c r="A44" s="38"/>
+      <c r="B44" s="38"/>
       <c r="C44" s="13" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1" t="s">
@@ -2039,74 +2033,74 @@
       <c r="K44" s="3"/>
     </row>
     <row r="45" spans="1:11" ht="15.75">
-      <c r="A45" s="39"/>
-      <c r="B45" s="39"/>
-      <c r="C45" s="13" t="s">
-        <v>126</v>
+      <c r="A45" s="38"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="12" t="s">
+        <v>87</v>
       </c>
       <c r="D45" s="1"/>
-      <c r="E45" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
-      <c r="H45" s="9">
-        <v>1</v>
-      </c>
-      <c r="I45" s="9">
-        <v>1</v>
-      </c>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
     </row>
     <row r="46" spans="1:11" ht="15.75">
-      <c r="A46" s="39"/>
-      <c r="B46" s="39"/>
-      <c r="C46" s="13" t="s">
-        <v>125</v>
+      <c r="A46" s="38"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D46" s="1"/>
-      <c r="E46" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="E46" s="1"/>
       <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="9">
-        <v>1</v>
-      </c>
-      <c r="I46" s="9">
+      <c r="G46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H46" s="15">
+        <v>1</v>
+      </c>
+      <c r="I46" s="15">
         <v>1</v>
       </c>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
     </row>
     <row r="47" spans="1:11" ht="15.75">
-      <c r="A47" s="39"/>
-      <c r="B47" s="39"/>
-      <c r="C47" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D47" s="1"/>
+      <c r="A47" s="38"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
+      <c r="H47" s="15">
+        <v>1</v>
+      </c>
+      <c r="I47" s="15">
+        <v>1</v>
+      </c>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
     </row>
     <row r="48" spans="1:11" ht="15.75">
-      <c r="A48" s="39"/>
-      <c r="B48" s="39"/>
+      <c r="A48" s="38"/>
+      <c r="B48" s="38"/>
       <c r="C48" s="14" t="s">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="F48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G48" s="1"/>
       <c r="H48" s="15">
         <v>1</v>
       </c>
@@ -2117,15 +2111,15 @@
       <c r="K48" s="3"/>
     </row>
     <row r="49" spans="1:11" ht="15.75">
-      <c r="A49" s="39"/>
-      <c r="B49" s="39"/>
+      <c r="A49" s="38"/>
+      <c r="B49" s="38"/>
       <c r="C49" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E49" s="1"/>
+        <v>89</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="15">
@@ -2138,16 +2132,16 @@
       <c r="K49" s="3"/>
     </row>
     <row r="50" spans="1:11" ht="15.75">
-      <c r="A50" s="39"/>
-      <c r="B50" s="39"/>
+      <c r="A50" s="38"/>
+      <c r="B50" s="38"/>
       <c r="C50" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="D50" s="1"/>
+        <v>90</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E50" s="1"/>
-      <c r="F50" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="15">
         <v>1</v>
@@ -2159,31 +2153,35 @@
       <c r="K50" s="3"/>
     </row>
     <row r="51" spans="1:11" ht="15.75">
-      <c r="A51" s="39"/>
-      <c r="B51" s="39"/>
-      <c r="C51" s="14" t="s">
-        <v>89</v>
+      <c r="A51" s="38"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="D51" s="1"/>
-      <c r="E51" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="E51" s="1"/>
       <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
+      <c r="G51" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H51" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I51" s="15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
     </row>
     <row r="52" spans="1:11" ht="15.75">
-      <c r="A52" s="39"/>
-      <c r="B52" s="39"/>
-      <c r="C52" s="14" t="s">
-        <v>90</v>
+      <c r="A52" s="38">
+        <v>4</v>
+      </c>
+      <c r="B52" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>7</v>
@@ -2191,190 +2189,182 @@
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
-      <c r="H52" s="15">
-        <v>1</v>
-      </c>
-      <c r="I52" s="15">
+      <c r="H52" s="9"/>
+      <c r="I52" s="9">
         <v>1</v>
       </c>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
     </row>
     <row r="53" spans="1:11" ht="15.75">
-      <c r="A53" s="39"/>
-      <c r="B53" s="39"/>
-      <c r="C53" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D53" s="1"/>
+      <c r="A53" s="38"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
-      <c r="G53" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H53" s="15">
-        <v>2</v>
-      </c>
-      <c r="I53" s="15">
-        <v>3</v>
-      </c>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="54" spans="1:11" ht="15.75">
-      <c r="A54" s="39">
-        <v>4</v>
-      </c>
-      <c r="B54" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A54" s="38"/>
+      <c r="B54" s="38"/>
+      <c r="C54" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="9"/>
-      <c r="I54" s="9">
-        <v>1</v>
-      </c>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
+      <c r="I54" s="9"/>
     </row>
     <row r="55" spans="1:11" ht="15.75">
-      <c r="A55" s="39"/>
-      <c r="B55" s="39"/>
-      <c r="C55" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A55" s="38"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="9"/>
+      <c r="G55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H55" s="9">
+        <v>3</v>
+      </c>
       <c r="I55" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="15.75">
-      <c r="A56" s="39"/>
-      <c r="B56" s="39"/>
-      <c r="C56" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="D56" s="1"/>
+      <c r="A56" s="38"/>
+      <c r="B56" s="38"/>
+      <c r="C56" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="9"/>
+      <c r="H56" s="9">
+        <v>3</v>
+      </c>
+      <c r="I56" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="57" spans="1:11" ht="15.75">
-      <c r="A57" s="39"/>
-      <c r="B57" s="39"/>
+      <c r="A57" s="38"/>
+      <c r="B57" s="38"/>
       <c r="C57" s="19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="F57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G57" s="1"/>
       <c r="H57" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I57" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="15.75">
-      <c r="A58" s="39"/>
-      <c r="B58" s="39"/>
+      <c r="A58" s="38"/>
+      <c r="B58" s="38"/>
       <c r="C58" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E58" s="1"/>
+        <v>96</v>
+      </c>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I58" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="15.75">
-      <c r="A59" s="39"/>
-      <c r="B59" s="39"/>
-      <c r="C59" s="19" t="s">
-        <v>94</v>
+      <c r="A59" s="38"/>
+      <c r="B59" s="38"/>
+      <c r="C59" s="18" t="s">
+        <v>95</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
-      <c r="F59" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="F59" s="1"/>
       <c r="G59" s="1"/>
-      <c r="H59" s="9">
-        <v>2</v>
-      </c>
-      <c r="I59" s="9">
-        <v>2</v>
-      </c>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
     </row>
     <row r="60" spans="1:11" ht="15.75">
-      <c r="A60" s="39"/>
-      <c r="B60" s="39"/>
-      <c r="C60" s="19" t="s">
-        <v>96</v>
+      <c r="A60" s="38"/>
+      <c r="B60" s="38"/>
+      <c r="C60" s="20" t="s">
+        <v>39</v>
       </c>
       <c r="D60" s="1"/>
-      <c r="E60" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="E60" s="1"/>
       <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
+      <c r="G60" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H60" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I60" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="15.75">
-      <c r="A61" s="39"/>
-      <c r="B61" s="39"/>
-      <c r="C61" s="18" t="s">
-        <v>95</v>
+      <c r="A61" s="38"/>
+      <c r="B61" s="38"/>
+      <c r="C61" s="20" t="s">
+        <v>40</v>
       </c>
       <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
+      <c r="E61" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="9"/>
+      <c r="H61" s="9">
+        <v>2</v>
+      </c>
+      <c r="I61" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="62" spans="1:11" ht="15.75">
-      <c r="A62" s="39"/>
-      <c r="B62" s="39"/>
+      <c r="A62" s="38"/>
+      <c r="B62" s="38"/>
       <c r="C62" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D62" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
-      <c r="G62" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="G62" s="1"/>
       <c r="H62" s="9">
         <v>3</v>
       </c>
@@ -2383,16 +2373,16 @@
       </c>
     </row>
     <row r="63" spans="1:11" ht="15.75">
-      <c r="A63" s="39"/>
-      <c r="B63" s="39"/>
-      <c r="C63" s="20" t="s">
-        <v>40</v>
+      <c r="A63" s="38"/>
+      <c r="B63" s="38"/>
+      <c r="C63" s="21" t="s">
+        <v>42</v>
       </c>
       <c r="D63" s="1"/>
-      <c r="E63" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G63" s="1"/>
       <c r="H63" s="9">
         <v>2</v>
@@ -2402,55 +2392,49 @@
       </c>
     </row>
     <row r="64" spans="1:11" ht="15.75">
-      <c r="A64" s="39"/>
-      <c r="B64" s="39"/>
-      <c r="C64" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A64" s="38"/>
+      <c r="B64" s="38"/>
+      <c r="C64" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
+      <c r="G64" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H64" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I64" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="15.75">
-      <c r="A65" s="39"/>
-      <c r="B65" s="39"/>
-      <c r="C65" s="21" t="s">
-        <v>42</v>
+      <c r="A65" s="38"/>
+      <c r="B65" s="38"/>
+      <c r="C65" s="22" t="s">
+        <v>43</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
-      <c r="F65" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="F65" s="1"/>
       <c r="G65" s="1"/>
-      <c r="H65" s="9">
-        <v>2</v>
-      </c>
-      <c r="I65" s="9">
-        <v>1</v>
-      </c>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
     </row>
     <row r="66" spans="1:9" ht="15.75">
-      <c r="A66" s="39"/>
-      <c r="B66" s="39"/>
-      <c r="C66" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D66" s="1"/>
+      <c r="A66" s="38"/>
+      <c r="B66" s="38"/>
+      <c r="C66" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
-      <c r="G66" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="G66" s="1"/>
       <c r="H66" s="9">
         <v>1</v>
       </c>
@@ -2459,49 +2443,49 @@
       </c>
     </row>
     <row r="67" spans="1:9" ht="15.75">
-      <c r="A67" s="39"/>
-      <c r="B67" s="39"/>
-      <c r="C67" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D67" s="1"/>
+      <c r="A67" s="38"/>
+      <c r="B67" s="38"/>
+      <c r="C67" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
-      <c r="H67" s="9"/>
-      <c r="I67" s="9"/>
+      <c r="H67" s="9">
+        <v>1</v>
+      </c>
+      <c r="I67" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="68" spans="1:9" ht="15.75">
-      <c r="A68" s="39"/>
-      <c r="B68" s="39"/>
-      <c r="C68" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A68" s="38"/>
+      <c r="B68" s="38"/>
+      <c r="C68" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
-      <c r="H68" s="9">
-        <v>1</v>
-      </c>
-      <c r="I68" s="9">
-        <v>1</v>
-      </c>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9"/>
     </row>
     <row r="69" spans="1:9" ht="15.75">
-      <c r="A69" s="39"/>
-      <c r="B69" s="39"/>
-      <c r="C69" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A69" s="38"/>
+      <c r="B69" s="38"/>
+      <c r="C69" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
+      <c r="G69" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H69" s="9">
         <v>1</v>
       </c>
@@ -2510,30 +2494,36 @@
       </c>
     </row>
     <row r="70" spans="1:9" ht="15.75">
-      <c r="A70" s="39"/>
-      <c r="B70" s="39"/>
-      <c r="C70" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D70" s="1"/>
+      <c r="A70" s="38"/>
+      <c r="B70" s="38"/>
+      <c r="C70" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
-      <c r="H70" s="9"/>
-      <c r="I70" s="9"/>
+      <c r="H70" s="9">
+        <v>1</v>
+      </c>
+      <c r="I70" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="71" spans="1:9" ht="15.75">
-      <c r="A71" s="39"/>
-      <c r="B71" s="39"/>
+      <c r="A71" s="38"/>
+      <c r="B71" s="38"/>
       <c r="C71" s="24" t="s">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="F71" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G71" s="1"/>
       <c r="H71" s="9">
         <v>1</v>
       </c>
@@ -2542,17 +2532,17 @@
       </c>
     </row>
     <row r="72" spans="1:9" ht="15.75">
-      <c r="A72" s="39"/>
-      <c r="B72" s="39"/>
+      <c r="A72" s="38"/>
+      <c r="B72" s="38"/>
       <c r="C72" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
+      <c r="G72" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H72" s="9">
         <v>1</v>
       </c>
@@ -2561,10 +2551,10 @@
       </c>
     </row>
     <row r="73" spans="1:9" ht="15.75">
-      <c r="A73" s="39"/>
-      <c r="B73" s="39"/>
+      <c r="A73" s="38"/>
+      <c r="B73" s="38"/>
       <c r="C73" s="24" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -2580,17 +2570,17 @@
       </c>
     </row>
     <row r="74" spans="1:9" ht="15.75">
-      <c r="A74" s="39"/>
-      <c r="B74" s="39"/>
+      <c r="A74" s="38"/>
+      <c r="B74" s="38"/>
       <c r="C74" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="D74" s="1"/>
+        <v>60</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
-      <c r="G74" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="G74" s="1"/>
       <c r="H74" s="9">
         <v>1</v>
       </c>
@@ -2599,16 +2589,16 @@
       </c>
     </row>
     <row r="75" spans="1:9" ht="15.75">
-      <c r="A75" s="39"/>
-      <c r="B75" s="39"/>
+      <c r="A75" s="38"/>
+      <c r="B75" s="38"/>
       <c r="C75" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="D75" s="1"/>
+        <v>75</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E75" s="1"/>
-      <c r="F75" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="F75" s="1"/>
       <c r="G75" s="1"/>
       <c r="H75" s="9">
         <v>1</v>
@@ -2618,15 +2608,15 @@
       </c>
     </row>
     <row r="76" spans="1:9" ht="15.75">
-      <c r="A76" s="39"/>
-      <c r="B76" s="39"/>
+      <c r="A76" s="38"/>
+      <c r="B76" s="38"/>
       <c r="C76" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E76" s="1"/>
+        <v>62</v>
+      </c>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
       <c r="H76" s="9">
@@ -2637,16 +2627,16 @@
       </c>
     </row>
     <row r="77" spans="1:9" ht="15.75">
-      <c r="A77" s="39"/>
-      <c r="B77" s="39"/>
+      <c r="A77" s="38"/>
+      <c r="B77" s="38"/>
       <c r="C77" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="D77" s="1"/>
       <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
+      <c r="F77" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G77" s="1"/>
       <c r="H77" s="9">
         <v>1</v>
@@ -2656,16 +2646,16 @@
       </c>
     </row>
     <row r="78" spans="1:9" ht="15.75">
-      <c r="A78" s="39"/>
-      <c r="B78" s="39"/>
+      <c r="A78" s="38"/>
+      <c r="B78" s="38"/>
       <c r="C78" s="24" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="D78" s="1"/>
-      <c r="E78" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G78" s="1"/>
       <c r="H78" s="9">
         <v>1</v>
@@ -2675,10 +2665,10 @@
       </c>
     </row>
     <row r="79" spans="1:9" ht="15.75">
-      <c r="A79" s="39"/>
-      <c r="B79" s="39"/>
+      <c r="A79" s="38"/>
+      <c r="B79" s="38"/>
       <c r="C79" s="24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -2694,10 +2684,10 @@
       </c>
     </row>
     <row r="80" spans="1:9" ht="15.75">
-      <c r="A80" s="39"/>
-      <c r="B80" s="39"/>
+      <c r="A80" s="38"/>
+      <c r="B80" s="38"/>
       <c r="C80" s="24" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -2713,10 +2703,10 @@
       </c>
     </row>
     <row r="81" spans="1:9" ht="15.75">
-      <c r="A81" s="39"/>
-      <c r="B81" s="39"/>
+      <c r="A81" s="38"/>
+      <c r="B81" s="38"/>
       <c r="C81" s="24" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -2732,112 +2722,116 @@
       </c>
     </row>
     <row r="82" spans="1:9" ht="15.75">
-      <c r="A82" s="39"/>
-      <c r="B82" s="39"/>
+      <c r="A82" s="38"/>
+      <c r="B82" s="38"/>
       <c r="C82" s="24" t="s">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="E82" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F82" s="1"/>
       <c r="G82" s="1"/>
-      <c r="H82" s="9">
-        <v>1</v>
-      </c>
+      <c r="H82" s="9"/>
       <c r="I82" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="15.75">
-      <c r="A83" s="39"/>
-      <c r="B83" s="39"/>
+      <c r="A83" s="38"/>
+      <c r="B83" s="38"/>
       <c r="C83" s="24" t="s">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="E83" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F83" s="1"/>
       <c r="G83" s="1"/>
-      <c r="H83" s="9">
-        <v>1</v>
-      </c>
+      <c r="H83" s="9"/>
       <c r="I83" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="15.75">
-      <c r="A84" s="39"/>
-      <c r="B84" s="39"/>
-      <c r="C84" s="24" t="s">
-        <v>140</v>
+      <c r="A84" s="38"/>
+      <c r="B84" s="38"/>
+      <c r="C84" s="21" t="s">
+        <v>47</v>
       </c>
       <c r="D84" s="1"/>
-      <c r="E84" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="E84" s="1"/>
       <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
+      <c r="G84" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H84" s="9"/>
       <c r="I84" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="15.75">
-      <c r="A85" s="39"/>
-      <c r="B85" s="39"/>
-      <c r="C85" s="24" t="s">
-        <v>139</v>
+      <c r="A85" s="38"/>
+      <c r="B85" s="38"/>
+      <c r="C85" s="23" t="s">
+        <v>48</v>
       </c>
       <c r="D85" s="1"/>
-      <c r="E85" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
       <c r="H85" s="9"/>
-      <c r="I85" s="9">
-        <v>1</v>
-      </c>
+      <c r="I85" s="9"/>
     </row>
     <row r="86" spans="1:9" ht="15.75">
-      <c r="A86" s="39"/>
-      <c r="B86" s="39"/>
-      <c r="C86" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="D86" s="1"/>
+      <c r="A86" s="38"/>
+      <c r="B86" s="38"/>
+      <c r="C86" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
-      <c r="G86" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H86" s="9"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="9">
+        <v>1</v>
+      </c>
       <c r="I86" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="15.75">
-      <c r="A87" s="39"/>
-      <c r="B87" s="39"/>
-      <c r="C87" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D87" s="1"/>
+      <c r="A87" s="38"/>
+      <c r="B87" s="38"/>
+      <c r="C87" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
-      <c r="H87" s="9"/>
-      <c r="I87" s="9"/>
+      <c r="H87" s="9">
+        <v>1</v>
+      </c>
+      <c r="I87" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="88" spans="1:9" ht="15.75">
-      <c r="A88" s="39"/>
-      <c r="B88" s="39"/>
-      <c r="C88" s="24" t="s">
-        <v>49</v>
+      <c r="A88" s="39">
+        <v>5</v>
+      </c>
+      <c r="B88" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>7</v>
@@ -2849,89 +2843,85 @@
         <v>1</v>
       </c>
       <c r="I88" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="15.75">
       <c r="A89" s="39"/>
-      <c r="B89" s="39"/>
-      <c r="C89" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="B89" s="38"/>
+      <c r="C89" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
-      <c r="H89" s="9">
-        <v>1</v>
-      </c>
-      <c r="I89" s="9">
-        <v>1</v>
-      </c>
+      <c r="H89" s="9"/>
+      <c r="I89" s="9"/>
     </row>
     <row r="90" spans="1:9" ht="15.75">
-      <c r="A90" s="38">
-        <v>5</v>
-      </c>
-      <c r="B90" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="C90" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A90" s="39"/>
+      <c r="B90" s="38"/>
+      <c r="C90" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
-      <c r="H90" s="9">
-        <v>1</v>
-      </c>
-      <c r="I90" s="9">
-        <v>1</v>
-      </c>
+      <c r="H90" s="9"/>
+      <c r="I90" s="9"/>
     </row>
     <row r="91" spans="1:9" ht="15.75">
-      <c r="A91" s="38"/>
-      <c r="B91" s="39"/>
-      <c r="C91" s="10" t="s">
-        <v>97</v>
+      <c r="A91" s="39"/>
+      <c r="B91" s="38"/>
+      <c r="C91" s="26" t="s">
+        <v>54</v>
       </c>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
-      <c r="H91" s="9"/>
-      <c r="I91" s="9"/>
+      <c r="G91" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H91" s="9">
+        <v>1</v>
+      </c>
+      <c r="I91" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="92" spans="1:9" ht="15.75">
-      <c r="A92" s="38"/>
-      <c r="B92" s="39"/>
-      <c r="C92" s="25" t="s">
-        <v>52</v>
+      <c r="A92" s="39"/>
+      <c r="B92" s="38"/>
+      <c r="C92" s="26" t="s">
+        <v>55</v>
       </c>
       <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
+      <c r="E92" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
-      <c r="H92" s="9"/>
-      <c r="I92" s="9"/>
+      <c r="H92" s="9">
+        <v>1</v>
+      </c>
+      <c r="I92" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="93" spans="1:9" ht="15.75">
-      <c r="A93" s="38"/>
-      <c r="B93" s="39"/>
+      <c r="A93" s="39"/>
+      <c r="B93" s="38"/>
       <c r="C93" s="26" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
-      <c r="G93" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="F93" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G93" s="1"/>
       <c r="H93" s="9">
         <v>1</v>
       </c>
@@ -2940,17 +2930,17 @@
       </c>
     </row>
     <row r="94" spans="1:9" ht="15.75">
-      <c r="A94" s="38"/>
-      <c r="B94" s="39"/>
-      <c r="C94" s="26" t="s">
-        <v>55</v>
+      <c r="A94" s="39"/>
+      <c r="B94" s="38"/>
+      <c r="C94" s="24" t="s">
+        <v>57</v>
       </c>
       <c r="D94" s="1"/>
-      <c r="E94" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="E94" s="1"/>
       <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
+      <c r="G94" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H94" s="9">
         <v>1</v>
       </c>
@@ -2959,59 +2949,55 @@
       </c>
     </row>
     <row r="95" spans="1:9" ht="15.75">
-      <c r="A95" s="38"/>
-      <c r="B95" s="39"/>
-      <c r="C95" s="26" t="s">
-        <v>56</v>
+      <c r="A95" s="39"/>
+      <c r="B95" s="38"/>
+      <c r="C95" s="24" t="s">
+        <v>58</v>
       </c>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
-      <c r="F95" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="F95" s="1"/>
       <c r="G95" s="1"/>
-      <c r="H95" s="9">
-        <v>1</v>
-      </c>
-      <c r="I95" s="9">
-        <v>1</v>
-      </c>
+      <c r="H95" s="9"/>
+      <c r="I95" s="9"/>
     </row>
     <row r="96" spans="1:9" ht="15.75">
-      <c r="A96" s="38"/>
-      <c r="B96" s="39"/>
-      <c r="C96" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="D96" s="1"/>
+      <c r="A96" s="39"/>
+      <c r="B96" s="38"/>
+      <c r="C96" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
-      <c r="G96" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H96" s="9">
-        <v>1</v>
-      </c>
+      <c r="G96" s="1"/>
+      <c r="H96" s="9"/>
       <c r="I96" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="15.75">
-      <c r="A97" s="38"/>
-      <c r="B97" s="39"/>
-      <c r="C97" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="D97" s="1"/>
+      <c r="A97" s="39"/>
+      <c r="B97" s="38"/>
+      <c r="C97" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
       <c r="H97" s="9"/>
-      <c r="I97" s="9"/>
+      <c r="I97" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="98" spans="1:9" ht="15.75">
-      <c r="A98" s="38"/>
-      <c r="B98" s="39"/>
+      <c r="A98" s="39"/>
+      <c r="B98" s="38"/>
       <c r="C98" s="31" t="s">
         <v>152</v>
       </c>
@@ -3027,27 +3013,23 @@
       </c>
     </row>
     <row r="99" spans="1:9" ht="15.75">
-      <c r="A99" s="38"/>
-      <c r="B99" s="39"/>
-      <c r="C99" s="31" t="s">
-        <v>153</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A99" s="39"/>
+      <c r="B99" s="38"/>
+      <c r="C99" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
       <c r="H99" s="9"/>
-      <c r="I99" s="9">
-        <v>2</v>
-      </c>
+      <c r="I99" s="9"/>
     </row>
     <row r="100" spans="1:9" ht="15.75">
-      <c r="A100" s="38"/>
-      <c r="B100" s="39"/>
-      <c r="C100" s="31" t="s">
-        <v>154</v>
+      <c r="A100" s="39"/>
+      <c r="B100" s="38"/>
+      <c r="C100" s="28" t="s">
+        <v>153</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>7</v>
@@ -3055,29 +3037,35 @@
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
-      <c r="H100" s="9"/>
+      <c r="H100" s="9">
+        <v>1</v>
+      </c>
       <c r="I100" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="15.75">
-      <c r="A101" s="38"/>
-      <c r="B101" s="39"/>
-      <c r="C101" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D101" s="1"/>
+      <c r="A101" s="39"/>
+      <c r="B101" s="38"/>
+      <c r="C101" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
       <c r="H101" s="9"/>
-      <c r="I101" s="9"/>
+      <c r="I101" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="102" spans="1:9" ht="15.75">
-      <c r="A102" s="38"/>
-      <c r="B102" s="39"/>
+      <c r="A102" s="39"/>
+      <c r="B102" s="38"/>
       <c r="C102" s="28" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>7</v>
@@ -3093,57 +3081,59 @@
       </c>
     </row>
     <row r="103" spans="1:9" ht="15.75">
-      <c r="A103" s="38"/>
-      <c r="B103" s="39"/>
-      <c r="C103" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A103" s="39"/>
+      <c r="B103" s="38"/>
+      <c r="C103" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D103" s="1"/>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
       <c r="H103" s="9"/>
-      <c r="I103" s="9">
-        <v>2</v>
-      </c>
+      <c r="I103" s="9"/>
     </row>
     <row r="104" spans="1:9" ht="15.75">
-      <c r="A104" s="38"/>
-      <c r="B104" s="39"/>
+      <c r="A104" s="39"/>
+      <c r="B104" s="38"/>
       <c r="C104" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="D104" s="1"/>
       <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
+      <c r="F104" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G104" s="1"/>
       <c r="H104" s="9">
         <v>1</v>
       </c>
       <c r="I104" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="15.75">
-      <c r="A105" s="38"/>
-      <c r="B105" s="39"/>
-      <c r="C105" s="27" t="s">
-        <v>63</v>
+      <c r="A105" s="39"/>
+      <c r="B105" s="38"/>
+      <c r="C105" s="28" t="s">
+        <v>142</v>
       </c>
       <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
+      <c r="E105" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
-      <c r="H105" s="9"/>
-      <c r="I105" s="9"/>
+      <c r="H105" s="9">
+        <v>1</v>
+      </c>
+      <c r="I105" s="9">
+        <v>5</v>
+      </c>
     </row>
     <row r="106" spans="1:9" ht="15.75">
-      <c r="A106" s="38"/>
-      <c r="B106" s="39"/>
+      <c r="A106" s="39"/>
+      <c r="B106" s="38"/>
       <c r="C106" s="28" t="s">
         <v>143</v>
       </c>
@@ -3157,31 +3147,31 @@
         <v>1</v>
       </c>
       <c r="I106" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="15.75">
-      <c r="A107" s="38"/>
-      <c r="B107" s="39"/>
+      <c r="A107" s="39"/>
+      <c r="B107" s="38"/>
       <c r="C107" s="28" t="s">
         <v>144</v>
       </c>
       <c r="D107" s="1"/>
-      <c r="E107" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G107" s="1"/>
       <c r="H107" s="9">
         <v>1</v>
       </c>
       <c r="I107" s="9">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="15.75">
-      <c r="A108" s="38"/>
-      <c r="B108" s="39"/>
+      <c r="A108" s="39"/>
+      <c r="B108" s="38"/>
       <c r="C108" s="28" t="s">
         <v>145</v>
       </c>
@@ -3195,108 +3185,108 @@
         <v>1</v>
       </c>
       <c r="I108" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="15.75">
-      <c r="A109" s="38"/>
-      <c r="B109" s="39"/>
-      <c r="C109" s="28" t="s">
-        <v>146</v>
+      <c r="A109" s="39"/>
+      <c r="B109" s="38"/>
+      <c r="C109" s="25" t="s">
+        <v>53</v>
       </c>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
-      <c r="F109" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="F109" s="1"/>
       <c r="G109" s="1"/>
-      <c r="H109" s="9">
-        <v>1</v>
-      </c>
-      <c r="I109" s="9">
-        <v>1</v>
-      </c>
+      <c r="H109" s="9"/>
+      <c r="I109" s="9"/>
     </row>
     <row r="110" spans="1:9" ht="15.75">
-      <c r="A110" s="38"/>
-      <c r="B110" s="39"/>
-      <c r="C110" s="28" t="s">
-        <v>147</v>
+      <c r="A110" s="39"/>
+      <c r="B110" s="38"/>
+      <c r="C110" s="29" t="s">
+        <v>146</v>
       </c>
       <c r="D110" s="1"/>
-      <c r="E110" s="1"/>
-      <c r="F110" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="E110" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F110" s="1"/>
       <c r="G110" s="1"/>
-      <c r="H110" s="9">
-        <v>1</v>
-      </c>
+      <c r="H110" s="9"/>
       <c r="I110" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="15.75">
-      <c r="A111" s="38"/>
-      <c r="B111" s="39"/>
-      <c r="C111" s="25" t="s">
-        <v>53</v>
+      <c r="A111" s="39"/>
+      <c r="B111" s="38"/>
+      <c r="C111" s="26" t="s">
+        <v>64</v>
       </c>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
-      <c r="F111" s="1"/>
+      <c r="F111" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G111" s="1"/>
-      <c r="H111" s="9"/>
-      <c r="I111" s="9"/>
+      <c r="H111" s="9">
+        <v>1</v>
+      </c>
+      <c r="I111" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="112" spans="1:9" ht="15.75">
-      <c r="A112" s="38"/>
-      <c r="B112" s="39"/>
-      <c r="C112" s="29" t="s">
-        <v>148</v>
+      <c r="A112" s="39"/>
+      <c r="B112" s="38"/>
+      <c r="C112" s="26" t="s">
+        <v>65</v>
       </c>
       <c r="D112" s="1"/>
-      <c r="E112" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="E112" s="1"/>
       <c r="F112" s="1"/>
-      <c r="G112" s="1"/>
-      <c r="H112" s="9"/>
+      <c r="G112" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H112" s="9">
+        <v>1</v>
+      </c>
       <c r="I112" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="15.75">
-      <c r="A113" s="38"/>
-      <c r="B113" s="39"/>
+      <c r="A113" s="39"/>
+      <c r="B113" s="38"/>
       <c r="C113" s="26" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
-      <c r="F113" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G113" s="1"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H113" s="9">
         <v>1</v>
       </c>
       <c r="I113" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="15.75">
-      <c r="A114" s="38"/>
-      <c r="B114" s="39"/>
+      <c r="A114" s="39"/>
+      <c r="B114" s="38"/>
       <c r="C114" s="26" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D114" s="1"/>
-      <c r="E114" s="1"/>
+      <c r="E114" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="F114" s="1"/>
-      <c r="G114" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="G114" s="1"/>
       <c r="H114" s="9">
         <v>1</v>
       </c>
@@ -3305,61 +3295,57 @@
       </c>
     </row>
     <row r="115" spans="1:9" ht="15.75">
-      <c r="A115" s="38"/>
-      <c r="B115" s="39"/>
-      <c r="C115" s="26" t="s">
-        <v>66</v>
+      <c r="A115" s="39"/>
+      <c r="B115" s="38"/>
+      <c r="C115" s="10" t="s">
+        <v>51</v>
       </c>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
-      <c r="G115" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H115" s="9">
-        <v>1</v>
-      </c>
-      <c r="I115" s="9">
-        <v>1</v>
-      </c>
+      <c r="G115" s="1"/>
+      <c r="H115" s="9"/>
+      <c r="I115" s="9"/>
     </row>
     <row r="116" spans="1:9" ht="15.75">
-      <c r="A116" s="38"/>
-      <c r="B116" s="39"/>
-      <c r="C116" s="26" t="s">
-        <v>71</v>
+      <c r="A116" s="39"/>
+      <c r="B116" s="38"/>
+      <c r="C116" s="19" t="s">
+        <v>67</v>
       </c>
       <c r="D116" s="1"/>
-      <c r="E116" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="E116" s="1"/>
       <c r="F116" s="1"/>
-      <c r="G116" s="1"/>
-      <c r="H116" s="9">
-        <v>1</v>
-      </c>
+      <c r="G116" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H116" s="9"/>
       <c r="I116" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="15.75">
-      <c r="A117" s="38"/>
-      <c r="B117" s="39"/>
-      <c r="C117" s="10" t="s">
-        <v>51</v>
+      <c r="A117" s="39"/>
+      <c r="B117" s="38"/>
+      <c r="C117" s="19" t="s">
+        <v>149</v>
       </c>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
-      <c r="G117" s="1"/>
+      <c r="G117" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H117" s="9"/>
-      <c r="I117" s="9"/>
+      <c r="I117" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="118" spans="1:9" ht="15.75">
-      <c r="A118" s="38"/>
-      <c r="B118" s="39"/>
+      <c r="A118" s="39"/>
+      <c r="B118" s="38"/>
       <c r="C118" s="19" t="s">
-        <v>67</v>
+        <v>147</v>
       </c>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
@@ -3373,10 +3359,10 @@
       </c>
     </row>
     <row r="119" spans="1:9" ht="15.75">
-      <c r="A119" s="38"/>
-      <c r="B119" s="39"/>
-      <c r="C119" s="19" t="s">
-        <v>151</v>
+      <c r="A119" s="39"/>
+      <c r="B119" s="38"/>
+      <c r="C119" s="20" t="s">
+        <v>68</v>
       </c>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
@@ -3384,16 +3370,18 @@
       <c r="G119" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H119" s="9"/>
+      <c r="H119" s="9">
+        <v>1</v>
+      </c>
       <c r="I119" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="15.75">
-      <c r="A120" s="38"/>
-      <c r="B120" s="39"/>
-      <c r="C120" s="19" t="s">
-        <v>149</v>
+      <c r="A120" s="39"/>
+      <c r="B120" s="38"/>
+      <c r="C120" s="20" t="s">
+        <v>148</v>
       </c>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
@@ -3403,21 +3391,21 @@
       </c>
       <c r="H120" s="9"/>
       <c r="I120" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="15.75">
-      <c r="A121" s="38"/>
-      <c r="B121" s="39"/>
+      <c r="A121" s="39"/>
+      <c r="B121" s="38"/>
       <c r="C121" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D121" s="1"/>
+        <v>73</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
-      <c r="G121" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="G121" s="1"/>
       <c r="H121" s="9">
         <v>1</v>
       </c>
@@ -3426,34 +3414,36 @@
       </c>
     </row>
     <row r="122" spans="1:9" ht="15.75">
-      <c r="A122" s="38"/>
-      <c r="B122" s="39"/>
+      <c r="A122" s="39"/>
+      <c r="B122" s="38"/>
       <c r="C122" s="20" t="s">
-        <v>150</v>
+        <v>72</v>
       </c>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
-      <c r="F122" s="1"/>
-      <c r="G122" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H122" s="9"/>
+      <c r="F122" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G122" s="1"/>
+      <c r="H122" s="9">
+        <v>1</v>
+      </c>
       <c r="I122" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="15.75">
-      <c r="A123" s="38"/>
-      <c r="B123" s="39"/>
+      <c r="A123" s="39"/>
+      <c r="B123" s="38"/>
       <c r="C123" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="D123" s="1"/>
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
-      <c r="G123" s="1"/>
+      <c r="G123" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H123" s="9">
         <v>1</v>
       </c>
@@ -3462,53 +3452,53 @@
       </c>
     </row>
     <row r="124" spans="1:9" ht="15.75">
-      <c r="A124" s="38"/>
-      <c r="B124" s="39"/>
-      <c r="C124" s="20" t="s">
-        <v>72</v>
+      <c r="A124" s="39"/>
+      <c r="B124" s="38"/>
+      <c r="C124" s="18" t="s">
+        <v>98</v>
       </c>
       <c r="D124" s="1"/>
-      <c r="E124" s="1"/>
-      <c r="F124" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="E124" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F124" s="1"/>
       <c r="G124" s="1"/>
       <c r="H124" s="9">
         <v>1</v>
       </c>
       <c r="I124" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="15.75">
-      <c r="A125" s="38"/>
-      <c r="B125" s="39"/>
-      <c r="C125" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="D125" s="1"/>
+      <c r="A125" s="39"/>
+      <c r="B125" s="38"/>
+      <c r="C125" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
-      <c r="G125" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="G125" s="1"/>
       <c r="H125" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I125" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="15.75">
-      <c r="A126" s="38"/>
-      <c r="B126" s="39"/>
+      <c r="A126" s="39"/>
+      <c r="B126" s="38"/>
       <c r="C126" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="D126" s="1"/>
-      <c r="E126" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E126" s="1"/>
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
       <c r="H126" s="9">
@@ -3519,36 +3509,30 @@
       </c>
     </row>
     <row r="127" spans="1:9" ht="15.75">
-      <c r="A127" s="38"/>
-      <c r="B127" s="39"/>
-      <c r="C127" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A127" s="39"/>
+      <c r="B127" s="38"/>
+      <c r="C127" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D127" s="1"/>
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
-      <c r="H127" s="9">
-        <v>2</v>
-      </c>
-      <c r="I127" s="9">
-        <v>1</v>
-      </c>
+      <c r="H127" s="9"/>
+      <c r="I127" s="9"/>
     </row>
     <row r="128" spans="1:9" ht="15.75">
-      <c r="A128" s="38"/>
-      <c r="B128" s="39"/>
-      <c r="C128" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A128" s="39"/>
+      <c r="B128" s="38"/>
+      <c r="C128" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D128" s="1"/>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
-      <c r="G128" s="1"/>
+      <c r="G128" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H128" s="9">
         <v>1</v>
       </c>
@@ -3557,30 +3541,36 @@
       </c>
     </row>
     <row r="129" spans="1:9" ht="15.75">
-      <c r="A129" s="38"/>
-      <c r="B129" s="39"/>
-      <c r="C129" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="D129" s="1"/>
+      <c r="A129" s="39"/>
+      <c r="B129" s="38"/>
+      <c r="C129" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
-      <c r="H129" s="9"/>
-      <c r="I129" s="9"/>
+      <c r="H129" s="9">
+        <v>1</v>
+      </c>
+      <c r="I129" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="130" spans="1:9" ht="15.75">
-      <c r="A130" s="38"/>
-      <c r="B130" s="39"/>
+      <c r="A130" s="39"/>
+      <c r="B130" s="38"/>
       <c r="C130" s="20" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
-      <c r="F130" s="1"/>
-      <c r="G130" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="F130" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G130" s="1"/>
       <c r="H130" s="9">
         <v>1</v>
       </c>
@@ -3589,17 +3579,17 @@
       </c>
     </row>
     <row r="131" spans="1:9" ht="15.75">
-      <c r="A131" s="38"/>
-      <c r="B131" s="39"/>
+      <c r="A131" s="39"/>
+      <c r="B131" s="38"/>
       <c r="C131" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="D131" s="1"/>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
-      <c r="G131" s="1"/>
+      <c r="G131" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H131" s="9">
         <v>1</v>
       </c>
@@ -3608,10 +3598,10 @@
       </c>
     </row>
     <row r="132" spans="1:9" ht="15.75">
-      <c r="A132" s="38"/>
-      <c r="B132" s="39"/>
+      <c r="A132" s="39"/>
+      <c r="B132" s="38"/>
       <c r="C132" s="20" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
@@ -3627,17 +3617,17 @@
       </c>
     </row>
     <row r="133" spans="1:9" ht="15.75">
-      <c r="A133" s="38"/>
-      <c r="B133" s="39"/>
+      <c r="A133" s="39"/>
+      <c r="B133" s="38"/>
       <c r="C133" s="20" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="D133" s="1"/>
-      <c r="E133" s="1"/>
+      <c r="E133" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="F133" s="1"/>
-      <c r="G133" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="G133" s="1"/>
       <c r="H133" s="9">
         <v>1</v>
       </c>
@@ -3646,10 +3636,10 @@
       </c>
     </row>
     <row r="134" spans="1:9" ht="15.75">
-      <c r="A134" s="38"/>
-      <c r="B134" s="39"/>
+      <c r="A134" s="39"/>
+      <c r="B134" s="38"/>
       <c r="C134" s="20" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
@@ -3665,15 +3655,15 @@
       </c>
     </row>
     <row r="135" spans="1:9" ht="15.75">
-      <c r="A135" s="38"/>
-      <c r="B135" s="39"/>
+      <c r="A135" s="39"/>
+      <c r="B135" s="38"/>
       <c r="C135" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D135" s="1"/>
-      <c r="E135" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E135" s="1"/>
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
       <c r="H135" s="9">
@@ -3684,16 +3674,16 @@
       </c>
     </row>
     <row r="136" spans="1:9" ht="15.75">
-      <c r="A136" s="38"/>
-      <c r="B136" s="39"/>
+      <c r="A136" s="39"/>
+      <c r="B136" s="38"/>
       <c r="C136" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D136" s="1"/>
+        <v>75</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E136" s="1"/>
-      <c r="F136" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="F136" s="1"/>
       <c r="G136" s="1"/>
       <c r="H136" s="9">
         <v>1</v>
@@ -3703,15 +3693,15 @@
       </c>
     </row>
     <row r="137" spans="1:9" ht="15.75">
-      <c r="A137" s="38"/>
-      <c r="B137" s="39"/>
+      <c r="A137" s="39"/>
+      <c r="B137" s="38"/>
       <c r="C137" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E137" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="D137" s="1"/>
+      <c r="E137" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
       <c r="H137" s="9">
@@ -3722,16 +3712,16 @@
       </c>
     </row>
     <row r="138" spans="1:9" ht="15.75">
-      <c r="A138" s="38"/>
-      <c r="B138" s="39"/>
+      <c r="A138" s="39"/>
+      <c r="B138" s="38"/>
       <c r="C138" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="D138" s="1"/>
       <c r="E138" s="1"/>
-      <c r="F138" s="1"/>
+      <c r="F138" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G138" s="1"/>
       <c r="H138" s="9">
         <v>1</v>
@@ -3741,36 +3731,30 @@
       </c>
     </row>
     <row r="139" spans="1:9" ht="15.75">
-      <c r="A139" s="38"/>
-      <c r="B139" s="39"/>
-      <c r="C139" s="20" t="s">
-        <v>71</v>
+      <c r="A139" s="39"/>
+      <c r="B139" s="38"/>
+      <c r="C139" s="32" t="s">
+        <v>19</v>
       </c>
       <c r="D139" s="1"/>
-      <c r="E139" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="E139" s="1"/>
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
-      <c r="H139" s="9">
-        <v>1</v>
-      </c>
-      <c r="I139" s="9">
-        <v>1</v>
-      </c>
+      <c r="H139" s="9"/>
+      <c r="I139" s="9"/>
     </row>
     <row r="140" spans="1:9" ht="15.75">
-      <c r="A140" s="38"/>
-      <c r="B140" s="39"/>
+      <c r="A140" s="39"/>
+      <c r="B140" s="38"/>
       <c r="C140" s="20" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
-      <c r="F140" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G140" s="1"/>
+      <c r="F140" s="1"/>
+      <c r="G140" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H140" s="9">
         <v>1</v>
       </c>
@@ -3779,30 +3763,36 @@
       </c>
     </row>
     <row r="141" spans="1:9" ht="15.75">
-      <c r="A141" s="38"/>
-      <c r="B141" s="39"/>
-      <c r="C141" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="D141" s="1"/>
+      <c r="A141" s="39"/>
+      <c r="B141" s="38"/>
+      <c r="C141" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
-      <c r="H141" s="9"/>
-      <c r="I141" s="9"/>
+      <c r="H141" s="9">
+        <v>1</v>
+      </c>
+      <c r="I141" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="142" spans="1:9" ht="15.75">
-      <c r="A142" s="38"/>
-      <c r="B142" s="39"/>
+      <c r="A142" s="39"/>
+      <c r="B142" s="38"/>
       <c r="C142" s="20" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
-      <c r="F142" s="1"/>
-      <c r="G142" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="F142" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G142" s="1"/>
       <c r="H142" s="9">
         <v>1</v>
       </c>
@@ -3811,17 +3801,17 @@
       </c>
     </row>
     <row r="143" spans="1:9" ht="15.75">
-      <c r="A143" s="38"/>
-      <c r="B143" s="39"/>
+      <c r="A143" s="39"/>
+      <c r="B143" s="38"/>
       <c r="C143" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="D143" s="1"/>
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
-      <c r="G143" s="1"/>
+      <c r="G143" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H143" s="9">
         <v>1</v>
       </c>
@@ -3830,10 +3820,10 @@
       </c>
     </row>
     <row r="144" spans="1:9" ht="15.75">
-      <c r="A144" s="38"/>
-      <c r="B144" s="39"/>
+      <c r="A144" s="39"/>
+      <c r="B144" s="38"/>
       <c r="C144" s="20" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
@@ -3849,17 +3839,17 @@
       </c>
     </row>
     <row r="145" spans="1:9" ht="15.75">
-      <c r="A145" s="38"/>
-      <c r="B145" s="39"/>
+      <c r="A145" s="39"/>
+      <c r="B145" s="38"/>
       <c r="C145" s="20" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="D145" s="1"/>
-      <c r="E145" s="1"/>
+      <c r="E145" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="F145" s="1"/>
-      <c r="G145" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="G145" s="1"/>
       <c r="H145" s="9">
         <v>1</v>
       </c>
@@ -3868,10 +3858,10 @@
       </c>
     </row>
     <row r="146" spans="1:9" ht="15.75">
-      <c r="A146" s="38"/>
-      <c r="B146" s="39"/>
+      <c r="A146" s="39"/>
+      <c r="B146" s="38"/>
       <c r="C146" s="20" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
@@ -3887,15 +3877,15 @@
       </c>
     </row>
     <row r="147" spans="1:9" ht="15.75">
-      <c r="A147" s="38"/>
-      <c r="B147" s="39"/>
+      <c r="A147" s="39"/>
+      <c r="B147" s="38"/>
       <c r="C147" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D147" s="1"/>
-      <c r="E147" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E147" s="1"/>
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
       <c r="H147" s="9">
@@ -3906,16 +3896,16 @@
       </c>
     </row>
     <row r="148" spans="1:9" ht="15.75">
-      <c r="A148" s="38"/>
-      <c r="B148" s="39"/>
+      <c r="A148" s="39"/>
+      <c r="B148" s="38"/>
       <c r="C148" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D148" s="1"/>
+        <v>75</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E148" s="1"/>
-      <c r="F148" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="F148" s="1"/>
       <c r="G148" s="1"/>
       <c r="H148" s="9">
         <v>1</v>
@@ -3925,15 +3915,15 @@
       </c>
     </row>
     <row r="149" spans="1:9" ht="15.75">
-      <c r="A149" s="38"/>
-      <c r="B149" s="39"/>
+      <c r="A149" s="39"/>
+      <c r="B149" s="38"/>
       <c r="C149" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E149" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="D149" s="1"/>
+      <c r="E149" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
       <c r="H149" s="9">
@@ -3944,16 +3934,16 @@
       </c>
     </row>
     <row r="150" spans="1:9" ht="15.75">
-      <c r="A150" s="38"/>
-      <c r="B150" s="39"/>
+      <c r="A150" s="39"/>
+      <c r="B150" s="38"/>
       <c r="C150" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="D150" s="1"/>
       <c r="E150" s="1"/>
-      <c r="F150" s="1"/>
+      <c r="F150" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G150" s="1"/>
       <c r="H150" s="9">
         <v>1</v>
@@ -3963,59 +3953,53 @@
       </c>
     </row>
     <row r="151" spans="1:9" ht="15.75">
-      <c r="A151" s="38"/>
-      <c r="B151" s="39"/>
-      <c r="C151" s="20" t="s">
-        <v>71</v>
+      <c r="A151" s="39">
+        <v>6</v>
+      </c>
+      <c r="B151" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C151" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="D151" s="1"/>
-      <c r="E151" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F151" s="1"/>
+      <c r="E151" s="1"/>
+      <c r="F151" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G151" s="1"/>
       <c r="H151" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I151" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="15.75">
-      <c r="A152" s="38"/>
-      <c r="B152" s="39"/>
-      <c r="C152" s="20" t="s">
-        <v>64</v>
+      <c r="A152" s="39"/>
+      <c r="B152" s="38"/>
+      <c r="C152" s="30" t="s">
+        <v>22</v>
       </c>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
-      <c r="F152" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="F152" s="1"/>
       <c r="G152" s="1"/>
-      <c r="H152" s="9">
-        <v>1</v>
-      </c>
-      <c r="I152" s="9">
-        <v>1</v>
-      </c>
+      <c r="H152" s="9"/>
+      <c r="I152" s="9"/>
     </row>
     <row r="153" spans="1:9" ht="15.75">
-      <c r="A153" s="38">
-        <v>6</v>
-      </c>
-      <c r="B153" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C153" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D153" s="1"/>
+      <c r="A153" s="39"/>
+      <c r="B153" s="38"/>
+      <c r="C153" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E153" s="1"/>
-      <c r="F153" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G153" s="1"/>
+      <c r="F153" s="1"/>
+      <c r="G153" s="8"/>
       <c r="H153" s="9">
         <v>2</v>
       </c>
@@ -4024,86 +4008,86 @@
       </c>
     </row>
     <row r="154" spans="1:9" ht="15.75">
-      <c r="A154" s="38"/>
-      <c r="B154" s="39"/>
-      <c r="C154" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="D154" s="1"/>
+      <c r="A154" s="39"/>
+      <c r="B154" s="38"/>
+      <c r="C154" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E154" s="1"/>
       <c r="F154" s="1"/>
-      <c r="G154" s="1"/>
-      <c r="H154" s="9"/>
-      <c r="I154" s="9"/>
-    </row>
-    <row r="155" spans="1:9" ht="15.75">
-      <c r="A155" s="38"/>
-      <c r="B155" s="39"/>
-      <c r="C155" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E155" s="1"/>
-      <c r="F155" s="1"/>
-      <c r="G155" s="8"/>
-      <c r="H155" s="9">
+      <c r="G154" s="8"/>
+      <c r="H154" s="9">
         <v>2</v>
       </c>
-      <c r="I155" s="9">
-        <v>1</v>
-      </c>
+      <c r="I154" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
+      <c r="A155" s="4"/>
+      <c r="B155" s="4"/>
+      <c r="D155" s="4"/>
+      <c r="E155" s="4"/>
+      <c r="F155" s="4"/>
+      <c r="G155" s="4"/>
+      <c r="I155" s="4"/>
     </row>
     <row r="156" spans="1:9" ht="15.75">
-      <c r="A156" s="38"/>
-      <c r="B156" s="39"/>
-      <c r="C156" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E156" s="1"/>
-      <c r="F156" s="1"/>
-      <c r="G156" s="8"/>
-      <c r="H156" s="9">
-        <v>2</v>
-      </c>
-      <c r="I156" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
-      <c r="A157" s="4"/>
-      <c r="B157" s="4"/>
+      <c r="A156" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="B156" s="34"/>
+      <c r="C156" s="35"/>
+      <c r="D156" s="4"/>
+      <c r="E156" s="4"/>
+      <c r="F156" s="4"/>
+      <c r="G156" s="4"/>
+      <c r="I156" s="4"/>
+    </row>
+    <row r="157" spans="1:9" ht="15.75">
+      <c r="A157" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B157" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="C157" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="D157" s="4"/>
       <c r="E157" s="4"/>
       <c r="F157" s="4"/>
       <c r="G157" s="4"/>
       <c r="I157" s="4"/>
     </row>
-    <row r="158" spans="1:9" ht="15.75">
-      <c r="A158" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="B158" s="34"/>
-      <c r="C158" s="35"/>
+    <row r="158" spans="1:9" ht="63">
+      <c r="A158" s="36">
+        <v>1</v>
+      </c>
+      <c r="B158" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="C158" s="8">
+        <v>1</v>
+      </c>
       <c r="D158" s="4"/>
       <c r="E158" s="4"/>
       <c r="F158" s="4"/>
       <c r="G158" s="4"/>
       <c r="I158" s="4"/>
     </row>
-    <row r="159" spans="1:9" ht="15.75">
-      <c r="A159" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B159" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="C159" s="8" t="s">
-        <v>29</v>
+    <row r="159" spans="1:9" ht="31.5">
+      <c r="A159" s="8">
+        <v>2</v>
+      </c>
+      <c r="B159" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C159" s="8">
+        <v>2</v>
       </c>
       <c r="D159" s="4"/>
       <c r="E159" s="4"/>
@@ -4111,15 +4095,15 @@
       <c r="G159" s="4"/>
       <c r="I159" s="4"/>
     </row>
-    <row r="160" spans="1:9" ht="63">
-      <c r="A160" s="36">
-        <v>1</v>
+    <row r="160" spans="1:9" ht="31.5">
+      <c r="A160" s="8">
+        <v>3</v>
       </c>
       <c r="B160" s="37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C160" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D160" s="4"/>
       <c r="E160" s="4"/>
@@ -4129,13 +4113,13 @@
     </row>
     <row r="161" spans="1:9" ht="31.5">
       <c r="A161" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B161" s="37" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C161" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D161" s="4"/>
       <c r="E161" s="4"/>
@@ -4145,13 +4129,13 @@
     </row>
     <row r="162" spans="1:9" ht="31.5">
       <c r="A162" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B162" s="37" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C162" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D162" s="4"/>
       <c r="E162" s="4"/>
@@ -4159,32 +4143,14 @@
       <c r="G162" s="4"/>
       <c r="I162" s="4"/>
     </row>
-    <row r="163" spans="1:9" ht="31.5">
-      <c r="A163" s="8">
-        <v>4</v>
-      </c>
-      <c r="B163" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="C163" s="8">
-        <v>4</v>
-      </c>
+    <row r="163" spans="1:9">
       <c r="D163" s="4"/>
       <c r="E163" s="4"/>
       <c r="F163" s="4"/>
       <c r="G163" s="4"/>
       <c r="I163" s="4"/>
     </row>
-    <row r="164" spans="1:9" ht="31.5">
-      <c r="A164" s="8">
-        <v>5</v>
-      </c>
-      <c r="B164" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="C164" s="8">
-        <v>5</v>
-      </c>
+    <row r="164" spans="1:9">
       <c r="D164" s="4"/>
       <c r="E164" s="4"/>
       <c r="F164" s="4"/>
@@ -4282,37 +4248,23 @@
       <c r="G177" s="4"/>
       <c r="I177" s="4"/>
     </row>
-    <row r="178" spans="4:9">
-      <c r="D178" s="4"/>
-      <c r="E178" s="4"/>
-      <c r="F178" s="4"/>
-      <c r="G178" s="4"/>
-      <c r="I178" s="4"/>
-    </row>
-    <row r="179" spans="4:9">
-      <c r="D179" s="4"/>
-      <c r="E179" s="4"/>
-      <c r="F179" s="4"/>
-      <c r="G179" s="4"/>
-      <c r="I179" s="4"/>
-    </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A151:A154"/>
+    <mergeCell ref="B151:B154"/>
+    <mergeCell ref="B88:B150"/>
+    <mergeCell ref="A88:A150"/>
+    <mergeCell ref="B52:B87"/>
+    <mergeCell ref="A52:A87"/>
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B10:B53"/>
-    <mergeCell ref="A10:A53"/>
+    <mergeCell ref="B10:B51"/>
+    <mergeCell ref="A10:A51"/>
     <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A153:A156"/>
-    <mergeCell ref="B153:B156"/>
-    <mergeCell ref="B90:B152"/>
-    <mergeCell ref="A90:A152"/>
-    <mergeCell ref="B54:B89"/>
-    <mergeCell ref="A54:A89"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D155:F156 D157:G177 D2:G154">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D153:F154 D155:G175 D2:G152">
       <formula1>"O, "</formula1>
     </dataValidation>
   </dataValidations>

--- a/Tasksheet Final.xlsx
+++ b/Tasksheet Final.xlsx
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="164">
   <si>
     <t>No.</t>
   </si>
@@ -553,6 +553,30 @@
   </si>
   <si>
     <t>Update package(s) status (use case specification)</t>
+  </si>
+  <si>
+    <t>Input invoice</t>
+  </si>
+  <si>
+    <t>Update status of new trip</t>
+  </si>
+  <si>
+    <t>Update status of arrival trip</t>
+  </si>
+  <si>
+    <t>Update status of departed trip</t>
+  </si>
+  <si>
+    <t>Manage expired request</t>
+  </si>
+  <si>
+    <t>Manage late request</t>
+  </si>
+  <si>
+    <t>View request on way and request delivered</t>
+  </si>
+  <si>
+    <t>Edit request information</t>
   </si>
 </sst>
 </file>
@@ -802,10 +826,10 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1109,11 +1133,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K177"/>
+  <dimension ref="A1:K185"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E158" sqref="E158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1158,8 +1182,8 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
       <c r="C2" s="8" t="s">
         <v>36</v>
       </c>
@@ -1177,8 +1201,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75">
-      <c r="A3" s="38"/>
-      <c r="B3" s="38"/>
+      <c r="A3" s="39"/>
+      <c r="B3" s="39"/>
       <c r="C3" s="8" t="s">
         <v>35</v>
       </c>
@@ -1196,8 +1220,8 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="39"/>
       <c r="C4" s="8" t="s">
         <v>84</v>
       </c>
@@ -1215,8 +1239,8 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="39"/>
       <c r="C5" s="8" t="s">
         <v>85</v>
       </c>
@@ -1234,8 +1258,8 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75">
-      <c r="A6" s="38"/>
-      <c r="B6" s="38"/>
+      <c r="A6" s="39"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="8" t="s">
         <v>13</v>
       </c>
@@ -1253,10 +1277,10 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75">
-      <c r="A7" s="38">
+      <c r="A7" s="39">
         <v>2</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="39" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -1276,8 +1300,8 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
+      <c r="A8" s="39"/>
+      <c r="B8" s="39"/>
       <c r="C8" s="8" t="s">
         <v>8</v>
       </c>
@@ -1295,8 +1319,8 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75">
-      <c r="A9" s="38"/>
-      <c r="B9" s="38"/>
+      <c r="A9" s="39"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="8" t="s">
         <v>9</v>
       </c>
@@ -1314,10 +1338,10 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A10" s="38">
+      <c r="A10" s="39">
         <v>3</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="39" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="8" t="s">
@@ -1339,8 +1363,8 @@
       <c r="K10" s="3"/>
     </row>
     <row r="11" spans="1:11" ht="15.75">
-      <c r="A11" s="38"/>
-      <c r="B11" s="38"/>
+      <c r="A11" s="39"/>
+      <c r="B11" s="39"/>
       <c r="C11" s="10" t="s">
         <v>11</v>
       </c>
@@ -1354,8 +1378,8 @@
       <c r="K11" s="3"/>
     </row>
     <row r="12" spans="1:11" ht="15.75">
-      <c r="A12" s="38"/>
-      <c r="B12" s="38"/>
+      <c r="A12" s="39"/>
+      <c r="B12" s="39"/>
       <c r="C12" s="11" t="s">
         <v>12</v>
       </c>
@@ -1375,8 +1399,8 @@
       <c r="K12" s="3"/>
     </row>
     <row r="13" spans="1:11" ht="15.75">
-      <c r="A13" s="38"/>
-      <c r="B13" s="38"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="39"/>
       <c r="C13" s="11" t="s">
         <v>86</v>
       </c>
@@ -1396,8 +1420,8 @@
       <c r="K13" s="3"/>
     </row>
     <row r="14" spans="1:11" ht="15.75">
-      <c r="A14" s="38"/>
-      <c r="B14" s="38"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="39"/>
       <c r="C14" s="12" t="s">
         <v>107</v>
       </c>
@@ -1411,8 +1435,8 @@
       <c r="K14" s="3"/>
     </row>
     <row r="15" spans="1:11" ht="15.75">
-      <c r="A15" s="38"/>
-      <c r="B15" s="38"/>
+      <c r="A15" s="39"/>
+      <c r="B15" s="39"/>
       <c r="C15" s="12" t="s">
         <v>154</v>
       </c>
@@ -1428,8 +1452,8 @@
       <c r="K15" s="3"/>
     </row>
     <row r="16" spans="1:11" ht="15.75">
-      <c r="A16" s="38"/>
-      <c r="B16" s="38"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="39"/>
       <c r="C16" s="13" t="s">
         <v>108</v>
       </c>
@@ -1449,8 +1473,8 @@
       <c r="K16" s="3"/>
     </row>
     <row r="17" spans="1:11" ht="15.75">
-      <c r="A17" s="38"/>
-      <c r="B17" s="38"/>
+      <c r="A17" s="39"/>
+      <c r="B17" s="39"/>
       <c r="C17" s="13" t="s">
         <v>109</v>
       </c>
@@ -1466,8 +1490,8 @@
       <c r="K17" s="3"/>
     </row>
     <row r="18" spans="1:11" ht="15.75">
-      <c r="A18" s="38"/>
-      <c r="B18" s="38"/>
+      <c r="A18" s="39"/>
+      <c r="B18" s="39"/>
       <c r="C18" s="13" t="s">
         <v>110</v>
       </c>
@@ -1487,8 +1511,8 @@
       <c r="K18" s="3"/>
     </row>
     <row r="19" spans="1:11" ht="15.75">
-      <c r="A19" s="38"/>
-      <c r="B19" s="38"/>
+      <c r="A19" s="39"/>
+      <c r="B19" s="39"/>
       <c r="C19" s="13" t="s">
         <v>111</v>
       </c>
@@ -1508,8 +1532,8 @@
       <c r="K19" s="3"/>
     </row>
     <row r="20" spans="1:11" ht="15.75">
-      <c r="A20" s="38"/>
-      <c r="B20" s="38"/>
+      <c r="A20" s="39"/>
+      <c r="B20" s="39"/>
       <c r="C20" s="13" t="s">
         <v>132</v>
       </c>
@@ -1529,8 +1553,8 @@
       <c r="K20" s="3"/>
     </row>
     <row r="21" spans="1:11" ht="15.75">
-      <c r="A21" s="38"/>
-      <c r="B21" s="38"/>
+      <c r="A21" s="39"/>
+      <c r="B21" s="39"/>
       <c r="C21" s="13" t="s">
         <v>115</v>
       </c>
@@ -1550,8 +1574,8 @@
       <c r="K21" s="3"/>
     </row>
     <row r="22" spans="1:11" ht="15.75">
-      <c r="A22" s="38"/>
-      <c r="B22" s="38"/>
+      <c r="A22" s="39"/>
+      <c r="B22" s="39"/>
       <c r="C22" s="13" t="s">
         <v>116</v>
       </c>
@@ -1571,8 +1595,8 @@
       <c r="K22" s="3"/>
     </row>
     <row r="23" spans="1:11" ht="15.75">
-      <c r="A23" s="38"/>
-      <c r="B23" s="38"/>
+      <c r="A23" s="39"/>
+      <c r="B23" s="39"/>
       <c r="C23" s="13" t="s">
         <v>117</v>
       </c>
@@ -1592,8 +1616,8 @@
       <c r="K23" s="3"/>
     </row>
     <row r="24" spans="1:11" ht="15.75">
-      <c r="A24" s="38"/>
-      <c r="B24" s="38"/>
+      <c r="A24" s="39"/>
+      <c r="B24" s="39"/>
       <c r="C24" s="13" t="s">
         <v>118</v>
       </c>
@@ -1613,8 +1637,8 @@
       <c r="K24" s="3"/>
     </row>
     <row r="25" spans="1:11" ht="15.75">
-      <c r="A25" s="38"/>
-      <c r="B25" s="38"/>
+      <c r="A25" s="39"/>
+      <c r="B25" s="39"/>
       <c r="C25" s="13" t="s">
         <v>119</v>
       </c>
@@ -1634,8 +1658,8 @@
       <c r="K25" s="3"/>
     </row>
     <row r="26" spans="1:11" ht="15.75">
-      <c r="A26" s="38"/>
-      <c r="B26" s="38"/>
+      <c r="A26" s="39"/>
+      <c r="B26" s="39"/>
       <c r="C26" s="13" t="s">
         <v>120</v>
       </c>
@@ -1655,8 +1679,8 @@
       <c r="K26" s="3"/>
     </row>
     <row r="27" spans="1:11" ht="15.75">
-      <c r="A27" s="38"/>
-      <c r="B27" s="38"/>
+      <c r="A27" s="39"/>
+      <c r="B27" s="39"/>
       <c r="C27" s="13" t="s">
         <v>121</v>
       </c>
@@ -1676,8 +1700,8 @@
       <c r="K27" s="3"/>
     </row>
     <row r="28" spans="1:11" ht="15.75">
-      <c r="A28" s="38"/>
-      <c r="B28" s="38"/>
+      <c r="A28" s="39"/>
+      <c r="B28" s="39"/>
       <c r="C28" s="13" t="s">
         <v>114</v>
       </c>
@@ -1697,8 +1721,8 @@
       <c r="K28" s="3"/>
     </row>
     <row r="29" spans="1:11" ht="15.75">
-      <c r="A29" s="38"/>
-      <c r="B29" s="38"/>
+      <c r="A29" s="39"/>
+      <c r="B29" s="39"/>
       <c r="C29" s="13" t="s">
         <v>123</v>
       </c>
@@ -1718,8 +1742,8 @@
       <c r="K29" s="3"/>
     </row>
     <row r="30" spans="1:11" ht="15.75">
-      <c r="A30" s="38"/>
-      <c r="B30" s="38"/>
+      <c r="A30" s="39"/>
+      <c r="B30" s="39"/>
       <c r="C30" s="13" t="s">
         <v>122</v>
       </c>
@@ -1739,8 +1763,8 @@
       <c r="K30" s="3"/>
     </row>
     <row r="31" spans="1:11" ht="15.75">
-      <c r="A31" s="38"/>
-      <c r="B31" s="38"/>
+      <c r="A31" s="39"/>
+      <c r="B31" s="39"/>
       <c r="C31" s="13" t="s">
         <v>112</v>
       </c>
@@ -1760,8 +1784,8 @@
       <c r="K31" s="3"/>
     </row>
     <row r="32" spans="1:11" ht="15.75">
-      <c r="A32" s="38"/>
-      <c r="B32" s="38"/>
+      <c r="A32" s="39"/>
+      <c r="B32" s="39"/>
       <c r="C32" s="13" t="s">
         <v>113</v>
       </c>
@@ -1781,8 +1805,8 @@
       <c r="K32" s="3"/>
     </row>
     <row r="33" spans="1:11" ht="15.75">
-      <c r="A33" s="38"/>
-      <c r="B33" s="38"/>
+      <c r="A33" s="39"/>
+      <c r="B33" s="39"/>
       <c r="C33" s="13" t="s">
         <v>124</v>
       </c>
@@ -1802,8 +1826,8 @@
       <c r="K33" s="3"/>
     </row>
     <row r="34" spans="1:11" ht="15.75">
-      <c r="A34" s="38"/>
-      <c r="B34" s="38"/>
+      <c r="A34" s="39"/>
+      <c r="B34" s="39"/>
       <c r="C34" s="13" t="s">
         <v>155</v>
       </c>
@@ -1823,8 +1847,8 @@
       <c r="K34" s="3"/>
     </row>
     <row r="35" spans="1:11" ht="15.75">
-      <c r="A35" s="38"/>
-      <c r="B35" s="38"/>
+      <c r="A35" s="39"/>
+      <c r="B35" s="39"/>
       <c r="C35" s="13" t="s">
         <v>129</v>
       </c>
@@ -1844,8 +1868,8 @@
       <c r="K35" s="3"/>
     </row>
     <row r="36" spans="1:11" ht="15.75">
-      <c r="A36" s="38"/>
-      <c r="B36" s="38"/>
+      <c r="A36" s="39"/>
+      <c r="B36" s="39"/>
       <c r="C36" s="13" t="s">
         <v>130</v>
       </c>
@@ -1865,8 +1889,8 @@
       <c r="K36" s="3"/>
     </row>
     <row r="37" spans="1:11" ht="15.75">
-      <c r="A37" s="38"/>
-      <c r="B37" s="38"/>
+      <c r="A37" s="39"/>
+      <c r="B37" s="39"/>
       <c r="C37" s="13" t="s">
         <v>131</v>
       </c>
@@ -1886,8 +1910,8 @@
       <c r="K37" s="3"/>
     </row>
     <row r="38" spans="1:11" ht="15.75">
-      <c r="A38" s="38"/>
-      <c r="B38" s="38"/>
+      <c r="A38" s="39"/>
+      <c r="B38" s="39"/>
       <c r="C38" s="13" t="s">
         <v>135</v>
       </c>
@@ -1907,8 +1931,8 @@
       <c r="K38" s="3"/>
     </row>
     <row r="39" spans="1:11" ht="15.75">
-      <c r="A39" s="38"/>
-      <c r="B39" s="38"/>
+      <c r="A39" s="39"/>
+      <c r="B39" s="39"/>
       <c r="C39" s="13" t="s">
         <v>128</v>
       </c>
@@ -1928,8 +1952,8 @@
       <c r="K39" s="3"/>
     </row>
     <row r="40" spans="1:11" ht="15.75">
-      <c r="A40" s="38"/>
-      <c r="B40" s="38"/>
+      <c r="A40" s="39"/>
+      <c r="B40" s="39"/>
       <c r="C40" s="13" t="s">
         <v>134</v>
       </c>
@@ -1949,8 +1973,8 @@
       <c r="K40" s="3"/>
     </row>
     <row r="41" spans="1:11" ht="15.75">
-      <c r="A41" s="38"/>
-      <c r="B41" s="38"/>
+      <c r="A41" s="39"/>
+      <c r="B41" s="39"/>
       <c r="C41" s="13" t="s">
         <v>127</v>
       </c>
@@ -1970,8 +1994,8 @@
       <c r="K41" s="3"/>
     </row>
     <row r="42" spans="1:11" ht="15.75">
-      <c r="A42" s="38"/>
-      <c r="B42" s="38"/>
+      <c r="A42" s="39"/>
+      <c r="B42" s="39"/>
       <c r="C42" s="13" t="s">
         <v>133</v>
       </c>
@@ -1991,8 +2015,8 @@
       <c r="K42" s="3"/>
     </row>
     <row r="43" spans="1:11" ht="15.75">
-      <c r="A43" s="38"/>
-      <c r="B43" s="38"/>
+      <c r="A43" s="39"/>
+      <c r="B43" s="39"/>
       <c r="C43" s="13" t="s">
         <v>126</v>
       </c>
@@ -2012,8 +2036,8 @@
       <c r="K43" s="3"/>
     </row>
     <row r="44" spans="1:11" ht="15.75">
-      <c r="A44" s="38"/>
-      <c r="B44" s="38"/>
+      <c r="A44" s="39"/>
+      <c r="B44" s="39"/>
       <c r="C44" s="13" t="s">
         <v>125</v>
       </c>
@@ -2033,25 +2057,31 @@
       <c r="K44" s="3"/>
     </row>
     <row r="45" spans="1:11" ht="15.75">
-      <c r="A45" s="38"/>
-      <c r="B45" s="38"/>
-      <c r="C45" s="12" t="s">
-        <v>87</v>
+      <c r="A45" s="39"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="13" t="s">
+        <v>156</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
+      <c r="F45" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G45" s="1"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
+      <c r="H45" s="9">
+        <v>1</v>
+      </c>
+      <c r="I45" s="9">
+        <v>1</v>
+      </c>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
     </row>
     <row r="46" spans="1:11" ht="15.75">
-      <c r="A46" s="38"/>
-      <c r="B46" s="38"/>
-      <c r="C46" s="14" t="s">
-        <v>14</v>
+      <c r="A46" s="39"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="13" t="s">
+        <v>157</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -2059,62 +2089,62 @@
       <c r="G46" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H46" s="15">
-        <v>1</v>
-      </c>
-      <c r="I46" s="15">
+      <c r="H46" s="9">
+        <v>1</v>
+      </c>
+      <c r="I46" s="9">
         <v>1</v>
       </c>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
     </row>
     <row r="47" spans="1:11" ht="15.75">
-      <c r="A47" s="38"/>
-      <c r="B47" s="38"/>
-      <c r="C47" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A47" s="39"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="15">
-        <v>1</v>
-      </c>
-      <c r="I47" s="15">
+      <c r="G47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H47" s="9">
+        <v>1</v>
+      </c>
+      <c r="I47" s="9">
         <v>1</v>
       </c>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
     </row>
     <row r="48" spans="1:11" ht="15.75">
-      <c r="A48" s="38"/>
-      <c r="B48" s="38"/>
-      <c r="C48" s="14" t="s">
-        <v>88</v>
+      <c r="A48" s="39"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="13" t="s">
+        <v>159</v>
       </c>
       <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="E48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" s="1"/>
       <c r="G48" s="1"/>
-      <c r="H48" s="15">
-        <v>1</v>
-      </c>
-      <c r="I48" s="15">
+      <c r="H48" s="9">
+        <v>1</v>
+      </c>
+      <c r="I48" s="9">
         <v>1</v>
       </c>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
     </row>
     <row r="49" spans="1:11" ht="15.75">
-      <c r="A49" s="38"/>
-      <c r="B49" s="38"/>
-      <c r="C49" s="14" t="s">
-        <v>89</v>
+      <c r="A49" s="39"/>
+      <c r="B49" s="39"/>
+      <c r="C49" s="13" t="s">
+        <v>160</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1" t="s">
@@ -2122,20 +2152,20 @@
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
-      <c r="H49" s="15">
-        <v>1</v>
-      </c>
-      <c r="I49" s="15">
+      <c r="H49" s="9">
+        <v>1</v>
+      </c>
+      <c r="I49" s="9">
         <v>1</v>
       </c>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
     </row>
     <row r="50" spans="1:11" ht="15.75">
-      <c r="A50" s="38"/>
-      <c r="B50" s="38"/>
-      <c r="C50" s="14" t="s">
-        <v>90</v>
+      <c r="A50" s="39"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="13" t="s">
+        <v>161</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>7</v>
@@ -2143,53 +2173,51 @@
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
-      <c r="H50" s="15">
-        <v>1</v>
-      </c>
-      <c r="I50" s="15">
+      <c r="H50" s="9">
+        <v>1</v>
+      </c>
+      <c r="I50" s="9">
         <v>1</v>
       </c>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
     </row>
     <row r="51" spans="1:11" ht="15.75">
-      <c r="A51" s="38"/>
-      <c r="B51" s="38"/>
-      <c r="C51" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D51" s="1"/>
+      <c r="A51" s="39"/>
+      <c r="B51" s="39"/>
+      <c r="C51" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
-      <c r="G51" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H51" s="15">
-        <v>2</v>
-      </c>
-      <c r="I51" s="15">
-        <v>3</v>
+      <c r="G51" s="1"/>
+      <c r="H51" s="9">
+        <v>1</v>
+      </c>
+      <c r="I51" s="9">
+        <v>1</v>
       </c>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
     </row>
     <row r="52" spans="1:11" ht="15.75">
-      <c r="A52" s="38">
-        <v>4</v>
-      </c>
-      <c r="B52" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A52" s="39"/>
+      <c r="B52" s="39"/>
+      <c r="C52" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="D52" s="1"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
+      <c r="F52" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G52" s="1"/>
-      <c r="H52" s="9"/>
+      <c r="H52" s="9">
+        <v>1</v>
+      </c>
       <c r="I52" s="9">
         <v>1</v>
       </c>
@@ -2197,307 +2225,335 @@
       <c r="K52" s="3"/>
     </row>
     <row r="53" spans="1:11" ht="15.75">
-      <c r="A53" s="38"/>
-      <c r="B53" s="38"/>
-      <c r="C53" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A53" s="39"/>
+      <c r="B53" s="39"/>
+      <c r="C53" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
-      <c r="H53" s="9"/>
+      <c r="H53" s="9">
+        <v>1</v>
+      </c>
       <c r="I53" s="9">
         <v>1</v>
       </c>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
     </row>
     <row r="54" spans="1:11" ht="15.75">
-      <c r="A54" s="38"/>
-      <c r="B54" s="38"/>
-      <c r="C54" s="18" t="s">
-        <v>91</v>
+      <c r="A54" s="39"/>
+      <c r="B54" s="39"/>
+      <c r="C54" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
+      <c r="G54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H54" s="15">
+        <v>1</v>
+      </c>
+      <c r="I54" s="15">
+        <v>1</v>
+      </c>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
     </row>
     <row r="55" spans="1:11" ht="15.75">
-      <c r="A55" s="38"/>
-      <c r="B55" s="38"/>
-      <c r="C55" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="D55" s="1"/>
+      <c r="A55" s="39"/>
+      <c r="B55" s="39"/>
+      <c r="C55" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
-      <c r="G55" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H55" s="9">
-        <v>3</v>
-      </c>
-      <c r="I55" s="9">
-        <v>2</v>
-      </c>
+      <c r="G55" s="1"/>
+      <c r="H55" s="15">
+        <v>1</v>
+      </c>
+      <c r="I55" s="15">
+        <v>1</v>
+      </c>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
     </row>
     <row r="56" spans="1:11" ht="15.75">
-      <c r="A56" s="38"/>
-      <c r="B56" s="38"/>
-      <c r="C56" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A56" s="39"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D56" s="1"/>
       <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
+      <c r="F56" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G56" s="1"/>
-      <c r="H56" s="9">
-        <v>3</v>
-      </c>
-      <c r="I56" s="9">
-        <v>2</v>
-      </c>
+      <c r="H56" s="15">
+        <v>1</v>
+      </c>
+      <c r="I56" s="15">
+        <v>1</v>
+      </c>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
     </row>
     <row r="57" spans="1:11" ht="15.75">
-      <c r="A57" s="38"/>
-      <c r="B57" s="38"/>
-      <c r="C57" s="19" t="s">
-        <v>94</v>
+      <c r="A57" s="39"/>
+      <c r="B57" s="39"/>
+      <c r="C57" s="14" t="s">
+        <v>89</v>
       </c>
       <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="E57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F57" s="1"/>
       <c r="G57" s="1"/>
-      <c r="H57" s="9">
-        <v>2</v>
-      </c>
-      <c r="I57" s="9">
-        <v>2</v>
-      </c>
+      <c r="H57" s="15">
+        <v>1</v>
+      </c>
+      <c r="I57" s="15">
+        <v>1</v>
+      </c>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
     </row>
     <row r="58" spans="1:11" ht="15.75">
-      <c r="A58" s="38"/>
-      <c r="B58" s="38"/>
-      <c r="C58" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A58" s="39"/>
+      <c r="B58" s="39"/>
+      <c r="C58" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
-      <c r="H58" s="9">
-        <v>2</v>
-      </c>
-      <c r="I58" s="9">
-        <v>2</v>
-      </c>
+      <c r="H58" s="15">
+        <v>1</v>
+      </c>
+      <c r="I58" s="15">
+        <v>1</v>
+      </c>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
     </row>
     <row r="59" spans="1:11" ht="15.75">
-      <c r="A59" s="38"/>
-      <c r="B59" s="38"/>
-      <c r="C59" s="18" t="s">
-        <v>95</v>
+      <c r="A59" s="39"/>
+      <c r="B59" s="39"/>
+      <c r="C59" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="9"/>
+      <c r="G59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H59" s="15">
+        <v>2</v>
+      </c>
+      <c r="I59" s="15">
+        <v>3</v>
+      </c>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
     </row>
     <row r="60" spans="1:11" ht="15.75">
-      <c r="A60" s="38"/>
-      <c r="B60" s="38"/>
-      <c r="C60" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D60" s="1"/>
+      <c r="A60" s="39">
+        <v>4</v>
+      </c>
+      <c r="B60" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
-      <c r="G60" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H60" s="9">
-        <v>3</v>
-      </c>
+      <c r="G60" s="1"/>
+      <c r="H60" s="9"/>
       <c r="I60" s="9">
         <v>1</v>
       </c>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
     </row>
     <row r="61" spans="1:11" ht="15.75">
-      <c r="A61" s="38"/>
-      <c r="B61" s="38"/>
-      <c r="C61" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A61" s="39"/>
+      <c r="B61" s="39"/>
+      <c r="C61" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
-      <c r="H61" s="9">
-        <v>2</v>
-      </c>
+      <c r="H61" s="9"/>
       <c r="I61" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="15.75">
-      <c r="A62" s="38"/>
-      <c r="B62" s="38"/>
-      <c r="C62" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A62" s="39"/>
+      <c r="B62" s="39"/>
+      <c r="C62" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
-      <c r="H62" s="9">
-        <v>3</v>
-      </c>
-      <c r="I62" s="9">
-        <v>1</v>
-      </c>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
     </row>
     <row r="63" spans="1:11" ht="15.75">
-      <c r="A63" s="38"/>
-      <c r="B63" s="38"/>
-      <c r="C63" s="21" t="s">
-        <v>42</v>
+      <c r="A63" s="39"/>
+      <c r="B63" s="39"/>
+      <c r="C63" s="19" t="s">
+        <v>92</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
-      <c r="F63" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H63" s="9">
+        <v>3</v>
+      </c>
+      <c r="I63" s="9">
         <v>2</v>
       </c>
-      <c r="I63" s="9">
-        <v>1</v>
-      </c>
     </row>
     <row r="64" spans="1:11" ht="15.75">
-      <c r="A64" s="38"/>
-      <c r="B64" s="38"/>
-      <c r="C64" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D64" s="1"/>
+      <c r="A64" s="39"/>
+      <c r="B64" s="39"/>
+      <c r="C64" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
-      <c r="G64" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="G64" s="1"/>
       <c r="H64" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I64" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="15.75">
-      <c r="A65" s="38"/>
-      <c r="B65" s="38"/>
-      <c r="C65" s="22" t="s">
-        <v>43</v>
+      <c r="A65" s="39"/>
+      <c r="B65" s="39"/>
+      <c r="C65" s="19" t="s">
+        <v>94</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
+      <c r="F65" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G65" s="1"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="9"/>
+      <c r="H65" s="9">
+        <v>2</v>
+      </c>
+      <c r="I65" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="66" spans="1:9" ht="15.75">
-      <c r="A66" s="38"/>
-      <c r="B66" s="38"/>
-      <c r="C66" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E66" s="1"/>
+      <c r="A66" s="39"/>
+      <c r="B66" s="39"/>
+      <c r="C66" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I66" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="15.75">
-      <c r="A67" s="38"/>
-      <c r="B67" s="38"/>
-      <c r="C67" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A67" s="39"/>
+      <c r="B67" s="39"/>
+      <c r="C67" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
-      <c r="H67" s="9">
-        <v>1</v>
-      </c>
-      <c r="I67" s="9">
-        <v>1</v>
-      </c>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9"/>
     </row>
     <row r="68" spans="1:9" ht="15.75">
-      <c r="A68" s="38"/>
-      <c r="B68" s="38"/>
-      <c r="C68" s="23" t="s">
-        <v>46</v>
+      <c r="A68" s="39"/>
+      <c r="B68" s="39"/>
+      <c r="C68" s="20" t="s">
+        <v>39</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="9"/>
-      <c r="I68" s="9"/>
+      <c r="G68" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H68" s="9">
+        <v>3</v>
+      </c>
+      <c r="I68" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="69" spans="1:9" ht="15.75">
-      <c r="A69" s="38"/>
-      <c r="B69" s="38"/>
-      <c r="C69" s="24" t="s">
-        <v>136</v>
+      <c r="A69" s="39"/>
+      <c r="B69" s="39"/>
+      <c r="C69" s="20" t="s">
+        <v>40</v>
       </c>
       <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
+      <c r="E69" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="F69" s="1"/>
-      <c r="G69" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="G69" s="1"/>
       <c r="H69" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I69" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="15.75">
-      <c r="A70" s="38"/>
-      <c r="B70" s="38"/>
-      <c r="C70" s="24" t="s">
-        <v>83</v>
+      <c r="A70" s="39"/>
+      <c r="B70" s="39"/>
+      <c r="C70" s="20" t="s">
+        <v>41</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>7</v>
@@ -2506,17 +2562,17 @@
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I70" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="15.75">
-      <c r="A71" s="38"/>
-      <c r="B71" s="38"/>
-      <c r="C71" s="24" t="s">
-        <v>76</v>
+      <c r="A71" s="39"/>
+      <c r="B71" s="39"/>
+      <c r="C71" s="21" t="s">
+        <v>42</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -2525,17 +2581,17 @@
       </c>
       <c r="G71" s="1"/>
       <c r="H71" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I71" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="15.75">
-      <c r="A72" s="38"/>
-      <c r="B72" s="38"/>
-      <c r="C72" s="24" t="s">
-        <v>77</v>
+      <c r="A72" s="39"/>
+      <c r="B72" s="39"/>
+      <c r="C72" s="17" t="s">
+        <v>17</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -2551,29 +2607,23 @@
       </c>
     </row>
     <row r="73" spans="1:9" ht="15.75">
-      <c r="A73" s="38"/>
-      <c r="B73" s="38"/>
-      <c r="C73" s="24" t="s">
-        <v>61</v>
+      <c r="A73" s="39"/>
+      <c r="B73" s="39"/>
+      <c r="C73" s="22" t="s">
+        <v>43</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
-      <c r="F73" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="F73" s="1"/>
       <c r="G73" s="1"/>
-      <c r="H73" s="9">
-        <v>1</v>
-      </c>
-      <c r="I73" s="9">
-        <v>1</v>
-      </c>
+      <c r="H73" s="9"/>
+      <c r="I73" s="9"/>
     </row>
     <row r="74" spans="1:9" ht="15.75">
-      <c r="A74" s="38"/>
-      <c r="B74" s="38"/>
-      <c r="C74" s="24" t="s">
-        <v>60</v>
+      <c r="A74" s="39"/>
+      <c r="B74" s="39"/>
+      <c r="C74" s="21" t="s">
+        <v>44</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>7</v>
@@ -2589,10 +2639,10 @@
       </c>
     </row>
     <row r="75" spans="1:9" ht="15.75">
-      <c r="A75" s="38"/>
-      <c r="B75" s="38"/>
-      <c r="C75" s="24" t="s">
-        <v>75</v>
+      <c r="A75" s="39"/>
+      <c r="B75" s="39"/>
+      <c r="C75" s="21" t="s">
+        <v>45</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>7</v>
@@ -2608,36 +2658,30 @@
       </c>
     </row>
     <row r="76" spans="1:9" ht="15.75">
-      <c r="A76" s="38"/>
-      <c r="B76" s="38"/>
-      <c r="C76" s="24" t="s">
-        <v>62</v>
+      <c r="A76" s="39"/>
+      <c r="B76" s="39"/>
+      <c r="C76" s="23" t="s">
+        <v>46</v>
       </c>
       <c r="D76" s="1"/>
-      <c r="E76" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
-      <c r="H76" s="9">
-        <v>1</v>
-      </c>
-      <c r="I76" s="9">
-        <v>1</v>
-      </c>
+      <c r="H76" s="9"/>
+      <c r="I76" s="9"/>
     </row>
     <row r="77" spans="1:9" ht="15.75">
-      <c r="A77" s="38"/>
-      <c r="B77" s="38"/>
+      <c r="A77" s="39"/>
+      <c r="B77" s="39"/>
       <c r="C77" s="24" t="s">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
-      <c r="F77" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H77" s="9">
         <v>1</v>
       </c>
@@ -2646,16 +2690,16 @@
       </c>
     </row>
     <row r="78" spans="1:9" ht="15.75">
-      <c r="A78" s="38"/>
-      <c r="B78" s="38"/>
+      <c r="A78" s="39"/>
+      <c r="B78" s="39"/>
       <c r="C78" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="D78" s="1"/>
+        <v>83</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E78" s="1"/>
-      <c r="F78" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="F78" s="1"/>
       <c r="G78" s="1"/>
       <c r="H78" s="9">
         <v>1</v>
@@ -2665,10 +2709,10 @@
       </c>
     </row>
     <row r="79" spans="1:9" ht="15.75">
-      <c r="A79" s="38"/>
-      <c r="B79" s="38"/>
+      <c r="A79" s="39"/>
+      <c r="B79" s="39"/>
       <c r="C79" s="24" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -2684,17 +2728,17 @@
       </c>
     </row>
     <row r="80" spans="1:9" ht="15.75">
-      <c r="A80" s="38"/>
-      <c r="B80" s="38"/>
+      <c r="A80" s="39"/>
+      <c r="B80" s="39"/>
       <c r="C80" s="24" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
-      <c r="F80" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H80" s="9">
         <v>1</v>
       </c>
@@ -2703,10 +2747,10 @@
       </c>
     </row>
     <row r="81" spans="1:9" ht="15.75">
-      <c r="A81" s="38"/>
-      <c r="B81" s="38"/>
+      <c r="A81" s="39"/>
+      <c r="B81" s="39"/>
       <c r="C81" s="24" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -2722,99 +2766,111 @@
       </c>
     </row>
     <row r="82" spans="1:9" ht="15.75">
-      <c r="A82" s="38"/>
-      <c r="B82" s="38"/>
+      <c r="A82" s="39"/>
+      <c r="B82" s="39"/>
       <c r="C82" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
-      <c r="H82" s="9"/>
+      <c r="H82" s="9">
+        <v>1</v>
+      </c>
       <c r="I82" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="15.75">
-      <c r="A83" s="38"/>
-      <c r="B83" s="38"/>
+      <c r="A83" s="39"/>
+      <c r="B83" s="39"/>
       <c r="C83" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
-      <c r="H83" s="9"/>
+      <c r="H83" s="9">
+        <v>1</v>
+      </c>
       <c r="I83" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="15.75">
-      <c r="A84" s="38"/>
-      <c r="B84" s="38"/>
-      <c r="C84" s="21" t="s">
-        <v>47</v>
+      <c r="A84" s="39"/>
+      <c r="B84" s="39"/>
+      <c r="C84" s="24" t="s">
+        <v>62</v>
       </c>
       <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
+      <c r="E84" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="F84" s="1"/>
-      <c r="G84" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H84" s="9"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="9">
+        <v>1</v>
+      </c>
       <c r="I84" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="15.75">
-      <c r="A85" s="38"/>
-      <c r="B85" s="38"/>
-      <c r="C85" s="23" t="s">
-        <v>48</v>
+      <c r="A85" s="39"/>
+      <c r="B85" s="39"/>
+      <c r="C85" s="24" t="s">
+        <v>80</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
+      <c r="F85" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G85" s="1"/>
-      <c r="H85" s="9"/>
-      <c r="I85" s="9"/>
+      <c r="H85" s="9">
+        <v>1</v>
+      </c>
+      <c r="I85" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="86" spans="1:9" ht="15.75">
-      <c r="A86" s="38"/>
-      <c r="B86" s="38"/>
+      <c r="A86" s="39"/>
+      <c r="B86" s="39"/>
       <c r="C86" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="D86" s="1"/>
       <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
+      <c r="F86" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G86" s="1"/>
       <c r="H86" s="9">
         <v>1</v>
       </c>
       <c r="I86" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="15.75">
-      <c r="A87" s="38"/>
-      <c r="B87" s="38"/>
+      <c r="A87" s="39"/>
+      <c r="B87" s="39"/>
       <c r="C87" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="D87" s="1"/>
       <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
+      <c r="F87" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G87" s="1"/>
       <c r="H87" s="9">
         <v>1</v>
@@ -2824,20 +2880,16 @@
       </c>
     </row>
     <row r="88" spans="1:9" ht="15.75">
-      <c r="A88" s="39">
-        <v>5</v>
-      </c>
-      <c r="B88" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="C88" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A88" s="39"/>
+      <c r="B88" s="39"/>
+      <c r="C88" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D88" s="1"/>
       <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
+      <c r="F88" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G88" s="1"/>
       <c r="H88" s="9">
         <v>1</v>
@@ -2848,124 +2900,134 @@
     </row>
     <row r="89" spans="1:9" ht="15.75">
       <c r="A89" s="39"/>
-      <c r="B89" s="38"/>
-      <c r="C89" s="10" t="s">
-        <v>97</v>
+      <c r="B89" s="39"/>
+      <c r="C89" s="24" t="s">
+        <v>82</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
+      <c r="F89" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G89" s="1"/>
-      <c r="H89" s="9"/>
-      <c r="I89" s="9"/>
+      <c r="H89" s="9">
+        <v>1</v>
+      </c>
+      <c r="I89" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="90" spans="1:9" ht="15.75">
       <c r="A90" s="39"/>
-      <c r="B90" s="38"/>
-      <c r="C90" s="25" t="s">
-        <v>52</v>
+      <c r="B90" s="39"/>
+      <c r="C90" s="24" t="s">
+        <v>138</v>
       </c>
       <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
+      <c r="E90" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
       <c r="H90" s="9"/>
-      <c r="I90" s="9"/>
+      <c r="I90" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="91" spans="1:9" ht="15.75">
       <c r="A91" s="39"/>
-      <c r="B91" s="38"/>
-      <c r="C91" s="26" t="s">
-        <v>54</v>
+      <c r="B91" s="39"/>
+      <c r="C91" s="24" t="s">
+        <v>137</v>
       </c>
       <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
+      <c r="E91" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="F91" s="1"/>
-      <c r="G91" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H91" s="9">
-        <v>1</v>
-      </c>
+      <c r="G91" s="1"/>
+      <c r="H91" s="9"/>
       <c r="I91" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="15.75">
       <c r="A92" s="39"/>
-      <c r="B92" s="38"/>
-      <c r="C92" s="26" t="s">
-        <v>55</v>
+      <c r="B92" s="39"/>
+      <c r="C92" s="21" t="s">
+        <v>47</v>
       </c>
       <c r="D92" s="1"/>
-      <c r="E92" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="E92" s="1"/>
       <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
-      <c r="H92" s="9">
-        <v>1</v>
-      </c>
+      <c r="G92" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H92" s="9"/>
       <c r="I92" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="15.75">
       <c r="A93" s="39"/>
-      <c r="B93" s="38"/>
-      <c r="C93" s="26" t="s">
-        <v>56</v>
+      <c r="B93" s="39"/>
+      <c r="C93" s="23" t="s">
+        <v>48</v>
       </c>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
-      <c r="F93" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="F93" s="1"/>
       <c r="G93" s="1"/>
-      <c r="H93" s="9">
-        <v>1</v>
-      </c>
-      <c r="I93" s="9">
-        <v>1</v>
-      </c>
+      <c r="H93" s="9"/>
+      <c r="I93" s="9"/>
     </row>
     <row r="94" spans="1:9" ht="15.75">
       <c r="A94" s="39"/>
-      <c r="B94" s="38"/>
+      <c r="B94" s="39"/>
       <c r="C94" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="D94" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
-      <c r="G94" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="G94" s="1"/>
       <c r="H94" s="9">
         <v>1</v>
       </c>
       <c r="I94" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="15.75">
       <c r="A95" s="39"/>
-      <c r="B95" s="38"/>
+      <c r="B95" s="39"/>
       <c r="C95" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="D95" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
-      <c r="H95" s="9"/>
-      <c r="I95" s="9"/>
+      <c r="H95" s="9">
+        <v>1</v>
+      </c>
+      <c r="I95" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="96" spans="1:9" ht="15.75">
-      <c r="A96" s="39"/>
-      <c r="B96" s="38"/>
-      <c r="C96" s="31" t="s">
-        <v>150</v>
+      <c r="A96" s="38">
+        <v>5</v>
+      </c>
+      <c r="B96" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>7</v>
@@ -2973,118 +3035,120 @@
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
-      <c r="H96" s="9"/>
+      <c r="H96" s="9">
+        <v>1</v>
+      </c>
       <c r="I96" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="15.75">
-      <c r="A97" s="39"/>
-      <c r="B97" s="38"/>
-      <c r="C97" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A97" s="38"/>
+      <c r="B97" s="39"/>
+      <c r="C97" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
       <c r="H97" s="9"/>
-      <c r="I97" s="9">
-        <v>2</v>
-      </c>
+      <c r="I97" s="9"/>
     </row>
     <row r="98" spans="1:9" ht="15.75">
-      <c r="A98" s="39"/>
-      <c r="B98" s="38"/>
-      <c r="C98" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A98" s="38"/>
+      <c r="B98" s="39"/>
+      <c r="C98" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
       <c r="H98" s="9"/>
-      <c r="I98" s="9">
-        <v>2</v>
-      </c>
+      <c r="I98" s="9"/>
     </row>
     <row r="99" spans="1:9" ht="15.75">
-      <c r="A99" s="39"/>
-      <c r="B99" s="38"/>
-      <c r="C99" s="27" t="s">
-        <v>59</v>
+      <c r="A99" s="38"/>
+      <c r="B99" s="39"/>
+      <c r="C99" s="26" t="s">
+        <v>54</v>
       </c>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
-      <c r="G99" s="1"/>
-      <c r="H99" s="9"/>
-      <c r="I99" s="9"/>
+      <c r="G99" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H99" s="9">
+        <v>1</v>
+      </c>
+      <c r="I99" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="100" spans="1:9" ht="15.75">
-      <c r="A100" s="39"/>
-      <c r="B100" s="38"/>
-      <c r="C100" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E100" s="1"/>
+      <c r="A100" s="38"/>
+      <c r="B100" s="39"/>
+      <c r="C100" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
       <c r="H100" s="9">
         <v>1</v>
       </c>
       <c r="I100" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="15.75">
-      <c r="A101" s="39"/>
-      <c r="B101" s="38"/>
-      <c r="C101" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A101" s="38"/>
+      <c r="B101" s="39"/>
+      <c r="C101" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D101" s="1"/>
       <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
+      <c r="F101" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G101" s="1"/>
-      <c r="H101" s="9"/>
+      <c r="H101" s="9">
+        <v>1</v>
+      </c>
       <c r="I101" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="15.75">
-      <c r="A102" s="39"/>
-      <c r="B102" s="38"/>
-      <c r="C102" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A102" s="38"/>
+      <c r="B102" s="39"/>
+      <c r="C102" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
-      <c r="G102" s="1"/>
+      <c r="G102" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H102" s="9">
         <v>1</v>
       </c>
       <c r="I102" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="15.75">
-      <c r="A103" s="39"/>
-      <c r="B103" s="38"/>
-      <c r="C103" s="27" t="s">
-        <v>63</v>
+      <c r="A103" s="38"/>
+      <c r="B103" s="39"/>
+      <c r="C103" s="24" t="s">
+        <v>58</v>
       </c>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
@@ -3094,282 +3158,274 @@
       <c r="I103" s="9"/>
     </row>
     <row r="104" spans="1:9" ht="15.75">
-      <c r="A104" s="39"/>
-      <c r="B104" s="38"/>
-      <c r="C104" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="D104" s="1"/>
+      <c r="A104" s="38"/>
+      <c r="B104" s="39"/>
+      <c r="C104" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E104" s="1"/>
-      <c r="F104" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="F104" s="1"/>
       <c r="G104" s="1"/>
-      <c r="H104" s="9">
-        <v>1</v>
-      </c>
+      <c r="H104" s="9"/>
       <c r="I104" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="15.75">
-      <c r="A105" s="39"/>
-      <c r="B105" s="38"/>
-      <c r="C105" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="D105" s="1"/>
-      <c r="E105" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A105" s="38"/>
+      <c r="B105" s="39"/>
+      <c r="C105" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E105" s="1"/>
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
-      <c r="H105" s="9">
-        <v>1</v>
-      </c>
+      <c r="H105" s="9"/>
       <c r="I105" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="15.75">
-      <c r="A106" s="39"/>
-      <c r="B106" s="38"/>
-      <c r="C106" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="D106" s="1"/>
+      <c r="A106" s="38"/>
+      <c r="B106" s="39"/>
+      <c r="C106" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E106" s="1"/>
-      <c r="F106" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="F106" s="1"/>
       <c r="G106" s="1"/>
-      <c r="H106" s="9">
-        <v>1</v>
-      </c>
+      <c r="H106" s="9"/>
       <c r="I106" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="15.75">
-      <c r="A107" s="39"/>
-      <c r="B107" s="38"/>
-      <c r="C107" s="28" t="s">
-        <v>144</v>
+      <c r="A107" s="38"/>
+      <c r="B107" s="39"/>
+      <c r="C107" s="27" t="s">
+        <v>59</v>
       </c>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
-      <c r="F107" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="F107" s="1"/>
       <c r="G107" s="1"/>
-      <c r="H107" s="9">
-        <v>1</v>
-      </c>
-      <c r="I107" s="9">
-        <v>1</v>
-      </c>
+      <c r="H107" s="9"/>
+      <c r="I107" s="9"/>
     </row>
     <row r="108" spans="1:9" ht="15.75">
-      <c r="A108" s="39"/>
-      <c r="B108" s="38"/>
+      <c r="A108" s="38"/>
+      <c r="B108" s="39"/>
       <c r="C108" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="D108" s="1"/>
+        <v>153</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E108" s="1"/>
-      <c r="F108" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="F108" s="1"/>
       <c r="G108" s="1"/>
       <c r="H108" s="9">
         <v>1</v>
       </c>
       <c r="I108" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="15.75">
-      <c r="A109" s="39"/>
-      <c r="B109" s="38"/>
-      <c r="C109" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="D109" s="1"/>
+      <c r="A109" s="38"/>
+      <c r="B109" s="39"/>
+      <c r="C109" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
       <c r="H109" s="9"/>
-      <c r="I109" s="9"/>
+      <c r="I109" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="110" spans="1:9" ht="15.75">
-      <c r="A110" s="39"/>
-      <c r="B110" s="38"/>
-      <c r="C110" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="D110" s="1"/>
-      <c r="E110" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A110" s="38"/>
+      <c r="B110" s="39"/>
+      <c r="C110" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E110" s="1"/>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
-      <c r="H110" s="9"/>
+      <c r="H110" s="9">
+        <v>1</v>
+      </c>
       <c r="I110" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="15.75">
-      <c r="A111" s="39"/>
-      <c r="B111" s="38"/>
-      <c r="C111" s="26" t="s">
-        <v>64</v>
+      <c r="A111" s="38"/>
+      <c r="B111" s="39"/>
+      <c r="C111" s="27" t="s">
+        <v>63</v>
       </c>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
-      <c r="F111" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="F111" s="1"/>
       <c r="G111" s="1"/>
-      <c r="H111" s="9">
-        <v>1</v>
-      </c>
-      <c r="I111" s="9">
-        <v>2</v>
-      </c>
+      <c r="H111" s="9"/>
+      <c r="I111" s="9"/>
     </row>
     <row r="112" spans="1:9" ht="15.75">
-      <c r="A112" s="39"/>
-      <c r="B112" s="38"/>
-      <c r="C112" s="26" t="s">
-        <v>65</v>
+      <c r="A112" s="38"/>
+      <c r="B112" s="39"/>
+      <c r="C112" s="28" t="s">
+        <v>141</v>
       </c>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
-      <c r="F112" s="1"/>
-      <c r="G112" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="F112" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G112" s="1"/>
       <c r="H112" s="9">
         <v>1</v>
       </c>
       <c r="I112" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="15.75">
-      <c r="A113" s="39"/>
-      <c r="B113" s="38"/>
-      <c r="C113" s="26" t="s">
-        <v>66</v>
+      <c r="A113" s="38"/>
+      <c r="B113" s="39"/>
+      <c r="C113" s="28" t="s">
+        <v>142</v>
       </c>
       <c r="D113" s="1"/>
-      <c r="E113" s="1"/>
+      <c r="E113" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="F113" s="1"/>
-      <c r="G113" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="G113" s="1"/>
       <c r="H113" s="9">
         <v>1</v>
       </c>
       <c r="I113" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="15.75">
-      <c r="A114" s="39"/>
-      <c r="B114" s="38"/>
-      <c r="C114" s="26" t="s">
-        <v>71</v>
+      <c r="A114" s="38"/>
+      <c r="B114" s="39"/>
+      <c r="C114" s="28" t="s">
+        <v>143</v>
       </c>
       <c r="D114" s="1"/>
-      <c r="E114" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G114" s="1"/>
       <c r="H114" s="9">
         <v>1</v>
       </c>
       <c r="I114" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="15.75">
-      <c r="A115" s="39"/>
-      <c r="B115" s="38"/>
-      <c r="C115" s="10" t="s">
-        <v>51</v>
+      <c r="A115" s="38"/>
+      <c r="B115" s="39"/>
+      <c r="C115" s="28" t="s">
+        <v>144</v>
       </c>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
-      <c r="F115" s="1"/>
+      <c r="F115" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G115" s="1"/>
-      <c r="H115" s="9"/>
-      <c r="I115" s="9"/>
+      <c r="H115" s="9">
+        <v>1</v>
+      </c>
+      <c r="I115" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="116" spans="1:9" ht="15.75">
-      <c r="A116" s="39"/>
-      <c r="B116" s="38"/>
-      <c r="C116" s="19" t="s">
-        <v>67</v>
+      <c r="A116" s="38"/>
+      <c r="B116" s="39"/>
+      <c r="C116" s="28" t="s">
+        <v>145</v>
       </c>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
-      <c r="F116" s="1"/>
-      <c r="G116" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H116" s="9"/>
+      <c r="F116" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G116" s="1"/>
+      <c r="H116" s="9">
+        <v>1</v>
+      </c>
       <c r="I116" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="15.75">
-      <c r="A117" s="39"/>
-      <c r="B117" s="38"/>
-      <c r="C117" s="19" t="s">
-        <v>149</v>
+      <c r="A117" s="38"/>
+      <c r="B117" s="39"/>
+      <c r="C117" s="25" t="s">
+        <v>53</v>
       </c>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
-      <c r="G117" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="G117" s="1"/>
       <c r="H117" s="9"/>
-      <c r="I117" s="9">
-        <v>1</v>
-      </c>
+      <c r="I117" s="9"/>
     </row>
     <row r="118" spans="1:9" ht="15.75">
-      <c r="A118" s="39"/>
-      <c r="B118" s="38"/>
-      <c r="C118" s="19" t="s">
-        <v>147</v>
+      <c r="A118" s="38"/>
+      <c r="B118" s="39"/>
+      <c r="C118" s="29" t="s">
+        <v>146</v>
       </c>
       <c r="D118" s="1"/>
-      <c r="E118" s="1"/>
+      <c r="E118" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="F118" s="1"/>
-      <c r="G118" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="G118" s="1"/>
       <c r="H118" s="9"/>
       <c r="I118" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="15.75">
-      <c r="A119" s="39"/>
-      <c r="B119" s="38"/>
-      <c r="C119" s="20" t="s">
-        <v>68</v>
+      <c r="A119" s="38"/>
+      <c r="B119" s="39"/>
+      <c r="C119" s="26" t="s">
+        <v>64</v>
       </c>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
-      <c r="F119" s="1"/>
-      <c r="G119" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="F119" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G119" s="1"/>
       <c r="H119" s="9">
         <v>1</v>
       </c>
@@ -3378,10 +3434,10 @@
       </c>
     </row>
     <row r="120" spans="1:9" ht="15.75">
-      <c r="A120" s="39"/>
-      <c r="B120" s="38"/>
-      <c r="C120" s="20" t="s">
-        <v>148</v>
+      <c r="A120" s="38"/>
+      <c r="B120" s="39"/>
+      <c r="C120" s="26" t="s">
+        <v>65</v>
       </c>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
@@ -3389,143 +3445,139 @@
       <c r="G120" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H120" s="9"/>
+      <c r="H120" s="9">
+        <v>1</v>
+      </c>
       <c r="I120" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="15.75">
-      <c r="A121" s="39"/>
-      <c r="B121" s="38"/>
-      <c r="C121" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A121" s="38"/>
+      <c r="B121" s="39"/>
+      <c r="C121" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D121" s="1"/>
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
-      <c r="G121" s="1"/>
+      <c r="G121" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H121" s="9">
         <v>1</v>
       </c>
       <c r="I121" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="15.75">
-      <c r="A122" s="39"/>
-      <c r="B122" s="38"/>
-      <c r="C122" s="20" t="s">
-        <v>72</v>
+      <c r="A122" s="38"/>
+      <c r="B122" s="39"/>
+      <c r="C122" s="26" t="s">
+        <v>71</v>
       </c>
       <c r="D122" s="1"/>
-      <c r="E122" s="1"/>
-      <c r="F122" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="E122" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F122" s="1"/>
       <c r="G122" s="1"/>
       <c r="H122" s="9">
         <v>1</v>
       </c>
       <c r="I122" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="15.75">
-      <c r="A123" s="39"/>
-      <c r="B123" s="38"/>
-      <c r="C123" s="20" t="s">
-        <v>69</v>
+      <c r="A123" s="38"/>
+      <c r="B123" s="39"/>
+      <c r="C123" s="10" t="s">
+        <v>51</v>
       </c>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
-      <c r="G123" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H123" s="9">
-        <v>1</v>
-      </c>
-      <c r="I123" s="9">
-        <v>2</v>
-      </c>
+      <c r="G123" s="1"/>
+      <c r="H123" s="9"/>
+      <c r="I123" s="9"/>
     </row>
     <row r="124" spans="1:9" ht="15.75">
-      <c r="A124" s="39"/>
-      <c r="B124" s="38"/>
-      <c r="C124" s="18" t="s">
-        <v>98</v>
+      <c r="A124" s="38"/>
+      <c r="B124" s="39"/>
+      <c r="C124" s="19" t="s">
+        <v>67</v>
       </c>
       <c r="D124" s="1"/>
-      <c r="E124" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="E124" s="1"/>
       <c r="F124" s="1"/>
-      <c r="G124" s="1"/>
-      <c r="H124" s="9">
-        <v>1</v>
-      </c>
+      <c r="G124" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H124" s="9"/>
       <c r="I124" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="15.75">
-      <c r="A125" s="39"/>
-      <c r="B125" s="38"/>
-      <c r="C125" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A125" s="38"/>
+      <c r="B125" s="39"/>
+      <c r="C125" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="D125" s="1"/>
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
-      <c r="G125" s="1"/>
-      <c r="H125" s="9">
-        <v>2</v>
-      </c>
+      <c r="G125" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H125" s="9"/>
       <c r="I125" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="15.75">
-      <c r="A126" s="39"/>
-      <c r="B126" s="38"/>
-      <c r="C126" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A126" s="38"/>
+      <c r="B126" s="39"/>
+      <c r="C126" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="D126" s="1"/>
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
-      <c r="G126" s="1"/>
-      <c r="H126" s="9">
-        <v>1</v>
-      </c>
+      <c r="G126" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H126" s="9"/>
       <c r="I126" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="15.75">
-      <c r="A127" s="39"/>
-      <c r="B127" s="38"/>
-      <c r="C127" s="32" t="s">
-        <v>18</v>
+      <c r="A127" s="38"/>
+      <c r="B127" s="39"/>
+      <c r="C127" s="20" t="s">
+        <v>68</v>
       </c>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
-      <c r="G127" s="1"/>
-      <c r="H127" s="9"/>
-      <c r="I127" s="9"/>
+      <c r="G127" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H127" s="9">
+        <v>1</v>
+      </c>
+      <c r="I127" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="128" spans="1:9" ht="15.75">
-      <c r="A128" s="39"/>
-      <c r="B128" s="38"/>
+      <c r="A128" s="38"/>
+      <c r="B128" s="39"/>
       <c r="C128" s="20" t="s">
-        <v>68</v>
+        <v>148</v>
       </c>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
@@ -3533,16 +3585,14 @@
       <c r="G128" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H128" s="9">
-        <v>1</v>
-      </c>
+      <c r="H128" s="9"/>
       <c r="I128" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="15.75">
-      <c r="A129" s="39"/>
-      <c r="B129" s="38"/>
+      <c r="A129" s="38"/>
+      <c r="B129" s="39"/>
       <c r="C129" s="20" t="s">
         <v>73</v>
       </c>
@@ -3556,12 +3606,12 @@
         <v>1</v>
       </c>
       <c r="I129" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="15.75">
-      <c r="A130" s="39"/>
-      <c r="B130" s="38"/>
+      <c r="A130" s="38"/>
+      <c r="B130" s="39"/>
       <c r="C130" s="20" t="s">
         <v>72</v>
       </c>
@@ -3575,14 +3625,14 @@
         <v>1</v>
       </c>
       <c r="I130" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="15.75">
-      <c r="A131" s="39"/>
-      <c r="B131" s="38"/>
+      <c r="A131" s="38"/>
+      <c r="B131" s="39"/>
       <c r="C131" s="20" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
@@ -3594,20 +3644,20 @@
         <v>1</v>
       </c>
       <c r="I131" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="15.75">
-      <c r="A132" s="39"/>
-      <c r="B132" s="38"/>
-      <c r="C132" s="20" t="s">
-        <v>61</v>
+      <c r="A132" s="38"/>
+      <c r="B132" s="39"/>
+      <c r="C132" s="18" t="s">
+        <v>98</v>
       </c>
       <c r="D132" s="1"/>
-      <c r="E132" s="1"/>
-      <c r="F132" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="E132" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F132" s="1"/>
       <c r="G132" s="1"/>
       <c r="H132" s="9">
         <v>1</v>
@@ -3617,35 +3667,35 @@
       </c>
     </row>
     <row r="133" spans="1:9" ht="15.75">
-      <c r="A133" s="39"/>
-      <c r="B133" s="38"/>
-      <c r="C133" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D133" s="1"/>
-      <c r="E133" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A133" s="38"/>
+      <c r="B133" s="39"/>
+      <c r="C133" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E133" s="1"/>
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
       <c r="H133" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I133" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="15.75">
-      <c r="A134" s="39"/>
-      <c r="B134" s="38"/>
-      <c r="C134" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D134" s="1"/>
+      <c r="A134" s="38"/>
+      <c r="B134" s="39"/>
+      <c r="C134" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E134" s="1"/>
-      <c r="F134" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="F134" s="1"/>
       <c r="G134" s="1"/>
       <c r="H134" s="9">
         <v>1</v>
@@ -3655,36 +3705,30 @@
       </c>
     </row>
     <row r="135" spans="1:9" ht="15.75">
-      <c r="A135" s="39"/>
-      <c r="B135" s="38"/>
-      <c r="C135" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A135" s="38"/>
+      <c r="B135" s="39"/>
+      <c r="C135" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D135" s="1"/>
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
-      <c r="H135" s="9">
-        <v>1</v>
-      </c>
-      <c r="I135" s="9">
-        <v>1</v>
-      </c>
+      <c r="H135" s="9"/>
+      <c r="I135" s="9"/>
     </row>
     <row r="136" spans="1:9" ht="15.75">
-      <c r="A136" s="39"/>
-      <c r="B136" s="38"/>
+      <c r="A136" s="38"/>
+      <c r="B136" s="39"/>
       <c r="C136" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="D136" s="1"/>
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
-      <c r="G136" s="1"/>
+      <c r="G136" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H136" s="9">
         <v>1</v>
       </c>
@@ -3693,15 +3737,15 @@
       </c>
     </row>
     <row r="137" spans="1:9" ht="15.75">
-      <c r="A137" s="39"/>
-      <c r="B137" s="38"/>
+      <c r="A137" s="38"/>
+      <c r="B137" s="39"/>
       <c r="C137" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="D137" s="1"/>
-      <c r="E137" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E137" s="1"/>
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
       <c r="H137" s="9">
@@ -3712,10 +3756,10 @@
       </c>
     </row>
     <row r="138" spans="1:9" ht="15.75">
-      <c r="A138" s="39"/>
-      <c r="B138" s="38"/>
+      <c r="A138" s="38"/>
+      <c r="B138" s="39"/>
       <c r="C138" s="20" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
@@ -3731,30 +3775,36 @@
       </c>
     </row>
     <row r="139" spans="1:9" ht="15.75">
-      <c r="A139" s="39"/>
-      <c r="B139" s="38"/>
-      <c r="C139" s="32" t="s">
-        <v>19</v>
+      <c r="A139" s="38"/>
+      <c r="B139" s="39"/>
+      <c r="C139" s="20" t="s">
+        <v>74</v>
       </c>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
-      <c r="G139" s="1"/>
-      <c r="H139" s="9"/>
-      <c r="I139" s="9"/>
+      <c r="G139" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H139" s="9">
+        <v>1</v>
+      </c>
+      <c r="I139" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="140" spans="1:9" ht="15.75">
-      <c r="A140" s="39"/>
-      <c r="B140" s="38"/>
+      <c r="A140" s="38"/>
+      <c r="B140" s="39"/>
       <c r="C140" s="20" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
-      <c r="F140" s="1"/>
-      <c r="G140" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="F140" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G140" s="1"/>
       <c r="H140" s="9">
         <v>1</v>
       </c>
@@ -3763,15 +3813,15 @@
       </c>
     </row>
     <row r="141" spans="1:9" ht="15.75">
-      <c r="A141" s="39"/>
-      <c r="B141" s="38"/>
+      <c r="A141" s="38"/>
+      <c r="B141" s="39"/>
       <c r="C141" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E141" s="1"/>
+        <v>62</v>
+      </c>
+      <c r="D141" s="1"/>
+      <c r="E141" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
       <c r="H141" s="9">
@@ -3782,10 +3832,10 @@
       </c>
     </row>
     <row r="142" spans="1:9" ht="15.75">
-      <c r="A142" s="39"/>
-      <c r="B142" s="38"/>
+      <c r="A142" s="38"/>
+      <c r="B142" s="39"/>
       <c r="C142" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
@@ -3801,17 +3851,17 @@
       </c>
     </row>
     <row r="143" spans="1:9" ht="15.75">
-      <c r="A143" s="39"/>
-      <c r="B143" s="38"/>
+      <c r="A143" s="38"/>
+      <c r="B143" s="39"/>
       <c r="C143" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="D143" s="1"/>
+        <v>60</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
-      <c r="G143" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="G143" s="1"/>
       <c r="H143" s="9">
         <v>1</v>
       </c>
@@ -3820,16 +3870,16 @@
       </c>
     </row>
     <row r="144" spans="1:9" ht="15.75">
-      <c r="A144" s="39"/>
-      <c r="B144" s="38"/>
+      <c r="A144" s="38"/>
+      <c r="B144" s="39"/>
       <c r="C144" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="D144" s="1"/>
+        <v>75</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E144" s="1"/>
-      <c r="F144" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="F144" s="1"/>
       <c r="G144" s="1"/>
       <c r="H144" s="9">
         <v>1</v>
@@ -3839,10 +3889,10 @@
       </c>
     </row>
     <row r="145" spans="1:9" ht="15.75">
-      <c r="A145" s="39"/>
-      <c r="B145" s="38"/>
+      <c r="A145" s="38"/>
+      <c r="B145" s="39"/>
       <c r="C145" s="20" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D145" s="1"/>
       <c r="E145" s="1" t="s">
@@ -3858,10 +3908,10 @@
       </c>
     </row>
     <row r="146" spans="1:9" ht="15.75">
-      <c r="A146" s="39"/>
-      <c r="B146" s="38"/>
+      <c r="A146" s="38"/>
+      <c r="B146" s="39"/>
       <c r="C146" s="20" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
@@ -3877,36 +3927,30 @@
       </c>
     </row>
     <row r="147" spans="1:9" ht="15.75">
-      <c r="A147" s="39"/>
-      <c r="B147" s="38"/>
-      <c r="C147" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A147" s="38"/>
+      <c r="B147" s="39"/>
+      <c r="C147" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="D147" s="1"/>
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
-      <c r="H147" s="9">
-        <v>1</v>
-      </c>
-      <c r="I147" s="9">
-        <v>1</v>
-      </c>
+      <c r="H147" s="9"/>
+      <c r="I147" s="9"/>
     </row>
     <row r="148" spans="1:9" ht="15.75">
-      <c r="A148" s="39"/>
-      <c r="B148" s="38"/>
+      <c r="A148" s="38"/>
+      <c r="B148" s="39"/>
       <c r="C148" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="D148" s="1"/>
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
-      <c r="G148" s="1"/>
+      <c r="G148" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H148" s="9">
         <v>1</v>
       </c>
@@ -3915,15 +3959,15 @@
       </c>
     </row>
     <row r="149" spans="1:9" ht="15.75">
-      <c r="A149" s="39"/>
-      <c r="B149" s="38"/>
+      <c r="A149" s="38"/>
+      <c r="B149" s="39"/>
       <c r="C149" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="D149" s="1"/>
-      <c r="E149" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E149" s="1"/>
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
       <c r="H149" s="9">
@@ -3934,10 +3978,10 @@
       </c>
     </row>
     <row r="150" spans="1:9" ht="15.75">
-      <c r="A150" s="39"/>
-      <c r="B150" s="38"/>
+      <c r="A150" s="38"/>
+      <c r="B150" s="39"/>
       <c r="C150" s="20" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
@@ -3953,246 +3997,342 @@
       </c>
     </row>
     <row r="151" spans="1:9" ht="15.75">
-      <c r="A151" s="39">
-        <v>6</v>
-      </c>
-      <c r="B151" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="C151" s="30" t="s">
-        <v>21</v>
+      <c r="A151" s="38"/>
+      <c r="B151" s="39"/>
+      <c r="C151" s="20" t="s">
+        <v>74</v>
       </c>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
-      <c r="F151" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G151" s="1"/>
+      <c r="F151" s="1"/>
+      <c r="G151" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H151" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I151" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="15.75">
-      <c r="A152" s="39"/>
-      <c r="B152" s="38"/>
-      <c r="C152" s="30" t="s">
-        <v>22</v>
+      <c r="A152" s="38"/>
+      <c r="B152" s="39"/>
+      <c r="C152" s="20" t="s">
+        <v>61</v>
       </c>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
-      <c r="F152" s="1"/>
+      <c r="F152" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G152" s="1"/>
-      <c r="H152" s="9"/>
-      <c r="I152" s="9"/>
+      <c r="H152" s="9">
+        <v>1</v>
+      </c>
+      <c r="I152" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="153" spans="1:9" ht="15.75">
-      <c r="A153" s="39"/>
-      <c r="B153" s="38"/>
-      <c r="C153" s="19" t="s">
+      <c r="A153" s="38"/>
+      <c r="B153" s="39"/>
+      <c r="C153" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D153" s="1"/>
+      <c r="E153" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F153" s="1"/>
+      <c r="G153" s="1"/>
+      <c r="H153" s="9">
+        <v>1</v>
+      </c>
+      <c r="I153" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" ht="15.75">
+      <c r="A154" s="38"/>
+      <c r="B154" s="39"/>
+      <c r="C154" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D154" s="1"/>
+      <c r="E154" s="1"/>
+      <c r="F154" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G154" s="1"/>
+      <c r="H154" s="9">
+        <v>1</v>
+      </c>
+      <c r="I154" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" ht="15.75">
+      <c r="A155" s="38"/>
+      <c r="B155" s="39"/>
+      <c r="C155" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E155" s="1"/>
+      <c r="F155" s="1"/>
+      <c r="G155" s="1"/>
+      <c r="H155" s="9">
+        <v>1</v>
+      </c>
+      <c r="I155" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" ht="15.75">
+      <c r="A156" s="38"/>
+      <c r="B156" s="39"/>
+      <c r="C156" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E156" s="1"/>
+      <c r="F156" s="1"/>
+      <c r="G156" s="1"/>
+      <c r="H156" s="9">
+        <v>1</v>
+      </c>
+      <c r="I156" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" ht="15.75">
+      <c r="A157" s="38"/>
+      <c r="B157" s="39"/>
+      <c r="C157" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D157" s="1"/>
+      <c r="E157" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F157" s="1"/>
+      <c r="G157" s="1"/>
+      <c r="H157" s="9">
+        <v>1</v>
+      </c>
+      <c r="I157" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" ht="15.75">
+      <c r="A158" s="38"/>
+      <c r="B158" s="39"/>
+      <c r="C158" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D158" s="1"/>
+      <c r="E158" s="1"/>
+      <c r="F158" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G158" s="1"/>
+      <c r="H158" s="9">
+        <v>1</v>
+      </c>
+      <c r="I158" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" ht="15.75">
+      <c r="A159" s="38">
+        <v>6</v>
+      </c>
+      <c r="B159" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C159" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D159" s="1"/>
+      <c r="E159" s="1"/>
+      <c r="F159" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G159" s="1"/>
+      <c r="H159" s="9">
+        <v>2</v>
+      </c>
+      <c r="I159" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" ht="15.75">
+      <c r="A160" s="38"/>
+      <c r="B160" s="39"/>
+      <c r="C160" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D160" s="1"/>
+      <c r="E160" s="1"/>
+      <c r="F160" s="1"/>
+      <c r="G160" s="1"/>
+      <c r="H160" s="9"/>
+      <c r="I160" s="9"/>
+    </row>
+    <row r="161" spans="1:9" ht="15.75">
+      <c r="A161" s="38"/>
+      <c r="B161" s="39"/>
+      <c r="C161" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="D153" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E153" s="1"/>
-      <c r="F153" s="1"/>
-      <c r="G153" s="8"/>
-      <c r="H153" s="9">
+      <c r="D161" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E161" s="1"/>
+      <c r="F161" s="1"/>
+      <c r="G161" s="8"/>
+      <c r="H161" s="9">
         <v>2</v>
       </c>
-      <c r="I153" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" ht="15.75">
-      <c r="A154" s="39"/>
-      <c r="B154" s="38"/>
-      <c r="C154" s="19" t="s">
+      <c r="I161" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" ht="15.75">
+      <c r="A162" s="38"/>
+      <c r="B162" s="39"/>
+      <c r="C162" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="D154" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E154" s="1"/>
-      <c r="F154" s="1"/>
-      <c r="G154" s="8"/>
-      <c r="H154" s="9">
+      <c r="D162" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E162" s="1"/>
+      <c r="F162" s="1"/>
+      <c r="G162" s="8"/>
+      <c r="H162" s="9">
         <v>2</v>
       </c>
-      <c r="I154" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
-      <c r="A155" s="4"/>
-      <c r="B155" s="4"/>
-      <c r="D155" s="4"/>
-      <c r="E155" s="4"/>
-      <c r="F155" s="4"/>
-      <c r="G155" s="4"/>
-      <c r="I155" s="4"/>
-    </row>
-    <row r="156" spans="1:9" ht="15.75">
-      <c r="A156" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="B156" s="34"/>
-      <c r="C156" s="35"/>
-      <c r="D156" s="4"/>
-      <c r="E156" s="4"/>
-      <c r="F156" s="4"/>
-      <c r="G156" s="4"/>
-      <c r="I156" s="4"/>
-    </row>
-    <row r="157" spans="1:9" ht="15.75">
-      <c r="A157" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B157" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="C157" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D157" s="4"/>
-      <c r="E157" s="4"/>
-      <c r="F157" s="4"/>
-      <c r="G157" s="4"/>
-      <c r="I157" s="4"/>
-    </row>
-    <row r="158" spans="1:9" ht="63">
-      <c r="A158" s="36">
-        <v>1</v>
-      </c>
-      <c r="B158" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="C158" s="8">
-        <v>1</v>
-      </c>
-      <c r="D158" s="4"/>
-      <c r="E158" s="4"/>
-      <c r="F158" s="4"/>
-      <c r="G158" s="4"/>
-      <c r="I158" s="4"/>
-    </row>
-    <row r="159" spans="1:9" ht="31.5">
-      <c r="A159" s="8">
-        <v>2</v>
-      </c>
-      <c r="B159" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="C159" s="8">
-        <v>2</v>
-      </c>
-      <c r="D159" s="4"/>
-      <c r="E159" s="4"/>
-      <c r="F159" s="4"/>
-      <c r="G159" s="4"/>
-      <c r="I159" s="4"/>
-    </row>
-    <row r="160" spans="1:9" ht="31.5">
-      <c r="A160" s="8">
-        <v>3</v>
-      </c>
-      <c r="B160" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="C160" s="8">
-        <v>3</v>
-      </c>
-      <c r="D160" s="4"/>
-      <c r="E160" s="4"/>
-      <c r="F160" s="4"/>
-      <c r="G160" s="4"/>
-      <c r="I160" s="4"/>
-    </row>
-    <row r="161" spans="1:9" ht="31.5">
-      <c r="A161" s="8">
-        <v>4</v>
-      </c>
-      <c r="B161" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="C161" s="8">
-        <v>4</v>
-      </c>
-      <c r="D161" s="4"/>
-      <c r="E161" s="4"/>
-      <c r="F161" s="4"/>
-      <c r="G161" s="4"/>
-      <c r="I161" s="4"/>
-    </row>
-    <row r="162" spans="1:9" ht="31.5">
-      <c r="A162" s="8">
-        <v>5</v>
-      </c>
-      <c r="B162" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="C162" s="8">
-        <v>5</v>
-      </c>
-      <c r="D162" s="4"/>
-      <c r="E162" s="4"/>
-      <c r="F162" s="4"/>
-      <c r="G162" s="4"/>
-      <c r="I162" s="4"/>
+      <c r="I162" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="163" spans="1:9">
+      <c r="A163" s="4"/>
+      <c r="B163" s="4"/>
       <c r="D163" s="4"/>
       <c r="E163" s="4"/>
       <c r="F163" s="4"/>
       <c r="G163" s="4"/>
       <c r="I163" s="4"/>
     </row>
-    <row r="164" spans="1:9">
+    <row r="164" spans="1:9" ht="15.75">
+      <c r="A164" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="B164" s="34"/>
+      <c r="C164" s="35"/>
       <c r="D164" s="4"/>
       <c r="E164" s="4"/>
       <c r="F164" s="4"/>
       <c r="G164" s="4"/>
       <c r="I164" s="4"/>
     </row>
-    <row r="165" spans="1:9">
+    <row r="165" spans="1:9" ht="15.75">
+      <c r="A165" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B165" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="C165" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="D165" s="4"/>
       <c r="E165" s="4"/>
       <c r="F165" s="4"/>
       <c r="G165" s="4"/>
       <c r="I165" s="4"/>
     </row>
-    <row r="166" spans="1:9">
+    <row r="166" spans="1:9" ht="47.25" customHeight="1">
+      <c r="A166" s="36">
+        <v>1</v>
+      </c>
+      <c r="B166" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="C166" s="8">
+        <v>1</v>
+      </c>
       <c r="D166" s="4"/>
       <c r="E166" s="4"/>
       <c r="F166" s="4"/>
       <c r="G166" s="4"/>
       <c r="I166" s="4"/>
     </row>
-    <row r="167" spans="1:9">
+    <row r="167" spans="1:9" ht="31.5">
+      <c r="A167" s="8">
+        <v>2</v>
+      </c>
+      <c r="B167" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C167" s="8">
+        <v>2</v>
+      </c>
       <c r="D167" s="4"/>
       <c r="E167" s="4"/>
       <c r="F167" s="4"/>
       <c r="G167" s="4"/>
       <c r="I167" s="4"/>
     </row>
-    <row r="168" spans="1:9">
+    <row r="168" spans="1:9" ht="31.5">
+      <c r="A168" s="8">
+        <v>3</v>
+      </c>
+      <c r="B168" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C168" s="8">
+        <v>3</v>
+      </c>
       <c r="D168" s="4"/>
       <c r="E168" s="4"/>
       <c r="F168" s="4"/>
       <c r="G168" s="4"/>
       <c r="I168" s="4"/>
     </row>
-    <row r="169" spans="1:9">
+    <row r="169" spans="1:9" ht="31.5">
+      <c r="A169" s="8">
+        <v>4</v>
+      </c>
+      <c r="B169" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C169" s="8">
+        <v>4</v>
+      </c>
       <c r="D169" s="4"/>
       <c r="E169" s="4"/>
       <c r="F169" s="4"/>
       <c r="G169" s="4"/>
       <c r="I169" s="4"/>
     </row>
-    <row r="170" spans="1:9">
+    <row r="170" spans="1:9" ht="31.5">
+      <c r="A170" s="8">
+        <v>5</v>
+      </c>
+      <c r="B170" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C170" s="8">
+        <v>5</v>
+      </c>
       <c r="D170" s="4"/>
       <c r="E170" s="4"/>
       <c r="F170" s="4"/>
@@ -4248,23 +4388,79 @@
       <c r="G177" s="4"/>
       <c r="I177" s="4"/>
     </row>
+    <row r="178" spans="4:9">
+      <c r="D178" s="4"/>
+      <c r="E178" s="4"/>
+      <c r="F178" s="4"/>
+      <c r="G178" s="4"/>
+      <c r="I178" s="4"/>
+    </row>
+    <row r="179" spans="4:9">
+      <c r="D179" s="4"/>
+      <c r="E179" s="4"/>
+      <c r="F179" s="4"/>
+      <c r="G179" s="4"/>
+      <c r="I179" s="4"/>
+    </row>
+    <row r="180" spans="4:9">
+      <c r="D180" s="4"/>
+      <c r="E180" s="4"/>
+      <c r="F180" s="4"/>
+      <c r="G180" s="4"/>
+      <c r="I180" s="4"/>
+    </row>
+    <row r="181" spans="4:9">
+      <c r="D181" s="4"/>
+      <c r="E181" s="4"/>
+      <c r="F181" s="4"/>
+      <c r="G181" s="4"/>
+      <c r="I181" s="4"/>
+    </row>
+    <row r="182" spans="4:9">
+      <c r="D182" s="4"/>
+      <c r="E182" s="4"/>
+      <c r="F182" s="4"/>
+      <c r="G182" s="4"/>
+      <c r="I182" s="4"/>
+    </row>
+    <row r="183" spans="4:9">
+      <c r="D183" s="4"/>
+      <c r="E183" s="4"/>
+      <c r="F183" s="4"/>
+      <c r="G183" s="4"/>
+      <c r="I183" s="4"/>
+    </row>
+    <row r="184" spans="4:9">
+      <c r="D184" s="4"/>
+      <c r="E184" s="4"/>
+      <c r="F184" s="4"/>
+      <c r="G184" s="4"/>
+      <c r="I184" s="4"/>
+    </row>
+    <row r="185" spans="4:9">
+      <c r="D185" s="4"/>
+      <c r="E185" s="4"/>
+      <c r="F185" s="4"/>
+      <c r="G185" s="4"/>
+      <c r="I185" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A151:A154"/>
-    <mergeCell ref="B151:B154"/>
-    <mergeCell ref="B88:B150"/>
-    <mergeCell ref="A88:A150"/>
-    <mergeCell ref="B52:B87"/>
-    <mergeCell ref="A52:A87"/>
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B10:B51"/>
-    <mergeCell ref="A10:A51"/>
+    <mergeCell ref="B10:B59"/>
+    <mergeCell ref="A10:A59"/>
     <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A159:A162"/>
+    <mergeCell ref="B159:B162"/>
+    <mergeCell ref="B96:B158"/>
+    <mergeCell ref="A96:A158"/>
+    <mergeCell ref="B60:B95"/>
+    <mergeCell ref="A60:A95"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D153:F154 D155:G175 D2:G152">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D161:F162 D163:G183 D2:G160">
       <formula1>"O, "</formula1>
     </dataValidation>
   </dataValidations>
